--- a/DataTable_Guda_3.xlsx
+++ b/DataTable_Guda_3.xlsx
@@ -1305,7 +1305,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1322,6 +1322,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF3366FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1489,7 +1495,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1574,6 +1580,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1614,7 +1624,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1626,7 +1636,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1650,11 +1660,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1678,11 +1688,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1726,7 +1736,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1770,7 +1780,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1833,7 +1843,7 @@
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -1855,10 +1865,10 @@
   </sheetPr>
   <dimension ref="B1:NZ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="DF10" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="topRight" activeCell="DG42" activeCellId="0" sqref="DG42:DH42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3362,8 +3372,8 @@
         <v>52</v>
       </c>
       <c r="D4" s="20"/>
-      <c r="E4" s="0" t="n">
-        <v>3</v>
+      <c r="E4" s="21" t="n">
+        <v>2</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0</v>
@@ -3512,16 +3522,16 @@
       <c r="BB4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="BC4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="21" t="n">
+      <c r="BC4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="BG4" s="8" t="n">
@@ -3746,7 +3756,7 @@
       <c r="EB4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="EC4" s="21" t="n">
+      <c r="EC4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="ED4" s="8" t="n">
@@ -3866,7 +3876,7 @@
       <c r="FP4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="FQ4" s="21" t="n">
+      <c r="FQ4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="FR4" s="8" t="n">
@@ -3953,7 +3963,7 @@
       <c r="GS4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="GT4" s="21" t="n">
+      <c r="GT4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="GU4" s="8" t="n">
@@ -3980,7 +3990,7 @@
       <c r="HB4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="HC4" s="21" t="n">
+      <c r="HC4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="HD4" s="8" t="n">
@@ -4034,7 +4044,7 @@
       <c r="HT4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="HU4" s="21" t="n">
+      <c r="HU4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="HV4" s="7" t="n">
@@ -4073,7 +4083,7 @@
       <c r="IG4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="IH4" s="21" t="n">
+      <c r="IH4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="II4" s="8" t="n">
@@ -4151,7 +4161,7 @@
       <c r="JG4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="JH4" s="21" t="n">
+      <c r="JH4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="JI4" s="8" t="n">
@@ -4193,10 +4203,10 @@
       <c r="JU4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="JV4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="JW4" s="21" t="n">
+      <c r="JV4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW4" s="22" t="n">
         <v>1</v>
       </c>
       <c r="JX4" s="8" t="n">
@@ -4205,7 +4215,7 @@
       <c r="JY4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="JZ4" s="21" t="n">
+      <c r="JZ4" s="22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,16 +4377,16 @@
       <c r="BB5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="BC5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="21" t="n">
+      <c r="BC5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="22" t="n">
         <v>0</v>
       </c>
       <c r="BG5" s="8" t="n">
@@ -4601,7 +4611,7 @@
       <c r="EB5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="EC5" s="21" t="n">
+      <c r="EC5" s="22" t="n">
         <v>0</v>
       </c>
       <c r="ED5" s="8" t="n">
@@ -4675,7 +4685,7 @@
       <c r="FP5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="FQ5" s="21" t="n">
+      <c r="FQ5" s="22" t="n">
         <v>0</v>
       </c>
       <c r="FR5" s="8"/>
@@ -4756,7 +4766,7 @@
       <c r="GS5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="GT5" s="21" t="n">
+      <c r="GT5" s="22" t="n">
         <v>0</v>
       </c>
       <c r="GU5" s="8" t="n">
@@ -4783,7 +4793,7 @@
       <c r="HB5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="HC5" s="21" t="n">
+      <c r="HC5" s="22" t="n">
         <v>1</v>
       </c>
       <c r="HD5" s="8" t="n">
@@ -4837,7 +4847,7 @@
       <c r="HT5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="HU5" s="21" t="n">
+      <c r="HU5" s="22" t="n">
         <v>0</v>
       </c>
       <c r="HV5" s="7" t="n">
@@ -4876,7 +4886,7 @@
       <c r="IG5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="IH5" s="21" t="n">
+      <c r="IH5" s="22" t="n">
         <v>0</v>
       </c>
       <c r="II5" s="8" t="n">
@@ -4954,7 +4964,7 @@
       <c r="JG5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="JH5" s="21" t="n">
+      <c r="JH5" s="22" t="n">
         <v>0</v>
       </c>
       <c r="JI5" s="8" t="n">
@@ -4996,10 +5006,10 @@
       <c r="JU5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="JV5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="JW5" s="21" t="n">
+      <c r="JV5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW5" s="22" t="n">
         <v>0</v>
       </c>
       <c r="JX5" s="8" t="n">
@@ -5008,7 +5018,7 @@
       <c r="JY5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="JZ5" s="21" t="n">
+      <c r="JZ5" s="22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,173 +5982,173 @@
       <c r="NZ6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F7" s="25" t="n">
+      <c r="F7" s="26" t="n">
         <v>0.001</v>
       </c>
-      <c r="G7" s="26" t="n">
+      <c r="G7" s="27" t="n">
         <v>0.001</v>
       </c>
-      <c r="H7" s="26" t="n">
+      <c r="H7" s="27" t="n">
         <v>0.001</v>
       </c>
-      <c r="I7" s="27" t="n">
+      <c r="I7" s="28" t="n">
         <v>0.001</v>
       </c>
-      <c r="J7" s="25" t="n">
+      <c r="J7" s="26" t="n">
         <v>0.0008</v>
       </c>
-      <c r="K7" s="26" t="n">
+      <c r="K7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="L7" s="26" t="n">
+      <c r="L7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="M7" s="26" t="n">
+      <c r="M7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="N7" s="26" t="n">
+      <c r="N7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="O7" s="26" t="n">
+      <c r="O7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="P7" s="26" t="n">
+      <c r="P7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="Q7" s="26" t="n">
+      <c r="Q7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="R7" s="26" t="n">
+      <c r="R7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="S7" s="26" t="n">
+      <c r="S7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="T7" s="26" t="n">
+      <c r="T7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="U7" s="26" t="n">
+      <c r="U7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="V7" s="26" t="n">
+      <c r="V7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="W7" s="26" t="n">
+      <c r="W7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="X7" s="26" t="n">
+      <c r="X7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="Y7" s="25" t="n">
+      <c r="Y7" s="26" t="n">
         <v>0.0008</v>
       </c>
-      <c r="Z7" s="26" t="n">
+      <c r="Z7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AA7" s="26" t="n">
+      <c r="AA7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AB7" s="26" t="n">
+      <c r="AB7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AC7" s="26" t="n">
+      <c r="AC7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AD7" s="26" t="n">
+      <c r="AD7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AE7" s="26" t="n">
+      <c r="AE7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AF7" s="26" t="n">
+      <c r="AF7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AG7" s="26" t="n">
+      <c r="AG7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AH7" s="26" t="n">
+      <c r="AH7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AI7" s="26" t="n">
+      <c r="AI7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AJ7" s="26" t="n">
+      <c r="AJ7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AK7" s="26" t="n">
+      <c r="AK7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AL7" s="27" t="n">
+      <c r="AL7" s="28" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AM7" s="28" t="n">
+      <c r="AM7" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AN7" s="28" t="n">
+      <c r="AN7" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AO7" s="28" t="n">
+      <c r="AO7" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AP7" s="28" t="n">
+      <c r="AP7" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AQ7" s="28" t="n">
+      <c r="AQ7" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AR7" s="27" t="n">
+      <c r="AR7" s="28" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AS7" s="25" t="n">
+      <c r="AS7" s="26" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AT7" s="28" t="n">
+      <c r="AT7" s="29" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AU7" s="28" t="n">
+      <c r="AU7" s="29" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AV7" s="28" t="n">
+      <c r="AV7" s="29" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AW7" s="28" t="n">
+      <c r="AW7" s="29" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AX7" s="27" t="n">
+      <c r="AX7" s="28" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AY7" s="25" t="n">
+      <c r="AY7" s="26" t="n">
         <v>1.3E-005</v>
       </c>
-      <c r="AZ7" s="26" t="n">
+      <c r="AZ7" s="27" t="n">
         <v>1.3E-005</v>
       </c>
-      <c r="BA7" s="26" t="n">
+      <c r="BA7" s="27" t="n">
         <v>1.3E-005</v>
       </c>
-      <c r="BB7" s="27" t="n">
+      <c r="BB7" s="28" t="n">
         <v>1.3E-005</v>
       </c>
-      <c r="BC7" s="29" t="n">
+      <c r="BC7" s="30" t="n">
         <v>0.0005</v>
       </c>
-      <c r="BD7" s="29" t="n">
+      <c r="BD7" s="30" t="n">
         <v>7E-005</v>
       </c>
-      <c r="BE7" s="29" t="n">
+      <c r="BE7" s="30" t="n">
         <v>1E-005</v>
       </c>
-      <c r="BF7" s="29" t="n">
+      <c r="BF7" s="30" t="n">
         <v>1E-005</v>
       </c>
       <c r="BG7" s="8"/>
@@ -6167,184 +6177,184 @@
       <c r="CD7" s="7"/>
       <c r="CE7" s="7"/>
       <c r="CF7" s="9"/>
-      <c r="CG7" s="25" t="n">
+      <c r="CG7" s="26" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CH7" s="26" t="n">
+      <c r="CH7" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CI7" s="26" t="n">
+      <c r="CI7" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CJ7" s="26" t="n">
+      <c r="CJ7" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CK7" s="26" t="n">
+      <c r="CK7" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CL7" s="26" t="n">
+      <c r="CL7" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CM7" s="26" t="n">
+      <c r="CM7" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CN7" s="26" t="n">
+      <c r="CN7" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CO7" s="26" t="n">
+      <c r="CO7" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CP7" s="26" t="n">
+      <c r="CP7" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CQ7" s="26" t="n">
+      <c r="CQ7" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CR7" s="26" t="n">
+      <c r="CR7" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CS7" s="26" t="n">
+      <c r="CS7" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CT7" s="27" t="n">
+      <c r="CT7" s="28" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CU7" s="25" t="n">
+      <c r="CU7" s="26" t="n">
         <v>0.003</v>
       </c>
-      <c r="CV7" s="26" t="n">
+      <c r="CV7" s="27" t="n">
         <v>0.003</v>
       </c>
-      <c r="CW7" s="26" t="n">
+      <c r="CW7" s="27" t="n">
         <v>0.003</v>
       </c>
-      <c r="CX7" s="26" t="n">
+      <c r="CX7" s="27" t="n">
         <v>0.003</v>
       </c>
-      <c r="CY7" s="26" t="n">
+      <c r="CY7" s="27" t="n">
         <v>0.003</v>
       </c>
-      <c r="CZ7" s="26" t="n">
+      <c r="CZ7" s="27" t="n">
         <v>0.003</v>
       </c>
-      <c r="DA7" s="25" t="n">
+      <c r="DA7" s="26" t="n">
         <v>4E-007</v>
       </c>
-      <c r="DB7" s="26" t="n">
+      <c r="DB7" s="27" t="n">
         <v>4E-007</v>
       </c>
-      <c r="DC7" s="26" t="n">
+      <c r="DC7" s="27" t="n">
         <v>4E-007</v>
       </c>
-      <c r="DD7" s="27" t="n">
+      <c r="DD7" s="28" t="n">
         <v>4E-007</v>
       </c>
-      <c r="DE7" s="26" t="n">
+      <c r="DE7" s="27" t="n">
         <v>0.00065</v>
       </c>
-      <c r="DF7" s="26" t="n">
+      <c r="DF7" s="27" t="n">
         <v>0.00065</v>
       </c>
-      <c r="DG7" s="26" t="n">
+      <c r="DG7" s="27" t="n">
         <v>0.00065</v>
       </c>
-      <c r="DH7" s="27" t="n">
+      <c r="DH7" s="28" t="n">
         <v>0.00065</v>
       </c>
-      <c r="DI7" s="25" t="n">
+      <c r="DI7" s="26" t="n">
         <v>0.0004</v>
       </c>
-      <c r="DJ7" s="26" t="n">
+      <c r="DJ7" s="27" t="n">
         <v>0.0004</v>
       </c>
-      <c r="DK7" s="26" t="n">
+      <c r="DK7" s="27" t="n">
         <v>0.0004</v>
       </c>
-      <c r="DL7" s="27" t="n">
+      <c r="DL7" s="28" t="n">
         <v>0.0004</v>
       </c>
-      <c r="DM7" s="25" t="n">
+      <c r="DM7" s="26" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DN7" s="26" t="n">
+      <c r="DN7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DO7" s="26" t="n">
+      <c r="DO7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DP7" s="26" t="n">
+      <c r="DP7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DQ7" s="26" t="n">
+      <c r="DQ7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DR7" s="26" t="n">
+      <c r="DR7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DS7" s="26" t="n">
+      <c r="DS7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DT7" s="26" t="n">
+      <c r="DT7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DU7" s="26" t="n">
+      <c r="DU7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DV7" s="26" t="n">
+      <c r="DV7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DW7" s="26" t="n">
+      <c r="DW7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DX7" s="26" t="n">
+      <c r="DX7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DY7" s="26" t="n">
+      <c r="DY7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DZ7" s="26" t="n">
+      <c r="DZ7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="EA7" s="26" t="n">
+      <c r="EA7" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="EB7" s="27" t="n">
+      <c r="EB7" s="28" t="n">
         <v>0.0026</v>
       </c>
-      <c r="EC7" s="29" t="n">
+      <c r="EC7" s="30" t="n">
         <v>0.00013</v>
       </c>
-      <c r="ED7" s="25" t="n">
+      <c r="ED7" s="26" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EE7" s="26" t="n">
+      <c r="EE7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EF7" s="26" t="n">
+      <c r="EF7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EG7" s="26" t="n">
+      <c r="EG7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EH7" s="26" t="n">
+      <c r="EH7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EI7" s="26" t="n">
+      <c r="EI7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EJ7" s="27" t="n">
+      <c r="EJ7" s="28" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EK7" s="25" t="n">
+      <c r="EK7" s="26" t="n">
         <v>0.000133</v>
       </c>
-      <c r="EL7" s="26" t="n">
+      <c r="EL7" s="27" t="n">
         <v>0.000133</v>
       </c>
-      <c r="EM7" s="26" t="n">
+      <c r="EM7" s="27" t="n">
         <v>0.000133</v>
       </c>
-      <c r="EN7" s="27" t="n">
+      <c r="EN7" s="28" t="n">
         <v>0.000133</v>
       </c>
       <c r="EO7" s="8"/>
@@ -6366,113 +6376,113 @@
       <c r="FE7" s="7"/>
       <c r="FF7" s="7"/>
       <c r="FG7" s="9"/>
-      <c r="FH7" s="25" t="n">
+      <c r="FH7" s="26" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FI7" s="26" t="n">
+      <c r="FI7" s="27" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FJ7" s="26" t="n">
+      <c r="FJ7" s="27" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FK7" s="26" t="n">
+      <c r="FK7" s="27" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FL7" s="26" t="n">
+      <c r="FL7" s="27" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FM7" s="26" t="n">
+      <c r="FM7" s="27" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FN7" s="27" t="n">
+      <c r="FN7" s="28" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FO7" s="25" t="n">
+      <c r="FO7" s="26" t="n">
         <v>0.0001</v>
       </c>
-      <c r="FP7" s="27" t="n">
+      <c r="FP7" s="28" t="n">
         <v>0.0001</v>
       </c>
-      <c r="FQ7" s="21"/>
+      <c r="FQ7" s="22"/>
       <c r="FR7" s="8"/>
       <c r="FS7" s="7"/>
       <c r="FT7" s="9"/>
-      <c r="FU7" s="25" t="n">
+      <c r="FU7" s="26" t="n">
         <v>0.0008</v>
       </c>
-      <c r="FV7" s="26" t="n">
+      <c r="FV7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="FW7" s="26" t="n">
+      <c r="FW7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="FX7" s="26" t="n">
+      <c r="FX7" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="FY7" s="25" t="n">
+      <c r="FY7" s="26" t="n">
         <v>0.0005</v>
       </c>
-      <c r="FZ7" s="26" t="n">
+      <c r="FZ7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GA7" s="26" t="n">
+      <c r="GA7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GB7" s="26" t="n">
+      <c r="GB7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GC7" s="26" t="n">
+      <c r="GC7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GD7" s="26" t="n">
+      <c r="GD7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GE7" s="26" t="n">
+      <c r="GE7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GF7" s="26" t="n">
+      <c r="GF7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GG7" s="26" t="n">
+      <c r="GG7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GH7" s="26" t="n">
+      <c r="GH7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GI7" s="26" t="n">
+      <c r="GI7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GJ7" s="26" t="n">
+      <c r="GJ7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GK7" s="26" t="n">
+      <c r="GK7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GL7" s="26" t="n">
+      <c r="GL7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GM7" s="26" t="n">
+      <c r="GM7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GN7" s="27" t="n">
+      <c r="GN7" s="28" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GO7" s="25" t="n">
+      <c r="GO7" s="26" t="n">
         <v>0.00027</v>
       </c>
-      <c r="GP7" s="26" t="n">
+      <c r="GP7" s="27" t="n">
         <v>0.00027</v>
       </c>
-      <c r="GQ7" s="26" t="n">
+      <c r="GQ7" s="27" t="n">
         <v>0.00027</v>
       </c>
-      <c r="GR7" s="26" t="n">
+      <c r="GR7" s="27" t="n">
         <v>0.00027</v>
       </c>
-      <c r="GS7" s="27" t="n">
+      <c r="GS7" s="28" t="n">
         <v>0.00027</v>
       </c>
-      <c r="GT7" s="21"/>
+      <c r="GT7" s="22"/>
       <c r="GU7" s="8"/>
       <c r="GV7" s="7"/>
       <c r="GW7" s="7"/>
@@ -6481,68 +6491,68 @@
       <c r="GZ7" s="7"/>
       <c r="HA7" s="7"/>
       <c r="HB7" s="9"/>
-      <c r="HC7" s="29" t="n">
+      <c r="HC7" s="30" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HD7" s="25" t="n">
+      <c r="HD7" s="26" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HE7" s="26" t="n">
+      <c r="HE7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HF7" s="26" t="n">
+      <c r="HF7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HG7" s="26" t="n">
+      <c r="HG7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HH7" s="26" t="n">
+      <c r="HH7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HI7" s="26" t="n">
+      <c r="HI7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HJ7" s="26" t="n">
+      <c r="HJ7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HK7" s="26" t="n">
+      <c r="HK7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HL7" s="26" t="n">
+      <c r="HL7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HM7" s="26" t="n">
+      <c r="HM7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HN7" s="26" t="n">
+      <c r="HN7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HO7" s="26" t="n">
+      <c r="HO7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HP7" s="26" t="n">
+      <c r="HP7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HQ7" s="26" t="n">
+      <c r="HQ7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HR7" s="26" t="n">
+      <c r="HR7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HS7" s="26" t="n">
+      <c r="HS7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HT7" s="27" t="n">
+      <c r="HT7" s="28" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HU7" s="21"/>
-      <c r="HV7" s="26" t="n">
+      <c r="HU7" s="22"/>
+      <c r="HV7" s="27" t="n">
         <v>6.65E-006</v>
       </c>
-      <c r="HW7" s="26" t="n">
+      <c r="HW7" s="27" t="n">
         <v>6.65E-006</v>
       </c>
-      <c r="HX7" s="27" t="n">
+      <c r="HX7" s="28" t="n">
         <v>6.65E-006</v>
       </c>
       <c r="HY7" s="8"/>
@@ -6551,151 +6561,151 @@
       <c r="IB7" s="7"/>
       <c r="IC7" s="7"/>
       <c r="ID7" s="9"/>
-      <c r="IE7" s="25" t="n">
+      <c r="IE7" s="26" t="n">
         <v>0.0012</v>
       </c>
-      <c r="IF7" s="26" t="n">
+      <c r="IF7" s="27" t="n">
         <v>0.0012</v>
       </c>
-      <c r="IG7" s="27" t="n">
+      <c r="IG7" s="28" t="n">
         <v>0.0012</v>
       </c>
-      <c r="IH7" s="21"/>
-      <c r="II7" s="25" t="n">
+      <c r="IH7" s="22"/>
+      <c r="II7" s="26" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IJ7" s="26" t="n">
+      <c r="IJ7" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IK7" s="26" t="n">
+      <c r="IK7" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IL7" s="26" t="n">
+      <c r="IL7" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IM7" s="26" t="n">
+      <c r="IM7" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IN7" s="26" t="n">
+      <c r="IN7" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IO7" s="26" t="n">
+      <c r="IO7" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IP7" s="26" t="n">
+      <c r="IP7" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IQ7" s="26" t="n">
+      <c r="IQ7" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IR7" s="27" t="n">
+      <c r="IR7" s="28" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IS7" s="25" t="n">
+      <c r="IS7" s="26" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IT7" s="26" t="n">
+      <c r="IT7" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IU7" s="26" t="n">
+      <c r="IU7" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IV7" s="26" t="n">
+      <c r="IV7" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IW7" s="26" t="n">
+      <c r="IW7" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IX7" s="27" t="n">
+      <c r="IX7" s="28" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IY7" s="25" t="n">
+      <c r="IY7" s="26" t="n">
         <v>0.0002</v>
       </c>
-      <c r="IZ7" s="26" t="n">
+      <c r="IZ7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="JA7" s="26" t="n">
+      <c r="JA7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="JB7" s="26" t="n">
+      <c r="JB7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="JC7" s="26" t="n">
+      <c r="JC7" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="JD7" s="27" t="n">
+      <c r="JD7" s="28" t="n">
         <v>0.0002</v>
       </c>
       <c r="JE7" s="8"/>
       <c r="JF7" s="7"/>
       <c r="JG7" s="9"/>
-      <c r="JH7" s="29" t="n">
+      <c r="JH7" s="30" t="n">
         <v>0.00027</v>
       </c>
-      <c r="JI7" s="25" t="n">
+      <c r="JI7" s="26" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JJ7" s="26" t="n">
+      <c r="JJ7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JK7" s="26" t="n">
+      <c r="JK7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JL7" s="26" t="n">
+      <c r="JL7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JM7" s="26" t="n">
+      <c r="JM7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JN7" s="26" t="n">
+      <c r="JN7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JO7" s="26" t="n">
+      <c r="JO7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JP7" s="26" t="n">
+      <c r="JP7" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JQ7" s="25" t="n">
+      <c r="JQ7" s="26" t="n">
         <v>0.001</v>
       </c>
-      <c r="JR7" s="26" t="n">
+      <c r="JR7" s="27" t="n">
         <v>0.001</v>
       </c>
-      <c r="JS7" s="26" t="n">
+      <c r="JS7" s="27" t="n">
         <v>0.001</v>
       </c>
-      <c r="JT7" s="26" t="n">
+      <c r="JT7" s="27" t="n">
         <v>0.001</v>
       </c>
-      <c r="JU7" s="27" t="n">
+      <c r="JU7" s="28" t="n">
         <v>0.001</v>
       </c>
-      <c r="JV7" s="29" t="n">
+      <c r="JV7" s="30" t="n">
         <v>0.0001</v>
       </c>
-      <c r="JW7" s="29" t="n">
+      <c r="JW7" s="30" t="n">
         <v>0.0004</v>
       </c>
-      <c r="JX7" s="25" t="n">
+      <c r="JX7" s="26" t="n">
         <v>0.0009</v>
       </c>
-      <c r="JY7" s="27" t="n">
+      <c r="JY7" s="28" t="n">
         <v>0.0009</v>
       </c>
-      <c r="JZ7" s="29" t="n">
+      <c r="JZ7" s="30" t="n">
         <v>0.00015</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="26.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="0" t="n">
         <v>20</v>
       </c>
@@ -6846,16 +6856,16 @@
       <c r="BB8" s="9" t="n">
         <v>0.65</v>
       </c>
-      <c r="BC8" s="29" t="n">
+      <c r="BC8" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="BD8" s="21" t="n">
+      <c r="BD8" s="22" t="n">
         <v>0.5</v>
       </c>
-      <c r="BE8" s="21" t="n">
+      <c r="BE8" s="22" t="n">
         <v>1.02</v>
       </c>
-      <c r="BF8" s="21" t="n">
+      <c r="BF8" s="22" t="n">
         <v>0.55</v>
       </c>
       <c r="BG8" s="8" t="n">
@@ -7080,7 +7090,7 @@
       <c r="EB8" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="EC8" s="21" t="n">
+      <c r="EC8" s="22" t="n">
         <v>0.57</v>
       </c>
       <c r="ED8" s="8" t="n">
@@ -7200,7 +7210,7 @@
       <c r="FP8" s="9" t="n">
         <v>0.55</v>
       </c>
-      <c r="FQ8" s="21"/>
+      <c r="FQ8" s="22"/>
       <c r="FR8" s="8" t="n">
         <v>0.4</v>
       </c>
@@ -7285,7 +7295,7 @@
       <c r="GS8" s="9" t="n">
         <v>1.33</v>
       </c>
-      <c r="GT8" s="21"/>
+      <c r="GT8" s="22"/>
       <c r="GU8" s="8" t="n">
         <v>5</v>
       </c>
@@ -7310,7 +7320,7 @@
       <c r="HB8" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="HC8" s="21" t="n">
+      <c r="HC8" s="22" t="n">
         <v>0.4</v>
       </c>
       <c r="HD8" s="8" t="n">
@@ -7364,7 +7374,7 @@
       <c r="HT8" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="HU8" s="21" t="n">
+      <c r="HU8" s="22" t="n">
         <v>0.1</v>
       </c>
       <c r="HV8" s="7"/>
@@ -7397,7 +7407,7 @@
       <c r="IG8" s="9" t="n">
         <v>0.133</v>
       </c>
-      <c r="IH8" s="21" t="n">
+      <c r="IH8" s="22" t="n">
         <v>0.25</v>
       </c>
       <c r="II8" s="8" t="n">
@@ -7475,7 +7485,7 @@
       <c r="JG8" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="JH8" s="21" t="n">
+      <c r="JH8" s="22" t="n">
         <v>0.8</v>
       </c>
       <c r="JI8" s="8" t="n">
@@ -7517,10 +7527,10 @@
       <c r="JU8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="JV8" s="29" t="n">
+      <c r="JV8" s="30" t="n">
         <v>0.22</v>
       </c>
-      <c r="JW8" s="21" t="n">
+      <c r="JW8" s="22" t="n">
         <v>0.227</v>
       </c>
       <c r="JX8" s="8" t="n">
@@ -7529,18 +7539,18 @@
       <c r="JY8" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="JZ8" s="21" t="n">
+      <c r="JZ8" s="22" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="0" t="n">
         <v>20</v>
       </c>
@@ -7659,16 +7669,16 @@
       <c r="BB9" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="BC9" s="21" t="n">
+      <c r="BC9" s="22" t="n">
         <v>76</v>
       </c>
-      <c r="BD9" s="21" t="n">
+      <c r="BD9" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="BE9" s="21" t="n">
+      <c r="BE9" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="BF9" s="31" t="n">
+      <c r="BF9" s="32" t="n">
         <v>200</v>
       </c>
       <c r="BG9" s="8"/>
@@ -7813,7 +7823,7 @@
       <c r="EB9" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="EC9" s="21" t="n">
+      <c r="EC9" s="22" t="n">
         <v>75</v>
       </c>
       <c r="ED9" s="8" t="n">
@@ -7933,7 +7943,7 @@
       <c r="FP9" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="FQ9" s="21" t="n">
+      <c r="FQ9" s="22" t="n">
         <v>100</v>
       </c>
       <c r="FR9" s="8"/>
@@ -8006,7 +8016,7 @@
       <c r="GS9" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="GT9" s="21"/>
+      <c r="GT9" s="22"/>
       <c r="GU9" s="8" t="n">
         <v>124</v>
       </c>
@@ -8031,7 +8041,7 @@
       <c r="HB9" s="9" t="n">
         <v>124</v>
       </c>
-      <c r="HC9" s="21" t="n">
+      <c r="HC9" s="22" t="n">
         <v>75</v>
       </c>
       <c r="HD9" s="8" t="n">
@@ -8085,7 +8095,7 @@
       <c r="HT9" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="HU9" s="21"/>
+      <c r="HU9" s="22"/>
       <c r="HV9" s="7" t="n">
         <v>76</v>
       </c>
@@ -8122,7 +8132,7 @@
       <c r="IG9" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="IH9" s="21"/>
+      <c r="IH9" s="22"/>
       <c r="II9" s="8" t="n">
         <v>160</v>
       </c>
@@ -8192,7 +8202,7 @@
       <c r="JE9" s="8"/>
       <c r="JF9" s="7"/>
       <c r="JG9" s="9"/>
-      <c r="JH9" s="21"/>
+      <c r="JH9" s="22"/>
       <c r="JI9" s="8" t="n">
         <v>50</v>
       </c>
@@ -8232,10 +8242,10 @@
       <c r="JU9" s="9" t="n">
         <v>63.5</v>
       </c>
-      <c r="JV9" s="21" t="n">
+      <c r="JV9" s="22" t="n">
         <v>75</v>
       </c>
-      <c r="JW9" s="21" t="n">
+      <c r="JW9" s="22" t="n">
         <v>237</v>
       </c>
       <c r="JX9" s="8" t="n">
@@ -8244,18 +8254,18 @@
       <c r="JY9" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="JZ9" s="21" t="n">
+      <c r="JZ9" s="22" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="0" t="n">
         <v>20</v>
       </c>
@@ -8398,12 +8408,12 @@
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
       <c r="BB10" s="9"/>
-      <c r="BC10" s="21"/>
-      <c r="BD10" s="21" t="n">
+      <c r="BC10" s="22"/>
+      <c r="BD10" s="22" t="n">
         <v>7.5</v>
       </c>
-      <c r="BE10" s="21"/>
-      <c r="BF10" s="21"/>
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="22"/>
       <c r="BG10" s="8" t="n">
         <v>9</v>
       </c>
@@ -8574,7 +8584,7 @@
       <c r="EB10" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="EC10" s="21" t="n">
+      <c r="EC10" s="22" t="n">
         <v>9.2</v>
       </c>
       <c r="ED10" s="8" t="n">
@@ -8652,7 +8662,7 @@
       </c>
       <c r="FO10" s="8"/>
       <c r="FP10" s="9"/>
-      <c r="FQ10" s="21"/>
+      <c r="FQ10" s="22"/>
       <c r="FR10" s="8"/>
       <c r="FS10" s="7"/>
       <c r="FT10" s="9"/>
@@ -8731,7 +8741,7 @@
       <c r="GS10" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="GT10" s="21"/>
+      <c r="GT10" s="22"/>
       <c r="GU10" s="8" t="n">
         <v>20</v>
       </c>
@@ -8756,7 +8766,7 @@
       <c r="HB10" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="HC10" s="21" t="n">
+      <c r="HC10" s="22" t="n">
         <v>5.4</v>
       </c>
       <c r="HD10" s="8" t="n">
@@ -8810,7 +8820,7 @@
       <c r="HT10" s="9" t="n">
         <v>5.4</v>
       </c>
-      <c r="HU10" s="21"/>
+      <c r="HU10" s="22"/>
       <c r="HV10" s="7" t="n">
         <v>8</v>
       </c>
@@ -8835,7 +8845,7 @@
       <c r="IG10" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="IH10" s="21"/>
+      <c r="IH10" s="22"/>
       <c r="II10" s="8" t="n">
         <v>7</v>
       </c>
@@ -8911,7 +8921,7 @@
       <c r="JG10" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="JH10" s="21"/>
+      <c r="JH10" s="22"/>
       <c r="JI10" s="8" t="n">
         <v>9.5</v>
       </c>
@@ -8951,26 +8961,26 @@
       <c r="JU10" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="JV10" s="21"/>
-      <c r="JW10" s="21"/>
+      <c r="JV10" s="22"/>
+      <c r="JW10" s="22"/>
       <c r="JX10" s="8" t="n">
         <v>7</v>
       </c>
       <c r="JY10" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="JZ10" s="21" t="n">
+      <c r="JZ10" s="22" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="0" t="n">
         <v>3</v>
       </c>
@@ -9035,27 +9045,27 @@
       <c r="AL11" s="9" t="n">
         <v>0.17</v>
       </c>
-      <c r="AM11" s="32" t="n">
+      <c r="AM11" s="33" t="n">
         <f aca="false">2.3/15</f>
         <v>0.153333333333333</v>
       </c>
-      <c r="AN11" s="32" t="n">
+      <c r="AN11" s="33" t="n">
         <f aca="false">2.3/15</f>
         <v>0.153333333333333</v>
       </c>
-      <c r="AO11" s="32" t="n">
+      <c r="AO11" s="33" t="n">
         <f aca="false">2.3/15</f>
         <v>0.153333333333333</v>
       </c>
-      <c r="AP11" s="32" t="n">
+      <c r="AP11" s="33" t="n">
         <f aca="false">2.3/15</f>
         <v>0.153333333333333</v>
       </c>
-      <c r="AQ11" s="32" t="n">
+      <c r="AQ11" s="33" t="n">
         <f aca="false">2.3/15</f>
         <v>0.153333333333333</v>
       </c>
-      <c r="AR11" s="33" t="n">
+      <c r="AR11" s="34" t="n">
         <f aca="false">2.3/15</f>
         <v>0.153333333333333</v>
       </c>
@@ -9073,14 +9083,14 @@
       <c r="BB11" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="21" t="n">
+      <c r="BC11" s="22"/>
+      <c r="BD11" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="BE11" s="21" t="n">
+      <c r="BE11" s="22" t="n">
         <v>0.02</v>
       </c>
-      <c r="BF11" s="21" t="n">
+      <c r="BF11" s="22" t="n">
         <v>0.02</v>
       </c>
       <c r="BG11" s="8" t="n">
@@ -9293,7 +9303,7 @@
       <c r="EB11" s="9" t="n">
         <v>0.03</v>
       </c>
-      <c r="EC11" s="21" t="n">
+      <c r="EC11" s="22" t="n">
         <v>0.014</v>
       </c>
       <c r="ED11" s="8" t="n">
@@ -9386,30 +9396,30 @@
       <c r="FG11" s="9" t="n">
         <v>0.021</v>
       </c>
-      <c r="FH11" s="25" t="n">
+      <c r="FH11" s="26" t="n">
         <v>0.015</v>
       </c>
-      <c r="FI11" s="26" t="n">
+      <c r="FI11" s="27" t="n">
         <v>0.029</v>
       </c>
-      <c r="FJ11" s="26" t="n">
+      <c r="FJ11" s="27" t="n">
         <v>0.054</v>
       </c>
-      <c r="FK11" s="26" t="n">
+      <c r="FK11" s="27" t="n">
         <v>0.061</v>
       </c>
-      <c r="FL11" s="26" t="n">
+      <c r="FL11" s="27" t="n">
         <v>0.094</v>
       </c>
-      <c r="FM11" s="26" t="n">
+      <c r="FM11" s="27" t="n">
         <v>0.4</v>
       </c>
-      <c r="FN11" s="27" t="n">
+      <c r="FN11" s="28" t="n">
         <v>100</v>
       </c>
       <c r="FO11" s="8"/>
       <c r="FP11" s="9"/>
-      <c r="FQ11" s="21"/>
+      <c r="FQ11" s="22"/>
       <c r="FR11" s="8"/>
       <c r="FS11" s="7"/>
       <c r="FT11" s="9"/>
@@ -9488,7 +9498,7 @@
       <c r="GS11" s="9" t="n">
         <v>0.43</v>
       </c>
-      <c r="GT11" s="21"/>
+      <c r="GT11" s="22"/>
       <c r="GU11" s="8" t="n">
         <v>0.21</v>
       </c>
@@ -9513,7 +9523,7 @@
       <c r="HB11" s="9" t="n">
         <v>0.21</v>
       </c>
-      <c r="HC11" s="21" t="n">
+      <c r="HC11" s="22" t="n">
         <v>0.09</v>
       </c>
       <c r="HD11" s="8" t="n">
@@ -9567,7 +9577,7 @@
       <c r="HT11" s="9" t="n">
         <v>0.035</v>
       </c>
-      <c r="HU11" s="21" t="n">
+      <c r="HU11" s="22" t="n">
         <v>0.2</v>
       </c>
       <c r="HV11" s="7" t="n">
@@ -9598,7 +9608,7 @@
       <c r="IG11" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="IH11" s="21" t="n">
+      <c r="IH11" s="22" t="n">
         <v>0.43</v>
       </c>
       <c r="II11" s="8" t="n">
@@ -9664,7 +9674,7 @@
       <c r="JG11" s="9" t="n">
         <v>1.2</v>
       </c>
-      <c r="JH11" s="21" t="n">
+      <c r="JH11" s="22" t="n">
         <v>0.036</v>
       </c>
       <c r="JI11" s="8" t="n">
@@ -9698,10 +9708,10 @@
       <c r="JU11" s="9" t="n">
         <v>0.67</v>
       </c>
-      <c r="JV11" s="21" t="n">
+      <c r="JV11" s="22" t="n">
         <v>0.1</v>
       </c>
-      <c r="JW11" s="21" t="n">
+      <c r="JW11" s="22" t="n">
         <v>0.3</v>
       </c>
       <c r="JX11" s="8" t="n">
@@ -9710,16 +9720,16 @@
       <c r="JY11" s="9" t="n">
         <v>0.17</v>
       </c>
-      <c r="JZ11" s="21"/>
+      <c r="JZ11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="0" t="n">
         <v>20</v>
       </c>
@@ -9836,16 +9846,16 @@
       <c r="BB12" s="9" t="n">
         <v>1.27</v>
       </c>
-      <c r="BC12" s="21" t="n">
+      <c r="BC12" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="BD12" s="21" t="n">
+      <c r="BD12" s="22" t="n">
         <v>0.8</v>
       </c>
-      <c r="BE12" s="21" t="n">
+      <c r="BE12" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="BF12" s="21" t="n">
+      <c r="BF12" s="22" t="n">
         <v>11</v>
       </c>
       <c r="BG12" s="8"/>
@@ -9998,7 +10008,7 @@
       <c r="EB12" s="9" t="n">
         <v>1.6</v>
       </c>
-      <c r="EC12" s="21" t="n">
+      <c r="EC12" s="22" t="n">
         <v>1.6</v>
       </c>
       <c r="ED12" s="8"/>
@@ -10104,7 +10114,7 @@
       <c r="FP12" s="9" t="n">
         <v>4.1</v>
       </c>
-      <c r="FQ12" s="21" t="n">
+      <c r="FQ12" s="22" t="n">
         <v>10</v>
       </c>
       <c r="FR12" s="8"/>
@@ -10177,7 +10187,7 @@
       <c r="GS12" s="9" t="n">
         <v>7.4</v>
       </c>
-      <c r="GT12" s="21"/>
+      <c r="GT12" s="22"/>
       <c r="GU12" s="8" t="n">
         <v>14.9</v>
       </c>
@@ -10202,7 +10212,7 @@
       <c r="HB12" s="9" t="n">
         <v>14.9</v>
       </c>
-      <c r="HC12" s="21" t="n">
+      <c r="HC12" s="22" t="n">
         <v>5.4</v>
       </c>
       <c r="HD12" s="8" t="n">
@@ -10256,7 +10266,7 @@
       <c r="HT12" s="9" t="n">
         <v>5.4</v>
       </c>
-      <c r="HU12" s="21" t="n">
+      <c r="HU12" s="22" t="n">
         <v>4.93</v>
       </c>
       <c r="HV12" s="7" t="n">
@@ -10277,7 +10287,7 @@
       <c r="IE12" s="8"/>
       <c r="IF12" s="7"/>
       <c r="IG12" s="9"/>
-      <c r="IH12" s="21"/>
+      <c r="IH12" s="22"/>
       <c r="II12" s="8" t="n">
         <v>4</v>
       </c>
@@ -10335,7 +10345,7 @@
       <c r="JE12" s="8"/>
       <c r="JF12" s="7"/>
       <c r="JG12" s="9"/>
-      <c r="JH12" s="21"/>
+      <c r="JH12" s="22"/>
       <c r="JI12" s="8" t="n">
         <v>11.7</v>
       </c>
@@ -10375,28 +10385,28 @@
       <c r="JU12" s="9" t="n">
         <v>4.73</v>
       </c>
-      <c r="JV12" s="21" t="n">
+      <c r="JV12" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="JW12" s="21"/>
+      <c r="JW12" s="22"/>
       <c r="JX12" s="8" t="n">
         <v>7.6</v>
       </c>
       <c r="JY12" s="9" t="n">
         <v>7.6</v>
       </c>
-      <c r="JZ12" s="21" t="n">
+      <c r="JZ12" s="22" t="n">
         <v>12.7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="0" t="n">
         <v>20</v>
       </c>
@@ -10547,16 +10557,16 @@
       <c r="BB13" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="BC13" s="21" t="n">
+      <c r="BC13" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="BD13" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="21" t="n">
+      <c r="BD13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="BF13" s="21" t="n">
+      <c r="BF13" s="22" t="n">
         <v>100</v>
       </c>
       <c r="BG13" s="8" t="n">
@@ -10773,7 +10783,7 @@
       <c r="EB13" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="EC13" s="21" t="n">
+      <c r="EC13" s="22" t="n">
         <v>50</v>
       </c>
       <c r="ED13" s="8" t="n">
@@ -10889,7 +10899,7 @@
       </c>
       <c r="FO13" s="8"/>
       <c r="FP13" s="9"/>
-      <c r="FQ13" s="21" t="n">
+      <c r="FQ13" s="22" t="n">
         <v>70</v>
       </c>
       <c r="FR13" s="8" t="n">
@@ -10966,7 +10976,7 @@
       <c r="GQ13" s="7"/>
       <c r="GR13" s="7"/>
       <c r="GS13" s="9"/>
-      <c r="GT13" s="21"/>
+      <c r="GT13" s="22"/>
       <c r="GU13" s="8" t="n">
         <v>5</v>
       </c>
@@ -10991,7 +11001,7 @@
       <c r="HB13" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="HC13" s="21" t="n">
+      <c r="HC13" s="22" t="n">
         <v>200</v>
       </c>
       <c r="HD13" s="8" t="n">
@@ -11045,7 +11055,7 @@
       <c r="HT13" s="9" t="n">
         <v>270</v>
       </c>
-      <c r="HU13" s="21" t="n">
+      <c r="HU13" s="22" t="n">
         <v>100</v>
       </c>
       <c r="HV13" s="7"/>
@@ -11066,7 +11076,7 @@
       <c r="IG13" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="IH13" s="21"/>
+      <c r="IH13" s="22"/>
       <c r="II13" s="8" t="n">
         <v>70</v>
       </c>
@@ -11130,7 +11140,7 @@
       <c r="JG13" s="9" t="n">
         <v>130</v>
       </c>
-      <c r="JH13" s="21" t="n">
+      <c r="JH13" s="22" t="n">
         <v>75</v>
       </c>
       <c r="JI13" s="8" t="n">
@@ -11162,26 +11172,26 @@
       <c r="JS13" s="7"/>
       <c r="JT13" s="7"/>
       <c r="JU13" s="9"/>
-      <c r="JV13" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW13" s="21" t="n">
+      <c r="JV13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW13" s="22" t="n">
         <v>60</v>
       </c>
       <c r="JX13" s="8"/>
       <c r="JY13" s="9"/>
-      <c r="JZ13" s="21" t="n">
+      <c r="JZ13" s="22" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="0" t="n">
         <v>20</v>
       </c>
@@ -11316,16 +11326,16 @@
       <c r="BB14" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="BC14" s="21" t="n">
+      <c r="BC14" s="22" t="n">
         <v>400</v>
       </c>
-      <c r="BD14" s="21" t="n">
+      <c r="BD14" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="BE14" s="21" t="n">
+      <c r="BE14" s="22" t="n">
         <v>300</v>
       </c>
-      <c r="BF14" s="21" t="n">
+      <c r="BF14" s="22" t="n">
         <v>500</v>
       </c>
       <c r="BG14" s="8"/>
@@ -11494,7 +11504,7 @@
       <c r="EB14" s="9" t="n">
         <v>220</v>
       </c>
-      <c r="EC14" s="21" t="n">
+      <c r="EC14" s="22" t="n">
         <v>500</v>
       </c>
       <c r="ED14" s="8" t="n">
@@ -11576,7 +11586,7 @@
       <c r="FP14" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="FQ14" s="21"/>
+      <c r="FQ14" s="22"/>
       <c r="FR14" s="8"/>
       <c r="FS14" s="7"/>
       <c r="FT14" s="9"/>
@@ -11655,7 +11665,7 @@
       <c r="GS14" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="GT14" s="21"/>
+      <c r="GT14" s="22"/>
       <c r="GU14" s="8" t="n">
         <v>500</v>
       </c>
@@ -11666,7 +11676,7 @@
       <c r="GZ14" s="7"/>
       <c r="HA14" s="7"/>
       <c r="HB14" s="9"/>
-      <c r="HC14" s="21" t="n">
+      <c r="HC14" s="22" t="n">
         <v>400</v>
       </c>
       <c r="HD14" s="8" t="n">
@@ -11720,7 +11730,7 @@
       <c r="HT14" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="HU14" s="21" t="n">
+      <c r="HU14" s="22" t="n">
         <v>300</v>
       </c>
       <c r="HV14" s="7" t="n">
@@ -11759,7 +11769,7 @@
       <c r="IG14" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="IH14" s="21" t="n">
+      <c r="IH14" s="22" t="n">
         <v>580</v>
       </c>
       <c r="II14" s="8" t="n">
@@ -11825,7 +11835,7 @@
       <c r="JG14" s="9" t="n">
         <v>452</v>
       </c>
-      <c r="JH14" s="21"/>
+      <c r="JH14" s="22"/>
       <c r="JI14" s="8"/>
       <c r="JJ14" s="7"/>
       <c r="JK14" s="7"/>
@@ -11849,26 +11859,26 @@
       <c r="JU14" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="JV14" s="21"/>
-      <c r="JW14" s="21"/>
+      <c r="JV14" s="22"/>
+      <c r="JW14" s="22"/>
       <c r="JX14" s="8" t="n">
         <v>250</v>
       </c>
       <c r="JY14" s="9" t="n">
         <v>250</v>
       </c>
-      <c r="JZ14" s="21" t="n">
+      <c r="JZ14" s="22" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="23"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="0" t="n">
         <v>20</v>
       </c>
@@ -11929,16 +11939,16 @@
       <c r="BB15" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="BC15" s="21" t="n">
+      <c r="BC15" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="BD15" s="21" t="n">
+      <c r="BD15" s="22" t="n">
         <v>16.7</v>
       </c>
-      <c r="BE15" s="21" t="n">
+      <c r="BE15" s="22" t="n">
         <v>83</v>
       </c>
-      <c r="BF15" s="21" t="n">
+      <c r="BF15" s="22" t="n">
         <v>0.5</v>
       </c>
       <c r="BG15" s="8"/>
@@ -12065,7 +12075,7 @@
       <c r="DZ15" s="7"/>
       <c r="EA15" s="7"/>
       <c r="EB15" s="9"/>
-      <c r="EC15" s="21"/>
+      <c r="EC15" s="22"/>
       <c r="ED15" s="8" t="n">
         <v>6.3</v>
       </c>
@@ -12179,7 +12189,7 @@
       </c>
       <c r="FO15" s="8"/>
       <c r="FP15" s="9"/>
-      <c r="FQ15" s="21" t="n">
+      <c r="FQ15" s="22" t="n">
         <v>64</v>
       </c>
       <c r="FR15" s="8"/>
@@ -12242,7 +12252,7 @@
       <c r="GQ15" s="7"/>
       <c r="GR15" s="7"/>
       <c r="GS15" s="9"/>
-      <c r="GT15" s="21"/>
+      <c r="GT15" s="22"/>
       <c r="GU15" s="8" t="n">
         <v>96</v>
       </c>
@@ -12267,7 +12277,7 @@
       <c r="HB15" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="HC15" s="21" t="n">
+      <c r="HC15" s="22" t="n">
         <v>12</v>
       </c>
       <c r="HD15" s="8" t="n">
@@ -12321,7 +12331,7 @@
       <c r="HT15" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="HU15" s="21" t="n">
+      <c r="HU15" s="22" t="n">
         <v>10</v>
       </c>
       <c r="HV15" s="7" t="n">
@@ -12344,7 +12354,7 @@
       <c r="IE15" s="8"/>
       <c r="IF15" s="7"/>
       <c r="IG15" s="9"/>
-      <c r="IH15" s="21" t="n">
+      <c r="IH15" s="22" t="n">
         <v>10.8</v>
       </c>
       <c r="II15" s="8" t="n">
@@ -12410,7 +12420,7 @@
       <c r="JG15" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="JH15" s="21" t="n">
+      <c r="JH15" s="22" t="n">
         <v>75</v>
       </c>
       <c r="JI15" s="8"/>
@@ -12436,24 +12446,24 @@
       <c r="JU15" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="JV15" s="21"/>
-      <c r="JW15" s="21"/>
+      <c r="JV15" s="22"/>
+      <c r="JW15" s="22"/>
       <c r="JX15" s="8" t="n">
         <v>32</v>
       </c>
       <c r="JY15" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="JZ15" s="21"/>
+      <c r="JZ15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="26.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
@@ -12564,12 +12574,12 @@
       <c r="AZ16" s="7"/>
       <c r="BA16" s="7"/>
       <c r="BB16" s="9"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF16" s="21" t="n">
+      <c r="BC16" s="22"/>
+      <c r="BD16" s="22"/>
+      <c r="BE16" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF16" s="22" t="n">
         <v>0.9</v>
       </c>
       <c r="BG16" s="8" t="n">
@@ -12698,7 +12708,7 @@
       <c r="DZ16" s="7"/>
       <c r="EA16" s="7"/>
       <c r="EB16" s="9"/>
-      <c r="EC16" s="21"/>
+      <c r="EC16" s="22"/>
       <c r="ED16" s="8"/>
       <c r="EE16" s="7"/>
       <c r="EF16" s="7"/>
@@ -12738,7 +12748,7 @@
       <c r="FN16" s="9"/>
       <c r="FO16" s="8"/>
       <c r="FP16" s="9"/>
-      <c r="FQ16" s="21"/>
+      <c r="FQ16" s="22"/>
       <c r="FR16" s="8"/>
       <c r="FS16" s="7"/>
       <c r="FT16" s="9"/>
@@ -12767,7 +12777,7 @@
       <c r="GQ16" s="7"/>
       <c r="GR16" s="7"/>
       <c r="GS16" s="9"/>
-      <c r="GT16" s="21"/>
+      <c r="GT16" s="22"/>
       <c r="GU16" s="8" t="n">
         <v>2.2</v>
       </c>
@@ -12792,7 +12802,7 @@
       <c r="HB16" s="9" t="n">
         <v>7.7</v>
       </c>
-      <c r="HC16" s="21"/>
+      <c r="HC16" s="22"/>
       <c r="HD16" s="8"/>
       <c r="HE16" s="7"/>
       <c r="HF16" s="7"/>
@@ -12810,7 +12820,7 @@
       <c r="HR16" s="7"/>
       <c r="HS16" s="7"/>
       <c r="HT16" s="9"/>
-      <c r="HU16" s="21"/>
+      <c r="HU16" s="22"/>
       <c r="HV16" s="7"/>
       <c r="HW16" s="7"/>
       <c r="HX16" s="9"/>
@@ -12823,7 +12833,7 @@
       <c r="IE16" s="8"/>
       <c r="IF16" s="7"/>
       <c r="IG16" s="9"/>
-      <c r="IH16" s="21"/>
+      <c r="IH16" s="22"/>
       <c r="II16" s="8"/>
       <c r="IJ16" s="7"/>
       <c r="IK16" s="7"/>
@@ -12861,7 +12871,7 @@
       <c r="JE16" s="8"/>
       <c r="JF16" s="7"/>
       <c r="JG16" s="9"/>
-      <c r="JH16" s="21"/>
+      <c r="JH16" s="22"/>
       <c r="JI16" s="8"/>
       <c r="JJ16" s="7"/>
       <c r="JK16" s="7"/>
@@ -12875,20 +12885,20 @@
       <c r="JS16" s="7"/>
       <c r="JT16" s="7"/>
       <c r="JU16" s="9"/>
-      <c r="JV16" s="21"/>
-      <c r="JW16" s="21"/>
+      <c r="JV16" s="22"/>
+      <c r="JW16" s="22"/>
       <c r="JX16" s="8"/>
       <c r="JY16" s="9"/>
-      <c r="JZ16" s="21"/>
+      <c r="JZ16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="0" t="n">
         <v>20</v>
       </c>
@@ -13039,16 +13049,16 @@
       <c r="BB17" s="9" t="n">
         <v>0.75</v>
       </c>
-      <c r="BC17" s="21" t="n">
+      <c r="BC17" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="BD17" s="21" t="n">
+      <c r="BD17" s="22" t="n">
         <v>2.5</v>
       </c>
-      <c r="BE17" s="21" t="n">
+      <c r="BE17" s="22" t="n">
         <v>7.4</v>
       </c>
-      <c r="BF17" s="21" t="n">
+      <c r="BF17" s="22" t="n">
         <v>1.2</v>
       </c>
       <c r="BG17" s="8" t="n">
@@ -13203,7 +13213,7 @@
       <c r="DZ17" s="7"/>
       <c r="EA17" s="7"/>
       <c r="EB17" s="9"/>
-      <c r="EC17" s="21" t="n">
+      <c r="EC17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="ED17" s="8" t="n">
@@ -13323,7 +13333,7 @@
       <c r="FP17" s="9" t="n">
         <v>1.75</v>
       </c>
-      <c r="FQ17" s="21" t="n">
+      <c r="FQ17" s="22" t="n">
         <v>2.56</v>
       </c>
       <c r="FR17" s="8" t="n">
@@ -13410,7 +13420,7 @@
       <c r="GS17" s="9" t="n">
         <v>2.83</v>
       </c>
-      <c r="GT17" s="21" t="n">
+      <c r="GT17" s="22" t="n">
         <v>3.1</v>
       </c>
       <c r="GU17" s="8" t="n">
@@ -13437,7 +13447,7 @@
       <c r="HB17" s="9" t="n">
         <v>4.9</v>
       </c>
-      <c r="HC17" s="21" t="n">
+      <c r="HC17" s="22" t="n">
         <v>2</v>
       </c>
       <c r="HD17" s="8" t="n">
@@ -13491,7 +13501,7 @@
       <c r="HT17" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="HU17" s="21" t="n">
+      <c r="HU17" s="22" t="n">
         <v>1.5</v>
       </c>
       <c r="HV17" s="7" t="n">
@@ -13518,7 +13528,7 @@
       <c r="IG17" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="IH17" s="21" t="n">
+      <c r="IH17" s="22" t="n">
         <v>0.65</v>
       </c>
       <c r="II17" s="8" t="n">
@@ -13580,7 +13590,7 @@
       <c r="JG17" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="JH17" s="21" t="n">
+      <c r="JH17" s="22" t="n">
         <v>4</v>
       </c>
       <c r="JI17" s="8" t="n">
@@ -13622,8 +13632,8 @@
       <c r="JU17" s="9" t="n">
         <v>1.1</v>
       </c>
-      <c r="JV17" s="21"/>
-      <c r="JW17" s="21" t="n">
+      <c r="JV17" s="22"/>
+      <c r="JW17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="JX17" s="8" t="n">
@@ -13632,7 +13642,7 @@
       <c r="JY17" s="9" t="n">
         <v>1.9</v>
       </c>
-      <c r="JZ17" s="21" t="n">
+      <c r="JZ17" s="22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13684,10 +13694,10 @@
       <c r="AZ18" s="7"/>
       <c r="BA18" s="7"/>
       <c r="BB18" s="9"/>
-      <c r="BC18" s="21"/>
-      <c r="BD18" s="21"/>
-      <c r="BE18" s="21"/>
-      <c r="BF18" s="21"/>
+      <c r="BC18" s="22"/>
+      <c r="BD18" s="22"/>
+      <c r="BE18" s="22"/>
+      <c r="BF18" s="22"/>
       <c r="BG18" s="8"/>
       <c r="BH18" s="7"/>
       <c r="BI18" s="7"/>
@@ -13762,7 +13772,7 @@
       <c r="DZ18" s="7"/>
       <c r="EA18" s="7"/>
       <c r="EB18" s="9"/>
-      <c r="EC18" s="21"/>
+      <c r="EC18" s="22"/>
       <c r="ED18" s="8"/>
       <c r="EE18" s="7"/>
       <c r="EF18" s="7"/>
@@ -13793,16 +13803,16 @@
       <c r="FE18" s="7"/>
       <c r="FF18" s="7"/>
       <c r="FG18" s="9"/>
-      <c r="FH18" s="25"/>
-      <c r="FI18" s="26"/>
-      <c r="FJ18" s="26"/>
-      <c r="FK18" s="26"/>
-      <c r="FL18" s="26"/>
-      <c r="FM18" s="26"/>
-      <c r="FN18" s="27"/>
+      <c r="FH18" s="26"/>
+      <c r="FI18" s="27"/>
+      <c r="FJ18" s="27"/>
+      <c r="FK18" s="27"/>
+      <c r="FL18" s="27"/>
+      <c r="FM18" s="27"/>
+      <c r="FN18" s="28"/>
       <c r="FO18" s="8"/>
       <c r="FP18" s="9"/>
-      <c r="FQ18" s="21"/>
+      <c r="FQ18" s="22"/>
       <c r="FR18" s="8"/>
       <c r="FS18" s="7"/>
       <c r="FT18" s="9"/>
@@ -13831,7 +13841,7 @@
       <c r="GQ18" s="7"/>
       <c r="GR18" s="7"/>
       <c r="GS18" s="9"/>
-      <c r="GT18" s="21"/>
+      <c r="GT18" s="22"/>
       <c r="GU18" s="8"/>
       <c r="GV18" s="7"/>
       <c r="GW18" s="7"/>
@@ -13840,7 +13850,7 @@
       <c r="GZ18" s="7"/>
       <c r="HA18" s="7"/>
       <c r="HB18" s="9"/>
-      <c r="HC18" s="21"/>
+      <c r="HC18" s="22"/>
       <c r="HD18" s="8"/>
       <c r="HE18" s="7"/>
       <c r="HF18" s="7"/>
@@ -13858,7 +13868,7 @@
       <c r="HR18" s="7"/>
       <c r="HS18" s="7"/>
       <c r="HT18" s="9"/>
-      <c r="HU18" s="21"/>
+      <c r="HU18" s="22"/>
       <c r="HV18" s="7"/>
       <c r="HW18" s="7"/>
       <c r="HX18" s="9"/>
@@ -13871,7 +13881,7 @@
       <c r="IE18" s="8"/>
       <c r="IF18" s="7"/>
       <c r="IG18" s="9"/>
-      <c r="IH18" s="21"/>
+      <c r="IH18" s="22"/>
       <c r="II18" s="8"/>
       <c r="IJ18" s="7"/>
       <c r="IK18" s="7"/>
@@ -13897,7 +13907,7 @@
       <c r="JE18" s="8"/>
       <c r="JF18" s="7"/>
       <c r="JG18" s="9"/>
-      <c r="JH18" s="21"/>
+      <c r="JH18" s="22"/>
       <c r="JI18" s="8"/>
       <c r="JJ18" s="7"/>
       <c r="JK18" s="7"/>
@@ -13911,20 +13921,20 @@
       <c r="JS18" s="7"/>
       <c r="JT18" s="7"/>
       <c r="JU18" s="9"/>
-      <c r="JV18" s="21"/>
-      <c r="JW18" s="21"/>
+      <c r="JV18" s="22"/>
+      <c r="JW18" s="22"/>
       <c r="JX18" s="8"/>
       <c r="JY18" s="9"/>
-      <c r="JZ18" s="21"/>
+      <c r="JZ18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="0" t="n">
         <v>20</v>
       </c>
@@ -14048,19 +14058,19 @@
       <c r="AS19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AT19" s="35" t="s">
+      <c r="AT19" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="AU19" s="35" t="s">
+      <c r="AU19" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="AV19" s="35" t="s">
+      <c r="AV19" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="AW19" s="35" t="s">
+      <c r="AW19" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="AX19" s="36" t="s">
+      <c r="AX19" s="37" t="s">
         <v>83</v>
       </c>
       <c r="AY19" s="8" t="s">
@@ -14075,16 +14085,16 @@
       <c r="BB19" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="BC19" s="21" t="s">
+      <c r="BC19" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="BD19" s="21" t="s">
+      <c r="BD19" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="BE19" s="21" t="s">
+      <c r="BE19" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="BF19" s="21" t="s">
+      <c r="BF19" s="22" t="s">
         <v>82</v>
       </c>
       <c r="BG19" s="8"/>
@@ -14217,55 +14227,55 @@
       <c r="DL19" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="DM19" s="37" t="s">
+      <c r="DM19" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="DN19" s="38" t="s">
+      <c r="DN19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DO19" s="38" t="s">
+      <c r="DO19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DP19" s="38" t="s">
+      <c r="DP19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DQ19" s="38" t="s">
+      <c r="DQ19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DR19" s="38" t="s">
+      <c r="DR19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DS19" s="38" t="s">
+      <c r="DS19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DT19" s="38" t="s">
+      <c r="DT19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DU19" s="38" t="s">
+      <c r="DU19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DV19" s="38" t="s">
+      <c r="DV19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DW19" s="38" t="s">
+      <c r="DW19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DX19" s="38" t="s">
+      <c r="DX19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DY19" s="38" t="s">
+      <c r="DY19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DZ19" s="38" t="s">
+      <c r="DZ19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="EA19" s="38" t="s">
+      <c r="EA19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="EB19" s="39" t="s">
+      <c r="EB19" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="EC19" s="21" t="s">
+      <c r="EC19" s="22" t="s">
         <v>88</v>
       </c>
       <c r="ED19" s="8" t="s">
@@ -14385,7 +14395,7 @@
       <c r="FP19" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="FQ19" s="21" t="s">
+      <c r="FQ19" s="22" t="s">
         <v>82</v>
       </c>
       <c r="FR19" s="8" t="s">
@@ -14472,7 +14482,7 @@
       <c r="GS19" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="GT19" s="21" t="s">
+      <c r="GT19" s="22" t="s">
         <v>82</v>
       </c>
       <c r="GU19" s="8" t="s">
@@ -14499,7 +14509,7 @@
       <c r="HB19" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="HC19" s="21" t="s">
+      <c r="HC19" s="22" t="s">
         <v>82</v>
       </c>
       <c r="HD19" s="8" t="s">
@@ -14553,7 +14563,7 @@
       <c r="HT19" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="HU19" s="21"/>
+      <c r="HU19" s="22"/>
       <c r="HV19" s="7" t="s">
         <v>83</v>
       </c>
@@ -14590,7 +14600,7 @@
       <c r="IG19" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="IH19" s="21" t="s">
+      <c r="IH19" s="22" t="s">
         <v>84</v>
       </c>
       <c r="II19" s="8"/>
@@ -14636,7 +14646,7 @@
       <c r="JG19" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="JH19" s="21" t="s">
+      <c r="JH19" s="22" t="s">
         <v>82</v>
       </c>
       <c r="JI19" s="8" t="s">
@@ -14678,10 +14688,10 @@
       <c r="JU19" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="JV19" s="21" t="s">
+      <c r="JV19" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="JW19" s="21" t="s">
+      <c r="JW19" s="22" t="s">
         <v>83</v>
       </c>
       <c r="JX19" s="8" t="s">
@@ -14690,18 +14700,18 @@
       <c r="JY19" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="JZ19" s="21" t="s">
+      <c r="JZ19" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="0" t="n">
         <v>20</v>
       </c>
@@ -14852,14 +14862,14 @@
       <c r="BB20" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="BC20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD20" s="21"/>
-      <c r="BE20" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" s="21" t="n">
+      <c r="BC20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="22"/>
+      <c r="BE20" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="BG20" s="8" t="n">
@@ -15076,7 +15086,7 @@
       <c r="EB20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="EC20" s="21" t="n">
+      <c r="EC20" s="22" t="n">
         <v>0</v>
       </c>
       <c r="ED20" s="8" t="n">
@@ -15188,7 +15198,7 @@
       <c r="FP20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="FQ20" s="21" t="n">
+      <c r="FQ20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="FR20" s="8" t="n">
@@ -15257,7 +15267,7 @@
       <c r="GQ20" s="7"/>
       <c r="GR20" s="7"/>
       <c r="GS20" s="9"/>
-      <c r="GT20" s="21" t="n">
+      <c r="GT20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="GU20" s="8"/>
@@ -15268,7 +15278,7 @@
       <c r="GZ20" s="7"/>
       <c r="HA20" s="7"/>
       <c r="HB20" s="9"/>
-      <c r="HC20" s="21" t="n">
+      <c r="HC20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="HD20" s="8"/>
@@ -15288,7 +15298,7 @@
       <c r="HR20" s="7"/>
       <c r="HS20" s="7"/>
       <c r="HT20" s="9"/>
-      <c r="HU20" s="21" t="n">
+      <c r="HU20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="HV20" s="7"/>
@@ -15309,7 +15319,7 @@
       <c r="IG20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="IH20" s="21"/>
+      <c r="IH20" s="22"/>
       <c r="II20" s="8" t="n">
         <v>1</v>
       </c>
@@ -15385,7 +15395,7 @@
       <c r="JG20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="JH20" s="21"/>
+      <c r="JH20" s="22"/>
       <c r="JI20" s="8"/>
       <c r="JJ20" s="7"/>
       <c r="JK20" s="7"/>
@@ -15409,10 +15419,10 @@
       <c r="JU20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="JV20" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW20" s="21" t="n">
+      <c r="JV20" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW20" s="22" t="n">
         <v>1</v>
       </c>
       <c r="JX20" s="8" t="n">
@@ -15421,16 +15431,16 @@
       <c r="JY20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="JZ20" s="21"/>
+      <c r="JZ20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
@@ -15475,10 +15485,10 @@
       <c r="AZ21" s="7"/>
       <c r="BA21" s="7"/>
       <c r="BB21" s="9"/>
-      <c r="BC21" s="21"/>
-      <c r="BD21" s="21"/>
-      <c r="BE21" s="21"/>
-      <c r="BF21" s="21"/>
+      <c r="BC21" s="22"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="22"/>
+      <c r="BF21" s="22"/>
       <c r="BG21" s="8"/>
       <c r="BH21" s="7"/>
       <c r="BI21" s="7"/>
@@ -15581,7 +15591,7 @@
       <c r="DZ21" s="7"/>
       <c r="EA21" s="7"/>
       <c r="EB21" s="9"/>
-      <c r="EC21" s="21"/>
+      <c r="EC21" s="22"/>
       <c r="ED21" s="8"/>
       <c r="EE21" s="7"/>
       <c r="EF21" s="7"/>
@@ -15621,7 +15631,7 @@
       <c r="FN21" s="9"/>
       <c r="FO21" s="8"/>
       <c r="FP21" s="9"/>
-      <c r="FQ21" s="21"/>
+      <c r="FQ21" s="22"/>
       <c r="FR21" s="8"/>
       <c r="FS21" s="7"/>
       <c r="FT21" s="9"/>
@@ -15650,7 +15660,7 @@
       <c r="GQ21" s="7"/>
       <c r="GR21" s="7"/>
       <c r="GS21" s="9"/>
-      <c r="GT21" s="21" t="n">
+      <c r="GT21" s="22" t="n">
         <v>17000</v>
       </c>
       <c r="GU21" s="8"/>
@@ -15661,7 +15671,7 @@
       <c r="GZ21" s="7"/>
       <c r="HA21" s="7"/>
       <c r="HB21" s="9"/>
-      <c r="HC21" s="21"/>
+      <c r="HC21" s="22"/>
       <c r="HD21" s="8"/>
       <c r="HE21" s="7"/>
       <c r="HF21" s="7"/>
@@ -15679,7 +15689,7 @@
       <c r="HR21" s="7"/>
       <c r="HS21" s="7"/>
       <c r="HT21" s="9"/>
-      <c r="HU21" s="21"/>
+      <c r="HU21" s="22"/>
       <c r="HV21" s="7"/>
       <c r="HW21" s="7"/>
       <c r="HX21" s="9"/>
@@ -15692,7 +15702,7 @@
       <c r="IE21" s="8"/>
       <c r="IF21" s="7"/>
       <c r="IG21" s="9"/>
-      <c r="IH21" s="21"/>
+      <c r="IH21" s="22"/>
       <c r="II21" s="8"/>
       <c r="IJ21" s="7"/>
       <c r="IK21" s="7"/>
@@ -15730,7 +15740,7 @@
       <c r="JE21" s="8"/>
       <c r="JF21" s="7"/>
       <c r="JG21" s="9"/>
-      <c r="JH21" s="21"/>
+      <c r="JH21" s="22"/>
       <c r="JI21" s="8"/>
       <c r="JJ21" s="7"/>
       <c r="JK21" s="7"/>
@@ -15744,20 +15754,20 @@
       <c r="JS21" s="7"/>
       <c r="JT21" s="7"/>
       <c r="JU21" s="9"/>
-      <c r="JV21" s="21"/>
-      <c r="JW21" s="21"/>
+      <c r="JV21" s="22"/>
+      <c r="JW21" s="22"/>
       <c r="JX21" s="8"/>
       <c r="JY21" s="9"/>
-      <c r="JZ21" s="21"/>
+      <c r="JZ21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="26.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="0" t="n">
         <v>1</v>
       </c>
@@ -15802,10 +15812,10 @@
       <c r="AZ22" s="7"/>
       <c r="BA22" s="7"/>
       <c r="BB22" s="9"/>
-      <c r="BC22" s="21"/>
-      <c r="BD22" s="21"/>
-      <c r="BE22" s="21"/>
-      <c r="BF22" s="21"/>
+      <c r="BC22" s="22"/>
+      <c r="BD22" s="22"/>
+      <c r="BE22" s="22"/>
+      <c r="BF22" s="22"/>
       <c r="BG22" s="8"/>
       <c r="BH22" s="7"/>
       <c r="BI22" s="7"/>
@@ -15880,7 +15890,7 @@
       <c r="DZ22" s="7"/>
       <c r="EA22" s="7"/>
       <c r="EB22" s="9"/>
-      <c r="EC22" s="21"/>
+      <c r="EC22" s="22"/>
       <c r="ED22" s="8"/>
       <c r="EE22" s="7"/>
       <c r="EF22" s="7"/>
@@ -15958,7 +15968,7 @@
       <c r="FN22" s="9"/>
       <c r="FO22" s="8"/>
       <c r="FP22" s="9"/>
-      <c r="FQ22" s="21"/>
+      <c r="FQ22" s="22"/>
       <c r="FR22" s="8"/>
       <c r="FS22" s="7"/>
       <c r="FT22" s="9"/>
@@ -15987,7 +15997,7 @@
       <c r="GQ22" s="7"/>
       <c r="GR22" s="7"/>
       <c r="GS22" s="9"/>
-      <c r="GT22" s="21" t="n">
+      <c r="GT22" s="22" t="n">
         <v>63</v>
       </c>
       <c r="GU22" s="8"/>
@@ -15998,7 +16008,7 @@
       <c r="GZ22" s="7"/>
       <c r="HA22" s="7"/>
       <c r="HB22" s="9"/>
-      <c r="HC22" s="21"/>
+      <c r="HC22" s="22"/>
       <c r="HD22" s="8"/>
       <c r="HE22" s="7"/>
       <c r="HF22" s="7"/>
@@ -16016,7 +16026,7 @@
       <c r="HR22" s="7"/>
       <c r="HS22" s="7"/>
       <c r="HT22" s="9"/>
-      <c r="HU22" s="21"/>
+      <c r="HU22" s="22"/>
       <c r="HV22" s="7"/>
       <c r="HW22" s="7"/>
       <c r="HX22" s="9"/>
@@ -16029,7 +16039,7 @@
       <c r="IE22" s="8"/>
       <c r="IF22" s="7"/>
       <c r="IG22" s="9"/>
-      <c r="IH22" s="21"/>
+      <c r="IH22" s="22"/>
       <c r="II22" s="8"/>
       <c r="IJ22" s="7"/>
       <c r="IK22" s="7"/>
@@ -16055,7 +16065,7 @@
       <c r="JE22" s="8"/>
       <c r="JF22" s="7"/>
       <c r="JG22" s="9"/>
-      <c r="JH22" s="21"/>
+      <c r="JH22" s="22"/>
       <c r="JI22" s="8"/>
       <c r="JJ22" s="7"/>
       <c r="JK22" s="7"/>
@@ -16069,11 +16079,11 @@
       <c r="JS22" s="7"/>
       <c r="JT22" s="7"/>
       <c r="JU22" s="9"/>
-      <c r="JV22" s="21"/>
-      <c r="JW22" s="21"/>
+      <c r="JV22" s="22"/>
+      <c r="JW22" s="22"/>
       <c r="JX22" s="8"/>
       <c r="JY22" s="9"/>
-      <c r="JZ22" s="21" t="n">
+      <c r="JZ22" s="22" t="n">
         <v>6.25</v>
       </c>
     </row>
@@ -16125,10 +16135,10 @@
       <c r="AZ23" s="7"/>
       <c r="BA23" s="7"/>
       <c r="BB23" s="9"/>
-      <c r="BC23" s="21"/>
-      <c r="BD23" s="21"/>
-      <c r="BE23" s="21"/>
-      <c r="BF23" s="21"/>
+      <c r="BC23" s="22"/>
+      <c r="BD23" s="22"/>
+      <c r="BE23" s="22"/>
+      <c r="BF23" s="22"/>
       <c r="BG23" s="8"/>
       <c r="BH23" s="7"/>
       <c r="BI23" s="7"/>
@@ -16203,7 +16213,7 @@
       <c r="DZ23" s="7"/>
       <c r="EA23" s="7"/>
       <c r="EB23" s="9"/>
-      <c r="EC23" s="21"/>
+      <c r="EC23" s="22"/>
       <c r="ED23" s="8"/>
       <c r="EE23" s="7"/>
       <c r="EF23" s="7"/>
@@ -16243,7 +16253,7 @@
       <c r="FN23" s="9"/>
       <c r="FO23" s="8"/>
       <c r="FP23" s="9"/>
-      <c r="FQ23" s="21"/>
+      <c r="FQ23" s="22"/>
       <c r="FR23" s="8"/>
       <c r="FS23" s="7"/>
       <c r="FT23" s="9"/>
@@ -16272,7 +16282,7 @@
       <c r="GQ23" s="7"/>
       <c r="GR23" s="7"/>
       <c r="GS23" s="9"/>
-      <c r="GT23" s="21"/>
+      <c r="GT23" s="22"/>
       <c r="GU23" s="8"/>
       <c r="GV23" s="7"/>
       <c r="GW23" s="7"/>
@@ -16281,7 +16291,7 @@
       <c r="GZ23" s="7"/>
       <c r="HA23" s="7"/>
       <c r="HB23" s="9"/>
-      <c r="HC23" s="21"/>
+      <c r="HC23" s="22"/>
       <c r="HD23" s="8"/>
       <c r="HE23" s="7"/>
       <c r="HF23" s="7"/>
@@ -16299,14 +16309,14 @@
       <c r="HR23" s="7"/>
       <c r="HS23" s="7"/>
       <c r="HT23" s="9"/>
-      <c r="HU23" s="21"/>
+      <c r="HU23" s="22"/>
       <c r="HV23" s="7"/>
       <c r="HW23" s="7"/>
       <c r="HX23" s="9"/>
       <c r="IE23" s="8"/>
       <c r="IF23" s="7"/>
       <c r="IG23" s="9"/>
-      <c r="IH23" s="21"/>
+      <c r="IH23" s="22"/>
       <c r="II23" s="8"/>
       <c r="IJ23" s="7"/>
       <c r="IK23" s="7"/>
@@ -16332,7 +16342,7 @@
       <c r="JE23" s="8"/>
       <c r="JF23" s="7"/>
       <c r="JG23" s="9"/>
-      <c r="JH23" s="21"/>
+      <c r="JH23" s="22"/>
       <c r="JI23" s="8"/>
       <c r="JJ23" s="7"/>
       <c r="JK23" s="7"/>
@@ -16346,20 +16356,20 @@
       <c r="JS23" s="7"/>
       <c r="JT23" s="7"/>
       <c r="JU23" s="9"/>
-      <c r="JV23" s="21"/>
-      <c r="JW23" s="21"/>
+      <c r="JV23" s="22"/>
+      <c r="JW23" s="22"/>
       <c r="JX23" s="8"/>
       <c r="JY23" s="9"/>
-      <c r="JZ23" s="21"/>
+      <c r="JZ23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="0" t="n">
         <v>1</v>
       </c>
@@ -16417,10 +16427,10 @@
       <c r="AZ24" s="7"/>
       <c r="BA24" s="7"/>
       <c r="BB24" s="9"/>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="21"/>
-      <c r="BE24" s="21"/>
-      <c r="BF24" s="21"/>
+      <c r="BC24" s="22"/>
+      <c r="BD24" s="22"/>
+      <c r="BE24" s="22"/>
+      <c r="BF24" s="22"/>
       <c r="BG24" s="8"/>
       <c r="BH24" s="7"/>
       <c r="BI24" s="7"/>
@@ -16495,7 +16505,7 @@
       <c r="DZ24" s="7"/>
       <c r="EA24" s="7"/>
       <c r="EB24" s="9"/>
-      <c r="EC24" s="21"/>
+      <c r="EC24" s="22"/>
       <c r="ED24" s="8"/>
       <c r="EE24" s="7"/>
       <c r="EF24" s="7"/>
@@ -16535,7 +16545,7 @@
       <c r="FN24" s="9"/>
       <c r="FO24" s="8"/>
       <c r="FP24" s="9"/>
-      <c r="FQ24" s="21"/>
+      <c r="FQ24" s="22"/>
       <c r="FR24" s="8"/>
       <c r="FS24" s="7"/>
       <c r="FT24" s="9"/>
@@ -16564,7 +16574,7 @@
       <c r="GQ24" s="7"/>
       <c r="GR24" s="7"/>
       <c r="GS24" s="9"/>
-      <c r="GT24" s="21"/>
+      <c r="GT24" s="22"/>
       <c r="GU24" s="8"/>
       <c r="GV24" s="7"/>
       <c r="GW24" s="7"/>
@@ -16573,7 +16583,7 @@
       <c r="GZ24" s="7"/>
       <c r="HA24" s="7"/>
       <c r="HB24" s="9"/>
-      <c r="HC24" s="21"/>
+      <c r="HC24" s="22"/>
       <c r="HD24" s="8"/>
       <c r="HE24" s="7"/>
       <c r="HF24" s="7"/>
@@ -16591,7 +16601,7 @@
       <c r="HR24" s="7"/>
       <c r="HS24" s="7"/>
       <c r="HT24" s="9"/>
-      <c r="HU24" s="21"/>
+      <c r="HU24" s="22"/>
       <c r="HV24" s="7"/>
       <c r="HW24" s="7"/>
       <c r="HX24" s="9"/>
@@ -16616,7 +16626,7 @@
       <c r="IE24" s="8"/>
       <c r="IF24" s="7"/>
       <c r="IG24" s="9"/>
-      <c r="IH24" s="21"/>
+      <c r="IH24" s="22"/>
       <c r="II24" s="8"/>
       <c r="IJ24" s="7"/>
       <c r="IK24" s="7"/>
@@ -16642,7 +16652,7 @@
       <c r="JE24" s="8"/>
       <c r="JF24" s="7"/>
       <c r="JG24" s="9"/>
-      <c r="JH24" s="21"/>
+      <c r="JH24" s="22"/>
       <c r="JI24" s="8"/>
       <c r="JJ24" s="7"/>
       <c r="JK24" s="7"/>
@@ -16656,20 +16666,20 @@
       <c r="JS24" s="7"/>
       <c r="JT24" s="7"/>
       <c r="JU24" s="9"/>
-      <c r="JV24" s="21"/>
-      <c r="JW24" s="21"/>
+      <c r="JV24" s="22"/>
+      <c r="JW24" s="22"/>
       <c r="JX24" s="8"/>
       <c r="JY24" s="9"/>
-      <c r="JZ24" s="21"/>
+      <c r="JZ24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="0" t="n">
         <v>20</v>
       </c>
@@ -16780,12 +16790,12 @@
       <c r="AZ25" s="7"/>
       <c r="BA25" s="7"/>
       <c r="BB25" s="9"/>
-      <c r="BC25" s="21"/>
-      <c r="BD25" s="21"/>
-      <c r="BE25" s="21" t="n">
+      <c r="BC25" s="22"/>
+      <c r="BD25" s="22"/>
+      <c r="BE25" s="22" t="n">
         <v>1.4</v>
       </c>
-      <c r="BF25" s="21" t="n">
+      <c r="BF25" s="22" t="n">
         <v>1</v>
       </c>
       <c r="BG25" s="8" t="n">
@@ -16928,7 +16938,7 @@
       <c r="DZ25" s="7"/>
       <c r="EA25" s="7"/>
       <c r="EB25" s="9"/>
-      <c r="EC25" s="21"/>
+      <c r="EC25" s="22"/>
       <c r="ED25" s="8" t="n">
         <v>2.5</v>
       </c>
@@ -16994,7 +17004,7 @@
       <c r="FN25" s="9"/>
       <c r="FO25" s="8"/>
       <c r="FP25" s="9"/>
-      <c r="FQ25" s="21"/>
+      <c r="FQ25" s="22"/>
       <c r="FR25" s="8" t="n">
         <v>1.017</v>
       </c>
@@ -17037,7 +17047,7 @@
       <c r="GQ25" s="7"/>
       <c r="GR25" s="7"/>
       <c r="GS25" s="9"/>
-      <c r="GT25" s="21"/>
+      <c r="GT25" s="22"/>
       <c r="GU25" s="8"/>
       <c r="GV25" s="7"/>
       <c r="GW25" s="7"/>
@@ -17046,7 +17056,7 @@
       <c r="GZ25" s="7"/>
       <c r="HA25" s="7"/>
       <c r="HB25" s="9"/>
-      <c r="HC25" s="21"/>
+      <c r="HC25" s="22"/>
       <c r="HD25" s="8"/>
       <c r="HE25" s="7"/>
       <c r="HF25" s="7"/>
@@ -17064,7 +17074,7 @@
       <c r="HR25" s="7"/>
       <c r="HS25" s="7"/>
       <c r="HT25" s="9"/>
-      <c r="HU25" s="21"/>
+      <c r="HU25" s="22"/>
       <c r="HV25" s="7" t="n">
         <v>0.97</v>
       </c>
@@ -17095,7 +17105,7 @@
       <c r="IE25" s="8"/>
       <c r="IF25" s="7"/>
       <c r="IG25" s="9"/>
-      <c r="IH25" s="21"/>
+      <c r="IH25" s="22"/>
       <c r="II25" s="8" t="n">
         <v>32</v>
       </c>
@@ -17165,7 +17175,7 @@
       <c r="JE25" s="8"/>
       <c r="JF25" s="7"/>
       <c r="JG25" s="9"/>
-      <c r="JH25" s="21"/>
+      <c r="JH25" s="22"/>
       <c r="JI25" s="8" t="n">
         <v>3.55</v>
       </c>
@@ -17195,24 +17205,24 @@
       <c r="JS25" s="7"/>
       <c r="JT25" s="7"/>
       <c r="JU25" s="9"/>
-      <c r="JV25" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="JW25" s="21" t="n">
+      <c r="JV25" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW25" s="22" t="n">
         <v>0.85</v>
       </c>
       <c r="JX25" s="8"/>
       <c r="JY25" s="9"/>
-      <c r="JZ25" s="21"/>
+      <c r="JZ25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="0" t="n">
         <v>1</v>
       </c>
@@ -17273,10 +17283,10 @@
       <c r="AZ26" s="7"/>
       <c r="BA26" s="7"/>
       <c r="BB26" s="9"/>
-      <c r="BC26" s="21"/>
-      <c r="BD26" s="21"/>
-      <c r="BE26" s="21"/>
-      <c r="BF26" s="21"/>
+      <c r="BC26" s="22"/>
+      <c r="BD26" s="22"/>
+      <c r="BE26" s="22"/>
+      <c r="BF26" s="22"/>
       <c r="BG26" s="8"/>
       <c r="BH26" s="7"/>
       <c r="BI26" s="7"/>
@@ -17351,7 +17361,7 @@
       <c r="DZ26" s="7"/>
       <c r="EA26" s="7"/>
       <c r="EB26" s="9"/>
-      <c r="EC26" s="21"/>
+      <c r="EC26" s="22"/>
       <c r="ED26" s="8"/>
       <c r="EE26" s="7"/>
       <c r="EF26" s="7"/>
@@ -17391,7 +17401,7 @@
       <c r="FN26" s="9"/>
       <c r="FO26" s="8"/>
       <c r="FP26" s="9"/>
-      <c r="FQ26" s="21"/>
+      <c r="FQ26" s="22"/>
       <c r="FR26" s="8"/>
       <c r="FS26" s="7"/>
       <c r="FT26" s="9"/>
@@ -17438,7 +17448,7 @@
       <c r="GS26" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="GT26" s="21"/>
+      <c r="GT26" s="22"/>
       <c r="GU26" s="8"/>
       <c r="GV26" s="7"/>
       <c r="GW26" s="7"/>
@@ -17447,7 +17457,7 @@
       <c r="GZ26" s="7"/>
       <c r="HA26" s="7"/>
       <c r="HB26" s="9"/>
-      <c r="HC26" s="21"/>
+      <c r="HC26" s="22"/>
       <c r="HD26" s="8"/>
       <c r="HE26" s="7"/>
       <c r="HF26" s="7"/>
@@ -17465,7 +17475,7 @@
       <c r="HR26" s="7"/>
       <c r="HS26" s="7"/>
       <c r="HT26" s="9"/>
-      <c r="HU26" s="21"/>
+      <c r="HU26" s="22"/>
       <c r="HV26" s="7"/>
       <c r="HW26" s="7"/>
       <c r="HX26" s="9"/>
@@ -17478,7 +17488,7 @@
       <c r="IE26" s="8"/>
       <c r="IF26" s="7"/>
       <c r="IG26" s="9"/>
-      <c r="IH26" s="21"/>
+      <c r="IH26" s="22"/>
       <c r="II26" s="8"/>
       <c r="IJ26" s="7"/>
       <c r="IK26" s="7"/>
@@ -17504,7 +17514,7 @@
       <c r="JE26" s="8"/>
       <c r="JF26" s="7"/>
       <c r="JG26" s="9"/>
-      <c r="JH26" s="21"/>
+      <c r="JH26" s="22"/>
       <c r="JI26" s="8"/>
       <c r="JJ26" s="7"/>
       <c r="JK26" s="7"/>
@@ -17518,20 +17528,20 @@
       <c r="JS26" s="7"/>
       <c r="JT26" s="7"/>
       <c r="JU26" s="9"/>
-      <c r="JV26" s="21"/>
-      <c r="JW26" s="21"/>
+      <c r="JV26" s="22"/>
+      <c r="JW26" s="22"/>
       <c r="JX26" s="8"/>
       <c r="JY26" s="9"/>
-      <c r="JZ26" s="21"/>
+      <c r="JZ26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="0" t="n">
         <v>1</v>
       </c>
@@ -17576,12 +17586,12 @@
       <c r="AZ27" s="7"/>
       <c r="BA27" s="7"/>
       <c r="BB27" s="9"/>
-      <c r="BC27" s="21"/>
-      <c r="BD27" s="21"/>
-      <c r="BE27" s="21" t="n">
+      <c r="BC27" s="22"/>
+      <c r="BD27" s="22"/>
+      <c r="BE27" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="BF27" s="21" t="n">
+      <c r="BF27" s="22" t="n">
         <v>90</v>
       </c>
       <c r="BG27" s="8"/>
@@ -17686,7 +17696,7 @@
       <c r="DZ27" s="7"/>
       <c r="EA27" s="7"/>
       <c r="EB27" s="9"/>
-      <c r="EC27" s="21"/>
+      <c r="EC27" s="22"/>
       <c r="ED27" s="8" t="n">
         <v>4</v>
       </c>
@@ -17744,7 +17754,7 @@
       <c r="FP27" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="FQ27" s="21"/>
+      <c r="FQ27" s="22"/>
       <c r="FR27" s="8"/>
       <c r="FS27" s="7"/>
       <c r="FT27" s="9"/>
@@ -17787,7 +17797,7 @@
       <c r="GS27" s="9" t="n">
         <v>47.39</v>
       </c>
-      <c r="GT27" s="21"/>
+      <c r="GT27" s="22"/>
       <c r="GU27" s="8"/>
       <c r="GV27" s="7"/>
       <c r="GW27" s="7"/>
@@ -17796,7 +17806,7 @@
       <c r="GZ27" s="7"/>
       <c r="HA27" s="7"/>
       <c r="HB27" s="9"/>
-      <c r="HC27" s="21"/>
+      <c r="HC27" s="22"/>
       <c r="HD27" s="8"/>
       <c r="HE27" s="7"/>
       <c r="HF27" s="7"/>
@@ -17824,7 +17834,7 @@
       <c r="HT27" s="9" t="n">
         <v>11.5</v>
       </c>
-      <c r="HU27" s="21" t="n">
+      <c r="HU27" s="22" t="n">
         <v>12</v>
       </c>
       <c r="HV27" s="7"/>
@@ -17839,7 +17849,7 @@
       <c r="IE27" s="8"/>
       <c r="IF27" s="7"/>
       <c r="IG27" s="9"/>
-      <c r="IH27" s="21"/>
+      <c r="IH27" s="22"/>
       <c r="II27" s="8"/>
       <c r="IJ27" s="7"/>
       <c r="IK27" s="7"/>
@@ -17877,7 +17887,7 @@
       <c r="JE27" s="8"/>
       <c r="JF27" s="7"/>
       <c r="JG27" s="9"/>
-      <c r="JH27" s="21"/>
+      <c r="JH27" s="22"/>
       <c r="JI27" s="8"/>
       <c r="JJ27" s="7"/>
       <c r="JK27" s="7"/>
@@ -17891,24 +17901,24 @@
       <c r="JS27" s="7"/>
       <c r="JT27" s="7"/>
       <c r="JU27" s="9"/>
-      <c r="JV27" s="21"/>
-      <c r="JW27" s="21"/>
+      <c r="JV27" s="22"/>
+      <c r="JW27" s="22"/>
       <c r="JX27" s="8" t="n">
         <v>14.9</v>
       </c>
       <c r="JY27" s="9" t="n">
         <v>12.8</v>
       </c>
-      <c r="JZ27" s="21"/>
+      <c r="JZ27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="0" t="n">
         <v>20</v>
       </c>
@@ -17953,10 +17963,10 @@
       <c r="AZ28" s="7"/>
       <c r="BA28" s="7"/>
       <c r="BB28" s="9"/>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="21"/>
-      <c r="BE28" s="21"/>
-      <c r="BF28" s="21"/>
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="22"/>
+      <c r="BF28" s="22"/>
       <c r="BG28" s="8"/>
       <c r="BH28" s="7"/>
       <c r="BI28" s="7"/>
@@ -18031,7 +18041,7 @@
       <c r="DZ28" s="7"/>
       <c r="EA28" s="7"/>
       <c r="EB28" s="9"/>
-      <c r="EC28" s="21"/>
+      <c r="EC28" s="22"/>
       <c r="ED28" s="8"/>
       <c r="EE28" s="7"/>
       <c r="EF28" s="7"/>
@@ -18071,7 +18081,7 @@
       <c r="FN28" s="9"/>
       <c r="FO28" s="8"/>
       <c r="FP28" s="9"/>
-      <c r="FQ28" s="21"/>
+      <c r="FQ28" s="22"/>
       <c r="FR28" s="8"/>
       <c r="FS28" s="7"/>
       <c r="FT28" s="9"/>
@@ -18100,7 +18110,7 @@
       <c r="GQ28" s="7"/>
       <c r="GR28" s="7"/>
       <c r="GS28" s="9"/>
-      <c r="GT28" s="21"/>
+      <c r="GT28" s="22"/>
       <c r="GU28" s="8"/>
       <c r="GV28" s="7"/>
       <c r="GW28" s="7"/>
@@ -18109,7 +18119,7 @@
       <c r="GZ28" s="7"/>
       <c r="HA28" s="7"/>
       <c r="HB28" s="9"/>
-      <c r="HC28" s="21"/>
+      <c r="HC28" s="22"/>
       <c r="HD28" s="8"/>
       <c r="HE28" s="7"/>
       <c r="HF28" s="7"/>
@@ -18127,7 +18137,7 @@
       <c r="HR28" s="7"/>
       <c r="HS28" s="7"/>
       <c r="HT28" s="9"/>
-      <c r="HU28" s="21"/>
+      <c r="HU28" s="22"/>
       <c r="HV28" s="7"/>
       <c r="HW28" s="7"/>
       <c r="HX28" s="9"/>
@@ -18140,7 +18150,7 @@
       <c r="IE28" s="8"/>
       <c r="IF28" s="7"/>
       <c r="IG28" s="9"/>
-      <c r="IH28" s="21"/>
+      <c r="IH28" s="22"/>
       <c r="II28" s="8"/>
       <c r="IJ28" s="7"/>
       <c r="IK28" s="7"/>
@@ -18166,7 +18176,7 @@
       <c r="JE28" s="8"/>
       <c r="JF28" s="7"/>
       <c r="JG28" s="9"/>
-      <c r="JH28" s="21"/>
+      <c r="JH28" s="22"/>
       <c r="JI28" s="8"/>
       <c r="JJ28" s="7"/>
       <c r="JK28" s="7"/>
@@ -18180,20 +18190,20 @@
       <c r="JS28" s="7"/>
       <c r="JT28" s="7"/>
       <c r="JU28" s="9"/>
-      <c r="JV28" s="21"/>
-      <c r="JW28" s="21"/>
+      <c r="JV28" s="22"/>
+      <c r="JW28" s="22"/>
       <c r="JX28" s="8"/>
       <c r="JY28" s="9"/>
-      <c r="JZ28" s="21"/>
+      <c r="JZ28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="23"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="0" t="n">
         <v>2</v>
       </c>
@@ -18238,10 +18248,10 @@
       <c r="AZ29" s="7"/>
       <c r="BA29" s="7"/>
       <c r="BB29" s="9"/>
-      <c r="BC29" s="21"/>
-      <c r="BD29" s="21"/>
-      <c r="BE29" s="21"/>
-      <c r="BF29" s="21"/>
+      <c r="BC29" s="22"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="22"/>
+      <c r="BF29" s="22"/>
       <c r="BG29" s="8"/>
       <c r="BH29" s="7"/>
       <c r="BI29" s="7"/>
@@ -18324,7 +18334,7 @@
       <c r="DZ29" s="7"/>
       <c r="EA29" s="7"/>
       <c r="EB29" s="9"/>
-      <c r="EC29" s="21"/>
+      <c r="EC29" s="22"/>
       <c r="ED29" s="8" t="n">
         <v>0.4201</v>
       </c>
@@ -18378,7 +18388,7 @@
       <c r="FN29" s="9"/>
       <c r="FO29" s="8"/>
       <c r="FP29" s="9"/>
-      <c r="FQ29" s="21"/>
+      <c r="FQ29" s="22"/>
       <c r="FR29" s="8"/>
       <c r="FS29" s="7"/>
       <c r="FT29" s="9"/>
@@ -18407,7 +18417,7 @@
       <c r="GQ29" s="7"/>
       <c r="GR29" s="7"/>
       <c r="GS29" s="9"/>
-      <c r="GT29" s="21"/>
+      <c r="GT29" s="22"/>
       <c r="GU29" s="8"/>
       <c r="GV29" s="7"/>
       <c r="GW29" s="7"/>
@@ -18416,7 +18426,7 @@
       <c r="GZ29" s="7"/>
       <c r="HA29" s="7"/>
       <c r="HB29" s="9"/>
-      <c r="HC29" s="21"/>
+      <c r="HC29" s="22"/>
       <c r="HD29" s="8"/>
       <c r="HE29" s="7"/>
       <c r="HF29" s="7"/>
@@ -18434,7 +18444,7 @@
       <c r="HR29" s="7"/>
       <c r="HS29" s="7"/>
       <c r="HT29" s="9"/>
-      <c r="HU29" s="21"/>
+      <c r="HU29" s="22"/>
       <c r="HV29" s="7"/>
       <c r="HW29" s="7"/>
       <c r="HX29" s="9"/>
@@ -18447,7 +18457,7 @@
       <c r="IE29" s="8"/>
       <c r="IF29" s="7"/>
       <c r="IG29" s="9"/>
-      <c r="IH29" s="21"/>
+      <c r="IH29" s="22"/>
       <c r="II29" s="8"/>
       <c r="IJ29" s="7"/>
       <c r="IK29" s="7"/>
@@ -18473,7 +18483,7 @@
       <c r="JE29" s="8"/>
       <c r="JF29" s="7"/>
       <c r="JG29" s="9"/>
-      <c r="JH29" s="21"/>
+      <c r="JH29" s="22"/>
       <c r="JI29" s="8"/>
       <c r="JJ29" s="7"/>
       <c r="JK29" s="7"/>
@@ -18487,20 +18497,20 @@
       <c r="JS29" s="7"/>
       <c r="JT29" s="7"/>
       <c r="JU29" s="9"/>
-      <c r="JV29" s="21"/>
-      <c r="JW29" s="21"/>
+      <c r="JV29" s="22"/>
+      <c r="JW29" s="22"/>
       <c r="JX29" s="8"/>
       <c r="JY29" s="9"/>
-      <c r="JZ29" s="21"/>
+      <c r="JZ29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="26.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="0" t="n">
         <v>2</v>
       </c>
@@ -18545,12 +18555,12 @@
       <c r="AZ30" s="7"/>
       <c r="BA30" s="7"/>
       <c r="BB30" s="9"/>
-      <c r="BC30" s="21"/>
-      <c r="BD30" s="21"/>
-      <c r="BE30" s="21" t="n">
+      <c r="BC30" s="22"/>
+      <c r="BD30" s="22"/>
+      <c r="BE30" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="BF30" s="21" t="n">
+      <c r="BF30" s="22" t="n">
         <v>3.2</v>
       </c>
       <c r="BG30" s="8"/>
@@ -18671,7 +18681,7 @@
       <c r="DZ30" s="7"/>
       <c r="EA30" s="7"/>
       <c r="EB30" s="9"/>
-      <c r="EC30" s="21"/>
+      <c r="EC30" s="22"/>
       <c r="ED30" s="8"/>
       <c r="EE30" s="7"/>
       <c r="EF30" s="7"/>
@@ -18711,7 +18721,7 @@
       <c r="FN30" s="9"/>
       <c r="FO30" s="8"/>
       <c r="FP30" s="9"/>
-      <c r="FQ30" s="21" t="n">
+      <c r="FQ30" s="22" t="n">
         <v>-7</v>
       </c>
       <c r="FR30" s="8"/>
@@ -18752,7 +18762,7 @@
       <c r="GQ30" s="7"/>
       <c r="GR30" s="7"/>
       <c r="GS30" s="9"/>
-      <c r="GT30" s="21"/>
+      <c r="GT30" s="22"/>
       <c r="GU30" s="8"/>
       <c r="GV30" s="7"/>
       <c r="GW30" s="7"/>
@@ -18761,7 +18771,7 @@
       <c r="GZ30" s="7"/>
       <c r="HA30" s="7"/>
       <c r="HB30" s="9"/>
-      <c r="HC30" s="21"/>
+      <c r="HC30" s="22"/>
       <c r="HD30" s="8"/>
       <c r="HE30" s="7"/>
       <c r="HF30" s="7"/>
@@ -18779,7 +18789,7 @@
       <c r="HR30" s="7"/>
       <c r="HS30" s="7"/>
       <c r="HT30" s="9"/>
-      <c r="HU30" s="21"/>
+      <c r="HU30" s="22"/>
       <c r="HV30" s="7"/>
       <c r="HW30" s="7"/>
       <c r="HX30" s="9"/>
@@ -18798,7 +18808,7 @@
       <c r="IG30" s="9" t="n">
         <v>-4.53</v>
       </c>
-      <c r="IH30" s="21"/>
+      <c r="IH30" s="22"/>
       <c r="II30" s="8" t="n">
         <v>-4</v>
       </c>
@@ -18850,7 +18860,7 @@
       <c r="JG30" s="9" t="n">
         <v>-1.75</v>
       </c>
-      <c r="JH30" s="21"/>
+      <c r="JH30" s="22"/>
       <c r="JI30" s="8"/>
       <c r="JJ30" s="7"/>
       <c r="JK30" s="7"/>
@@ -18874,20 +18884,20 @@
       <c r="JU30" s="9" t="n">
         <v>-0.14</v>
       </c>
-      <c r="JV30" s="21"/>
-      <c r="JW30" s="21"/>
+      <c r="JV30" s="22"/>
+      <c r="JW30" s="22"/>
       <c r="JX30" s="8"/>
       <c r="JY30" s="9"/>
-      <c r="JZ30" s="21"/>
+      <c r="JZ30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="0" t="n">
         <v>20</v>
       </c>
@@ -19038,16 +19048,16 @@
       <c r="BB31" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="BC31" s="21" t="n">
+      <c r="BC31" s="22" t="n">
         <v>24.5</v>
       </c>
-      <c r="BD31" s="21" t="n">
+      <c r="BD31" s="22" t="n">
         <v>21.6</v>
       </c>
-      <c r="BE31" s="21" t="n">
+      <c r="BE31" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="BF31" s="21" t="n">
+      <c r="BF31" s="22" t="n">
         <v>26</v>
       </c>
       <c r="BG31" s="8" t="n">
@@ -19272,7 +19282,7 @@
       <c r="EB31" s="9" t="n">
         <v>2.3</v>
       </c>
-      <c r="EC31" s="21" t="n">
+      <c r="EC31" s="22" t="n">
         <v>19</v>
       </c>
       <c r="ED31" s="8" t="n">
@@ -19392,7 +19402,7 @@
       <c r="FP31" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="FQ31" s="21" t="n">
+      <c r="FQ31" s="22" t="n">
         <v>35</v>
       </c>
       <c r="FR31" s="8" t="n">
@@ -19479,7 +19489,7 @@
       <c r="GS31" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="GT31" s="21" t="n">
+      <c r="GT31" s="22" t="n">
         <v>24.3</v>
       </c>
       <c r="GU31" s="8"/>
@@ -19502,7 +19512,7 @@
       <c r="HB31" s="9" t="n">
         <v>24.2</v>
       </c>
-      <c r="HC31" s="21" t="n">
+      <c r="HC31" s="22" t="n">
         <v>22.55</v>
       </c>
       <c r="HD31" s="8" t="n">
@@ -19556,7 +19566,7 @@
       <c r="HT31" s="9" t="n">
         <v>32.3</v>
       </c>
-      <c r="HU31" s="21" t="n">
+      <c r="HU31" s="22" t="n">
         <v>27.9</v>
       </c>
       <c r="HV31" s="7" t="n">
@@ -19577,7 +19587,7 @@
       <c r="IE31" s="8"/>
       <c r="IF31" s="7"/>
       <c r="IG31" s="9"/>
-      <c r="IH31" s="21" t="n">
+      <c r="IH31" s="22" t="n">
         <v>35</v>
       </c>
       <c r="II31" s="8" t="n">
@@ -19655,7 +19665,7 @@
       <c r="JG31" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="JH31" s="21" t="n">
+      <c r="JH31" s="22" t="n">
         <v>21.6</v>
       </c>
       <c r="JI31" s="8" t="n">
@@ -19697,10 +19707,10 @@
       <c r="JU31" s="9" t="n">
         <v>6.8</v>
       </c>
-      <c r="JV31" s="21" t="n">
+      <c r="JV31" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="JW31" s="21" t="n">
+      <c r="JW31" s="22" t="n">
         <v>20</v>
       </c>
       <c r="JX31" s="8" t="n">
@@ -19709,18 +19719,18 @@
       <c r="JY31" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="JZ31" s="21" t="n">
+      <c r="JZ31" s="22" t="n">
         <v>22.3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="23"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="0" t="n">
         <v>1</v>
       </c>
@@ -19765,10 +19775,10 @@
       <c r="AZ32" s="7"/>
       <c r="BA32" s="7"/>
       <c r="BB32" s="9"/>
-      <c r="BC32" s="21"/>
-      <c r="BD32" s="21"/>
-      <c r="BE32" s="21"/>
-      <c r="BF32" s="21"/>
+      <c r="BC32" s="22"/>
+      <c r="BD32" s="22"/>
+      <c r="BE32" s="22"/>
+      <c r="BF32" s="22"/>
       <c r="BG32" s="8"/>
       <c r="BH32" s="7"/>
       <c r="BI32" s="7"/>
@@ -19843,7 +19853,7 @@
       <c r="DZ32" s="7"/>
       <c r="EA32" s="7"/>
       <c r="EB32" s="9"/>
-      <c r="EC32" s="21"/>
+      <c r="EC32" s="22"/>
       <c r="ED32" s="8"/>
       <c r="EE32" s="7"/>
       <c r="EF32" s="7"/>
@@ -19883,7 +19893,7 @@
       <c r="FN32" s="9"/>
       <c r="FO32" s="8"/>
       <c r="FP32" s="9"/>
-      <c r="FQ32" s="21"/>
+      <c r="FQ32" s="22"/>
       <c r="FR32" s="8"/>
       <c r="FS32" s="7"/>
       <c r="FT32" s="9"/>
@@ -19891,70 +19901,70 @@
       <c r="FV32" s="7"/>
       <c r="FW32" s="7"/>
       <c r="FX32" s="7"/>
-      <c r="FY32" s="25" t="n">
+      <c r="FY32" s="26" t="n">
         <v>0.005</v>
       </c>
-      <c r="FZ32" s="26" t="n">
+      <c r="FZ32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GA32" s="26" t="n">
+      <c r="GA32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GB32" s="26" t="n">
+      <c r="GB32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GC32" s="26" t="n">
+      <c r="GC32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GD32" s="26" t="n">
+      <c r="GD32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GE32" s="26" t="n">
+      <c r="GE32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GF32" s="26" t="n">
+      <c r="GF32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GG32" s="26" t="n">
+      <c r="GG32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GH32" s="26" t="n">
+      <c r="GH32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GI32" s="26" t="n">
+      <c r="GI32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GJ32" s="26" t="n">
+      <c r="GJ32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GK32" s="26" t="n">
+      <c r="GK32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GL32" s="26" t="n">
+      <c r="GL32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GM32" s="26" t="n">
+      <c r="GM32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GN32" s="27" t="n">
+      <c r="GN32" s="28" t="n">
         <v>0.005</v>
       </c>
-      <c r="GO32" s="25" t="n">
+      <c r="GO32" s="26" t="n">
         <v>0.005</v>
       </c>
-      <c r="GP32" s="26" t="n">
+      <c r="GP32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GQ32" s="26" t="n">
+      <c r="GQ32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GR32" s="26" t="n">
+      <c r="GR32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="GS32" s="27" t="n">
+      <c r="GS32" s="28" t="n">
         <v>0.005</v>
       </c>
-      <c r="GT32" s="21"/>
+      <c r="GT32" s="22"/>
       <c r="GU32" s="8"/>
       <c r="GV32" s="7" t="n">
         <v>10</v>
@@ -19975,70 +19985,70 @@
       <c r="HB32" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="HC32" s="29" t="n">
+      <c r="HC32" s="30" t="n">
         <v>0.005</v>
       </c>
-      <c r="HD32" s="25" t="n">
+      <c r="HD32" s="26" t="n">
         <v>0.005</v>
       </c>
-      <c r="HE32" s="26" t="n">
+      <c r="HE32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HF32" s="26" t="n">
+      <c r="HF32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HG32" s="26" t="n">
+      <c r="HG32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HH32" s="26" t="n">
+      <c r="HH32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HI32" s="26" t="n">
+      <c r="HI32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HJ32" s="26" t="n">
+      <c r="HJ32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HK32" s="26" t="n">
+      <c r="HK32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HL32" s="26" t="n">
+      <c r="HL32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HM32" s="26" t="n">
+      <c r="HM32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HN32" s="26" t="n">
+      <c r="HN32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HO32" s="26" t="n">
+      <c r="HO32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HP32" s="26" t="n">
+      <c r="HP32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HQ32" s="26" t="n">
+      <c r="HQ32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HR32" s="26" t="n">
+      <c r="HR32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HS32" s="26" t="n">
+      <c r="HS32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="HT32" s="27" t="n">
+      <c r="HT32" s="28" t="n">
         <v>0.005</v>
       </c>
-      <c r="HU32" s="29" t="n">
+      <c r="HU32" s="30" t="n">
         <v>0.005</v>
       </c>
-      <c r="HV32" s="26" t="n">
+      <c r="HV32" s="27" t="n">
         <v>1E-005</v>
       </c>
-      <c r="HW32" s="26" t="n">
+      <c r="HW32" s="27" t="n">
         <v>1E-005</v>
       </c>
-      <c r="HX32" s="27" t="n">
+      <c r="HX32" s="28" t="n">
         <v>1E-005</v>
       </c>
       <c r="HY32" s="8"/>
@@ -20050,7 +20060,7 @@
       <c r="IE32" s="8"/>
       <c r="IF32" s="7"/>
       <c r="IG32" s="9"/>
-      <c r="IH32" s="21"/>
+      <c r="IH32" s="22"/>
       <c r="II32" s="8"/>
       <c r="IJ32" s="7"/>
       <c r="IK32" s="7"/>
@@ -20076,7 +20086,7 @@
       <c r="JE32" s="8"/>
       <c r="JF32" s="7"/>
       <c r="JG32" s="9"/>
-      <c r="JH32" s="21" t="n">
+      <c r="JH32" s="22" t="n">
         <v>0.25</v>
       </c>
       <c r="JI32" s="8"/>
@@ -20087,45 +20097,45 @@
       <c r="JN32" s="7"/>
       <c r="JO32" s="7"/>
       <c r="JP32" s="7"/>
-      <c r="JQ32" s="25" t="n">
+      <c r="JQ32" s="26" t="n">
         <v>0.005</v>
       </c>
-      <c r="JR32" s="26" t="n">
+      <c r="JR32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="JS32" s="26" t="n">
+      <c r="JS32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="JT32" s="26" t="n">
+      <c r="JT32" s="27" t="n">
         <v>0.005</v>
       </c>
-      <c r="JU32" s="27" t="n">
+      <c r="JU32" s="28" t="n">
         <v>0.005</v>
       </c>
-      <c r="JV32" s="29" t="n">
+      <c r="JV32" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="JW32" s="29" t="n">
+      <c r="JW32" s="30" t="n">
         <v>0.01</v>
       </c>
-      <c r="JX32" s="25" t="n">
+      <c r="JX32" s="26" t="n">
         <v>0.006</v>
       </c>
-      <c r="JY32" s="27" t="n">
+      <c r="JY32" s="28" t="n">
         <v>0.006</v>
       </c>
-      <c r="JZ32" s="21" t="n">
+      <c r="JZ32" s="22" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="0" t="n">
         <v>1</v>
       </c>
@@ -20202,10 +20212,10 @@
       <c r="AZ33" s="7"/>
       <c r="BA33" s="7"/>
       <c r="BB33" s="9"/>
-      <c r="BC33" s="21"/>
-      <c r="BD33" s="21"/>
-      <c r="BE33" s="21"/>
-      <c r="BF33" s="21"/>
+      <c r="BC33" s="22"/>
+      <c r="BD33" s="22"/>
+      <c r="BE33" s="22"/>
+      <c r="BF33" s="22"/>
       <c r="BG33" s="8"/>
       <c r="BH33" s="7"/>
       <c r="BI33" s="7"/>
@@ -20294,7 +20304,7 @@
       <c r="DZ33" s="7"/>
       <c r="EA33" s="7"/>
       <c r="EB33" s="9"/>
-      <c r="EC33" s="21"/>
+      <c r="EC33" s="22"/>
       <c r="ED33" s="8"/>
       <c r="EE33" s="7"/>
       <c r="EF33" s="7"/>
@@ -20338,7 +20348,7 @@
       <c r="FP33" s="9" t="n">
         <v>450</v>
       </c>
-      <c r="FQ33" s="21"/>
+      <c r="FQ33" s="22"/>
       <c r="FR33" s="8" t="n">
         <v>390</v>
       </c>
@@ -20415,7 +20425,7 @@
       <c r="GS33" s="9" t="n">
         <v>320</v>
       </c>
-      <c r="GT33" s="21"/>
+      <c r="GT33" s="22"/>
       <c r="GU33" s="8"/>
       <c r="GV33" s="7"/>
       <c r="GW33" s="7"/>
@@ -20424,7 +20434,7 @@
       <c r="GZ33" s="7"/>
       <c r="HA33" s="7"/>
       <c r="HB33" s="9"/>
-      <c r="HC33" s="21"/>
+      <c r="HC33" s="22"/>
       <c r="HD33" s="8"/>
       <c r="HE33" s="7"/>
       <c r="HF33" s="7"/>
@@ -20442,7 +20452,7 @@
       <c r="HR33" s="7"/>
       <c r="HS33" s="7"/>
       <c r="HT33" s="9"/>
-      <c r="HU33" s="21" t="n">
+      <c r="HU33" s="22" t="n">
         <v>340</v>
       </c>
       <c r="HV33" s="7" t="n">
@@ -20475,7 +20485,7 @@
       <c r="IE33" s="8"/>
       <c r="IF33" s="7"/>
       <c r="IG33" s="9"/>
-      <c r="IH33" s="21"/>
+      <c r="IH33" s="22"/>
       <c r="II33" s="8" t="n">
         <v>220</v>
       </c>
@@ -20539,7 +20549,7 @@
       <c r="JG33" s="9" t="n">
         <v>460</v>
       </c>
-      <c r="JH33" s="21"/>
+      <c r="JH33" s="22"/>
       <c r="JI33" s="8"/>
       <c r="JJ33" s="7"/>
       <c r="JK33" s="7"/>
@@ -20563,10 +20573,10 @@
       <c r="JU33" s="9" t="n">
         <v>213</v>
       </c>
-      <c r="JV33" s="21" t="n">
+      <c r="JV33" s="22" t="n">
         <v>365</v>
       </c>
-      <c r="JW33" s="21" t="n">
+      <c r="JW33" s="22" t="n">
         <v>225</v>
       </c>
       <c r="JX33" s="8" t="n">
@@ -20575,16 +20585,16 @@
       <c r="JY33" s="9" t="n">
         <v>360</v>
       </c>
-      <c r="JZ33" s="21"/>
+      <c r="JZ33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="42"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="0" t="n">
         <v>-1</v>
       </c>
@@ -20629,10 +20639,10 @@
       <c r="AZ34" s="7"/>
       <c r="BA34" s="7"/>
       <c r="BB34" s="9"/>
-      <c r="BC34" s="21"/>
-      <c r="BD34" s="21"/>
-      <c r="BE34" s="21"/>
-      <c r="BF34" s="21"/>
+      <c r="BC34" s="22"/>
+      <c r="BD34" s="22"/>
+      <c r="BE34" s="22"/>
+      <c r="BF34" s="22"/>
       <c r="BG34" s="8"/>
       <c r="BH34" s="7"/>
       <c r="BI34" s="7"/>
@@ -20707,7 +20717,7 @@
       <c r="DZ34" s="7"/>
       <c r="EA34" s="7"/>
       <c r="EB34" s="9"/>
-      <c r="EC34" s="21"/>
+      <c r="EC34" s="22"/>
       <c r="ED34" s="8"/>
       <c r="EE34" s="7"/>
       <c r="EF34" s="7"/>
@@ -20747,7 +20757,7 @@
       <c r="FN34" s="9"/>
       <c r="FO34" s="8"/>
       <c r="FP34" s="9"/>
-      <c r="FQ34" s="21"/>
+      <c r="FQ34" s="22"/>
       <c r="FR34" s="8"/>
       <c r="FS34" s="7"/>
       <c r="FT34" s="9"/>
@@ -20776,7 +20786,7 @@
       <c r="GQ34" s="7"/>
       <c r="GR34" s="7"/>
       <c r="GS34" s="9"/>
-      <c r="GT34" s="21"/>
+      <c r="GT34" s="22"/>
       <c r="GU34" s="8"/>
       <c r="GV34" s="7"/>
       <c r="GW34" s="7"/>
@@ -20785,7 +20795,7 @@
       <c r="GZ34" s="7"/>
       <c r="HA34" s="7"/>
       <c r="HB34" s="9"/>
-      <c r="HC34" s="21"/>
+      <c r="HC34" s="22"/>
       <c r="HD34" s="8"/>
       <c r="HE34" s="7"/>
       <c r="HF34" s="7"/>
@@ -20803,7 +20813,7 @@
       <c r="HR34" s="7"/>
       <c r="HS34" s="7"/>
       <c r="HT34" s="9"/>
-      <c r="HU34" s="21"/>
+      <c r="HU34" s="22"/>
       <c r="HV34" s="7"/>
       <c r="HW34" s="7"/>
       <c r="HX34" s="9"/>
@@ -20816,7 +20826,7 @@
       <c r="IE34" s="8"/>
       <c r="IF34" s="7"/>
       <c r="IG34" s="9"/>
-      <c r="IH34" s="21"/>
+      <c r="IH34" s="22"/>
       <c r="II34" s="8"/>
       <c r="IJ34" s="7"/>
       <c r="IK34" s="7"/>
@@ -20842,7 +20852,7 @@
       <c r="JE34" s="8"/>
       <c r="JF34" s="7"/>
       <c r="JG34" s="9"/>
-      <c r="JH34" s="21"/>
+      <c r="JH34" s="22"/>
       <c r="JI34" s="8"/>
       <c r="JJ34" s="7"/>
       <c r="JK34" s="7"/>
@@ -20856,26 +20866,26 @@
       <c r="JS34" s="7"/>
       <c r="JT34" s="7"/>
       <c r="JU34" s="9"/>
-      <c r="JV34" s="21"/>
-      <c r="JW34" s="21"/>
+      <c r="JV34" s="22"/>
+      <c r="JW34" s="22"/>
       <c r="JX34" s="8" t="n">
         <v>1</v>
       </c>
       <c r="JY34" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="JZ34" s="21" t="n">
+      <c r="JZ34" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="42"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="0" t="n">
         <v>-1</v>
       </c>
@@ -20920,10 +20930,10 @@
       <c r="AZ35" s="7"/>
       <c r="BA35" s="7"/>
       <c r="BB35" s="9"/>
-      <c r="BC35" s="21"/>
-      <c r="BD35" s="21"/>
-      <c r="BE35" s="21"/>
-      <c r="BF35" s="21"/>
+      <c r="BC35" s="22"/>
+      <c r="BD35" s="22"/>
+      <c r="BE35" s="22"/>
+      <c r="BF35" s="22"/>
       <c r="BG35" s="8"/>
       <c r="BH35" s="7"/>
       <c r="BI35" s="7"/>
@@ -20998,7 +21008,7 @@
       <c r="DZ35" s="7"/>
       <c r="EA35" s="7"/>
       <c r="EB35" s="9"/>
-      <c r="EC35" s="21"/>
+      <c r="EC35" s="22"/>
       <c r="ED35" s="8"/>
       <c r="EE35" s="7"/>
       <c r="EF35" s="7"/>
@@ -21038,7 +21048,7 @@
       <c r="FN35" s="9"/>
       <c r="FO35" s="8"/>
       <c r="FP35" s="9"/>
-      <c r="FQ35" s="21"/>
+      <c r="FQ35" s="22"/>
       <c r="FR35" s="8"/>
       <c r="FS35" s="7"/>
       <c r="FT35" s="9"/>
@@ -21067,7 +21077,7 @@
       <c r="GQ35" s="7"/>
       <c r="GR35" s="7"/>
       <c r="GS35" s="9"/>
-      <c r="GT35" s="21"/>
+      <c r="GT35" s="22"/>
       <c r="GU35" s="8"/>
       <c r="GV35" s="7"/>
       <c r="GW35" s="7"/>
@@ -21076,7 +21086,7 @@
       <c r="GZ35" s="7"/>
       <c r="HA35" s="7"/>
       <c r="HB35" s="9"/>
-      <c r="HC35" s="21"/>
+      <c r="HC35" s="22"/>
       <c r="HD35" s="8"/>
       <c r="HE35" s="7"/>
       <c r="HF35" s="7"/>
@@ -21094,7 +21104,7 @@
       <c r="HR35" s="7"/>
       <c r="HS35" s="7"/>
       <c r="HT35" s="9"/>
-      <c r="HU35" s="21"/>
+      <c r="HU35" s="22"/>
       <c r="HV35" s="7"/>
       <c r="HW35" s="7"/>
       <c r="HX35" s="9"/>
@@ -21107,7 +21117,7 @@
       <c r="IE35" s="8"/>
       <c r="IF35" s="7"/>
       <c r="IG35" s="9"/>
-      <c r="IH35" s="21"/>
+      <c r="IH35" s="22"/>
       <c r="II35" s="8"/>
       <c r="IJ35" s="7"/>
       <c r="IK35" s="7"/>
@@ -21133,7 +21143,7 @@
       <c r="JE35" s="8"/>
       <c r="JF35" s="7"/>
       <c r="JG35" s="9"/>
-      <c r="JH35" s="21"/>
+      <c r="JH35" s="22"/>
       <c r="JI35" s="8"/>
       <c r="JJ35" s="7"/>
       <c r="JK35" s="7"/>
@@ -21147,24 +21157,24 @@
       <c r="JS35" s="7"/>
       <c r="JT35" s="7"/>
       <c r="JU35" s="9"/>
-      <c r="JV35" s="21"/>
-      <c r="JW35" s="21"/>
+      <c r="JV35" s="22"/>
+      <c r="JW35" s="22"/>
       <c r="JX35" s="8" t="n">
         <v>3</v>
       </c>
       <c r="JY35" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="JZ35" s="21"/>
+      <c r="JZ35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="42"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="0" t="n">
         <v>-1</v>
       </c>
@@ -21209,10 +21219,10 @@
       <c r="AZ36" s="7"/>
       <c r="BA36" s="7"/>
       <c r="BB36" s="9"/>
-      <c r="BC36" s="21"/>
-      <c r="BD36" s="21"/>
-      <c r="BE36" s="21"/>
-      <c r="BF36" s="21"/>
+      <c r="BC36" s="22"/>
+      <c r="BD36" s="22"/>
+      <c r="BE36" s="22"/>
+      <c r="BF36" s="22"/>
       <c r="BG36" s="8"/>
       <c r="BH36" s="7"/>
       <c r="BI36" s="7"/>
@@ -21287,7 +21297,7 @@
       <c r="DZ36" s="7"/>
       <c r="EA36" s="7"/>
       <c r="EB36" s="9"/>
-      <c r="EC36" s="21"/>
+      <c r="EC36" s="22"/>
       <c r="ED36" s="8"/>
       <c r="EE36" s="7"/>
       <c r="EF36" s="7"/>
@@ -21327,7 +21337,7 @@
       <c r="FN36" s="9"/>
       <c r="FO36" s="8"/>
       <c r="FP36" s="9"/>
-      <c r="FQ36" s="21"/>
+      <c r="FQ36" s="22"/>
       <c r="FR36" s="8"/>
       <c r="FS36" s="7"/>
       <c r="FT36" s="9"/>
@@ -21356,7 +21366,7 @@
       <c r="GQ36" s="7"/>
       <c r="GR36" s="7"/>
       <c r="GS36" s="9"/>
-      <c r="GT36" s="21"/>
+      <c r="GT36" s="22"/>
       <c r="GU36" s="8"/>
       <c r="GV36" s="7"/>
       <c r="GW36" s="7"/>
@@ -21365,7 +21375,7 @@
       <c r="GZ36" s="7"/>
       <c r="HA36" s="7"/>
       <c r="HB36" s="9"/>
-      <c r="HC36" s="21"/>
+      <c r="HC36" s="22"/>
       <c r="HD36" s="8"/>
       <c r="HE36" s="7"/>
       <c r="HF36" s="7"/>
@@ -21383,7 +21393,7 @@
       <c r="HR36" s="7"/>
       <c r="HS36" s="7"/>
       <c r="HT36" s="9"/>
-      <c r="HU36" s="21"/>
+      <c r="HU36" s="22"/>
       <c r="HV36" s="7"/>
       <c r="HW36" s="7"/>
       <c r="HX36" s="9"/>
@@ -21396,7 +21406,7 @@
       <c r="IE36" s="8"/>
       <c r="IF36" s="7"/>
       <c r="IG36" s="9"/>
-      <c r="IH36" s="21"/>
+      <c r="IH36" s="22"/>
       <c r="II36" s="8"/>
       <c r="IJ36" s="7"/>
       <c r="IK36" s="7"/>
@@ -21422,7 +21432,7 @@
       <c r="JE36" s="8"/>
       <c r="JF36" s="7"/>
       <c r="JG36" s="9"/>
-      <c r="JH36" s="21"/>
+      <c r="JH36" s="22"/>
       <c r="JI36" s="8"/>
       <c r="JJ36" s="7"/>
       <c r="JK36" s="7"/>
@@ -21436,26 +21446,26 @@
       <c r="JS36" s="7"/>
       <c r="JT36" s="7"/>
       <c r="JU36" s="9"/>
-      <c r="JV36" s="21"/>
-      <c r="JW36" s="21"/>
+      <c r="JV36" s="22"/>
+      <c r="JW36" s="22"/>
       <c r="JX36" s="8" t="n">
         <v>6</v>
       </c>
       <c r="JY36" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="JZ36" s="21" t="n">
+      <c r="JZ36" s="22" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="42"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="0" t="n">
         <v>-1</v>
       </c>
@@ -21500,10 +21510,10 @@
       <c r="AZ37" s="7"/>
       <c r="BA37" s="7"/>
       <c r="BB37" s="9"/>
-      <c r="BC37" s="21"/>
-      <c r="BD37" s="21"/>
-      <c r="BE37" s="21"/>
-      <c r="BF37" s="21"/>
+      <c r="BC37" s="22"/>
+      <c r="BD37" s="22"/>
+      <c r="BE37" s="22"/>
+      <c r="BF37" s="22"/>
       <c r="BG37" s="8"/>
       <c r="BH37" s="7"/>
       <c r="BI37" s="7"/>
@@ -21578,7 +21588,7 @@
       <c r="DZ37" s="7"/>
       <c r="EA37" s="7"/>
       <c r="EB37" s="9"/>
-      <c r="EC37" s="21"/>
+      <c r="EC37" s="22"/>
       <c r="ED37" s="8"/>
       <c r="EE37" s="7"/>
       <c r="EF37" s="7"/>
@@ -21618,7 +21628,7 @@
       <c r="FN37" s="9"/>
       <c r="FO37" s="8"/>
       <c r="FP37" s="9"/>
-      <c r="FQ37" s="21"/>
+      <c r="FQ37" s="22"/>
       <c r="FR37" s="8"/>
       <c r="FS37" s="7"/>
       <c r="FT37" s="9"/>
@@ -21647,7 +21657,7 @@
       <c r="GQ37" s="7"/>
       <c r="GR37" s="7"/>
       <c r="GS37" s="9"/>
-      <c r="GT37" s="21"/>
+      <c r="GT37" s="22"/>
       <c r="GU37" s="8"/>
       <c r="GV37" s="7"/>
       <c r="GW37" s="7"/>
@@ -21656,7 +21666,7 @@
       <c r="GZ37" s="7"/>
       <c r="HA37" s="7"/>
       <c r="HB37" s="9"/>
-      <c r="HC37" s="21"/>
+      <c r="HC37" s="22"/>
       <c r="HD37" s="8"/>
       <c r="HE37" s="7"/>
       <c r="HF37" s="7"/>
@@ -21674,7 +21684,7 @@
       <c r="HR37" s="7"/>
       <c r="HS37" s="7"/>
       <c r="HT37" s="9"/>
-      <c r="HU37" s="21"/>
+      <c r="HU37" s="22"/>
       <c r="HV37" s="7"/>
       <c r="HW37" s="7"/>
       <c r="HX37" s="9"/>
@@ -21687,7 +21697,7 @@
       <c r="IE37" s="8"/>
       <c r="IF37" s="7"/>
       <c r="IG37" s="9"/>
-      <c r="IH37" s="21"/>
+      <c r="IH37" s="22"/>
       <c r="II37" s="8"/>
       <c r="IJ37" s="7"/>
       <c r="IK37" s="7"/>
@@ -21713,7 +21723,7 @@
       <c r="JE37" s="8"/>
       <c r="JF37" s="7"/>
       <c r="JG37" s="9"/>
-      <c r="JH37" s="21"/>
+      <c r="JH37" s="22"/>
       <c r="JI37" s="8"/>
       <c r="JJ37" s="7"/>
       <c r="JK37" s="7"/>
@@ -21727,26 +21737,26 @@
       <c r="JS37" s="7"/>
       <c r="JT37" s="7"/>
       <c r="JU37" s="9"/>
-      <c r="JV37" s="21"/>
-      <c r="JW37" s="21"/>
+      <c r="JV37" s="22"/>
+      <c r="JW37" s="22"/>
       <c r="JX37" s="8" t="s">
         <v>82</v>
       </c>
       <c r="JY37" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="JZ37" s="21" t="s">
+      <c r="JZ37" s="22" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="23"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="0" t="n">
         <v>-1</v>
       </c>
@@ -21791,10 +21801,10 @@
       <c r="AZ38" s="7"/>
       <c r="BA38" s="7"/>
       <c r="BB38" s="9"/>
-      <c r="BC38" s="21"/>
-      <c r="BD38" s="21"/>
-      <c r="BE38" s="21"/>
-      <c r="BF38" s="21"/>
+      <c r="BC38" s="22"/>
+      <c r="BD38" s="22"/>
+      <c r="BE38" s="22"/>
+      <c r="BF38" s="22"/>
       <c r="BG38" s="8"/>
       <c r="BH38" s="7"/>
       <c r="BI38" s="7"/>
@@ -21869,7 +21879,7 @@
       <c r="DZ38" s="7"/>
       <c r="EA38" s="7"/>
       <c r="EB38" s="9"/>
-      <c r="EC38" s="21"/>
+      <c r="EC38" s="22"/>
       <c r="ED38" s="8"/>
       <c r="EE38" s="7"/>
       <c r="EF38" s="7"/>
@@ -21909,7 +21919,7 @@
       <c r="FN38" s="9"/>
       <c r="FO38" s="8"/>
       <c r="FP38" s="9"/>
-      <c r="FQ38" s="21" t="n">
+      <c r="FQ38" s="22" t="n">
         <v>0.9</v>
       </c>
       <c r="FR38" s="8"/>
@@ -21940,7 +21950,7 @@
       <c r="GQ38" s="7"/>
       <c r="GR38" s="7"/>
       <c r="GS38" s="9"/>
-      <c r="GT38" s="21"/>
+      <c r="GT38" s="22"/>
       <c r="GU38" s="8"/>
       <c r="GV38" s="7"/>
       <c r="GW38" s="7"/>
@@ -21949,7 +21959,7 @@
       <c r="GZ38" s="7"/>
       <c r="HA38" s="7"/>
       <c r="HB38" s="9"/>
-      <c r="HC38" s="21"/>
+      <c r="HC38" s="22"/>
       <c r="HD38" s="8"/>
       <c r="HE38" s="7"/>
       <c r="HF38" s="7"/>
@@ -21967,7 +21977,7 @@
       <c r="HR38" s="7"/>
       <c r="HS38" s="7"/>
       <c r="HT38" s="9"/>
-      <c r="HU38" s="21"/>
+      <c r="HU38" s="22"/>
       <c r="HV38" s="7"/>
       <c r="HW38" s="7"/>
       <c r="HX38" s="9"/>
@@ -21980,7 +21990,7 @@
       <c r="IE38" s="8"/>
       <c r="IF38" s="7"/>
       <c r="IG38" s="9"/>
-      <c r="IH38" s="21"/>
+      <c r="IH38" s="22"/>
       <c r="II38" s="8"/>
       <c r="IJ38" s="7"/>
       <c r="IK38" s="7"/>
@@ -22018,7 +22028,7 @@
       <c r="JE38" s="8"/>
       <c r="JF38" s="7"/>
       <c r="JG38" s="9"/>
-      <c r="JH38" s="21"/>
+      <c r="JH38" s="22"/>
       <c r="JI38" s="8"/>
       <c r="JJ38" s="7"/>
       <c r="JK38" s="7"/>
@@ -22032,8 +22042,8 @@
       <c r="JS38" s="7"/>
       <c r="JT38" s="7"/>
       <c r="JU38" s="9"/>
-      <c r="JV38" s="21"/>
-      <c r="JW38" s="21" t="n">
+      <c r="JV38" s="22"/>
+      <c r="JW38" s="22" t="n">
         <v>0.3</v>
       </c>
       <c r="JX38" s="8" t="n">
@@ -22042,16 +22052,16 @@
       <c r="JY38" s="9" t="n">
         <v>0.07</v>
       </c>
-      <c r="JZ38" s="21"/>
+      <c r="JZ38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="0" t="n">
         <v>-1</v>
       </c>
@@ -22096,10 +22106,10 @@
       <c r="AZ39" s="7"/>
       <c r="BA39" s="7"/>
       <c r="BB39" s="9"/>
-      <c r="BC39" s="21"/>
-      <c r="BD39" s="21"/>
-      <c r="BE39" s="21"/>
-      <c r="BF39" s="21"/>
+      <c r="BC39" s="22"/>
+      <c r="BD39" s="22"/>
+      <c r="BE39" s="22"/>
+      <c r="BF39" s="22"/>
       <c r="BG39" s="8"/>
       <c r="BH39" s="7"/>
       <c r="BI39" s="7"/>
@@ -22174,7 +22184,7 @@
       <c r="DZ39" s="7"/>
       <c r="EA39" s="7"/>
       <c r="EB39" s="9"/>
-      <c r="EC39" s="21"/>
+      <c r="EC39" s="22"/>
       <c r="ED39" s="8"/>
       <c r="EE39" s="7"/>
       <c r="EF39" s="7"/>
@@ -22214,7 +22224,7 @@
       <c r="FN39" s="9"/>
       <c r="FO39" s="8"/>
       <c r="FP39" s="9"/>
-      <c r="FQ39" s="21"/>
+      <c r="FQ39" s="22"/>
       <c r="FR39" s="8"/>
       <c r="FS39" s="7"/>
       <c r="FT39" s="9"/>
@@ -22243,7 +22253,7 @@
       <c r="GQ39" s="7"/>
       <c r="GR39" s="7"/>
       <c r="GS39" s="9"/>
-      <c r="GT39" s="21"/>
+      <c r="GT39" s="22"/>
       <c r="GU39" s="8"/>
       <c r="GV39" s="7"/>
       <c r="GW39" s="7"/>
@@ -22252,7 +22262,7 @@
       <c r="GZ39" s="7"/>
       <c r="HA39" s="7"/>
       <c r="HB39" s="9"/>
-      <c r="HC39" s="21"/>
+      <c r="HC39" s="22"/>
       <c r="HD39" s="8"/>
       <c r="HE39" s="7"/>
       <c r="HF39" s="7"/>
@@ -22270,7 +22280,7 @@
       <c r="HR39" s="7"/>
       <c r="HS39" s="7"/>
       <c r="HT39" s="9"/>
-      <c r="HU39" s="21"/>
+      <c r="HU39" s="22"/>
       <c r="HV39" s="7"/>
       <c r="HW39" s="7"/>
       <c r="HX39" s="9"/>
@@ -22283,7 +22293,7 @@
       <c r="IE39" s="8"/>
       <c r="IF39" s="7"/>
       <c r="IG39" s="9"/>
-      <c r="IH39" s="21"/>
+      <c r="IH39" s="22"/>
       <c r="II39" s="8"/>
       <c r="IJ39" s="7"/>
       <c r="IK39" s="7"/>
@@ -22309,7 +22319,7 @@
       <c r="JE39" s="8"/>
       <c r="JF39" s="7"/>
       <c r="JG39" s="9"/>
-      <c r="JH39" s="21"/>
+      <c r="JH39" s="22"/>
       <c r="JI39" s="8"/>
       <c r="JJ39" s="7"/>
       <c r="JK39" s="7"/>
@@ -22323,20 +22333,20 @@
       <c r="JS39" s="7"/>
       <c r="JT39" s="7"/>
       <c r="JU39" s="9"/>
-      <c r="JV39" s="21"/>
-      <c r="JW39" s="21"/>
+      <c r="JV39" s="22"/>
+      <c r="JW39" s="22"/>
       <c r="JX39" s="8"/>
       <c r="JY39" s="9"/>
-      <c r="JZ39" s="21"/>
+      <c r="JZ39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="23"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="0" t="n">
         <v>-1</v>
       </c>
@@ -22381,10 +22391,10 @@
       <c r="AZ40" s="7"/>
       <c r="BA40" s="7"/>
       <c r="BB40" s="9"/>
-      <c r="BC40" s="21"/>
-      <c r="BD40" s="21"/>
-      <c r="BE40" s="21"/>
-      <c r="BF40" s="21"/>
+      <c r="BC40" s="22"/>
+      <c r="BD40" s="22"/>
+      <c r="BE40" s="22"/>
+      <c r="BF40" s="22"/>
       <c r="BG40" s="8"/>
       <c r="BH40" s="7"/>
       <c r="BI40" s="7"/>
@@ -22459,7 +22469,7 @@
       <c r="DZ40" s="7"/>
       <c r="EA40" s="7"/>
       <c r="EB40" s="9"/>
-      <c r="EC40" s="21"/>
+      <c r="EC40" s="22"/>
       <c r="ED40" s="8"/>
       <c r="EE40" s="7"/>
       <c r="EF40" s="7"/>
@@ -22527,7 +22537,7 @@
       <c r="FN40" s="9"/>
       <c r="FO40" s="8"/>
       <c r="FP40" s="9"/>
-      <c r="FQ40" s="21"/>
+      <c r="FQ40" s="22"/>
       <c r="FR40" s="8"/>
       <c r="FS40" s="7"/>
       <c r="FT40" s="9"/>
@@ -22556,7 +22566,7 @@
       <c r="GQ40" s="7"/>
       <c r="GR40" s="7"/>
       <c r="GS40" s="9"/>
-      <c r="GT40" s="21"/>
+      <c r="GT40" s="22"/>
       <c r="GU40" s="8"/>
       <c r="GV40" s="7"/>
       <c r="GW40" s="7" t="n">
@@ -22577,7 +22587,7 @@
       <c r="HB40" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="HC40" s="21"/>
+      <c r="HC40" s="22"/>
       <c r="HD40" s="8"/>
       <c r="HE40" s="7"/>
       <c r="HF40" s="7"/>
@@ -22595,14 +22605,14 @@
       <c r="HR40" s="7"/>
       <c r="HS40" s="7"/>
       <c r="HT40" s="9"/>
-      <c r="HU40" s="21"/>
-      <c r="HV40" s="26" t="n">
+      <c r="HU40" s="22"/>
+      <c r="HV40" s="27" t="n">
         <v>0.000728</v>
       </c>
-      <c r="HW40" s="26" t="n">
+      <c r="HW40" s="27" t="n">
         <v>0.000974</v>
       </c>
-      <c r="HX40" s="27" t="n">
+      <c r="HX40" s="28" t="n">
         <v>0.002342</v>
       </c>
       <c r="HY40" s="8"/>
@@ -22614,7 +22624,7 @@
       <c r="IE40" s="8"/>
       <c r="IF40" s="7"/>
       <c r="IG40" s="9"/>
-      <c r="IH40" s="21"/>
+      <c r="IH40" s="22"/>
       <c r="II40" s="8"/>
       <c r="IJ40" s="7"/>
       <c r="IK40" s="7"/>
@@ -22640,7 +22650,7 @@
       <c r="JE40" s="8"/>
       <c r="JF40" s="7"/>
       <c r="JG40" s="9"/>
-      <c r="JH40" s="21" t="n">
+      <c r="JH40" s="22" t="n">
         <v>53.9</v>
       </c>
       <c r="JI40" s="8"/>
@@ -22666,310 +22676,310 @@
       <c r="JU40" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="JV40" s="21"/>
-      <c r="JW40" s="21"/>
+      <c r="JV40" s="22"/>
+      <c r="JW40" s="22"/>
       <c r="JX40" s="8"/>
       <c r="JY40" s="9"/>
-      <c r="JZ40" s="21"/>
+      <c r="JZ40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="23"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="44"/>
-      <c r="AF41" s="44"/>
-      <c r="AG41" s="44"/>
-      <c r="AH41" s="44"/>
-      <c r="AI41" s="44"/>
-      <c r="AJ41" s="44"/>
-      <c r="AK41" s="44"/>
-      <c r="AL41" s="45"/>
-      <c r="AM41" s="43"/>
-      <c r="AN41" s="44"/>
-      <c r="AO41" s="44"/>
-      <c r="AP41" s="44"/>
-      <c r="AQ41" s="44"/>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="43"/>
-      <c r="AT41" s="44"/>
-      <c r="AU41" s="44"/>
-      <c r="AV41" s="44"/>
-      <c r="AW41" s="44"/>
-      <c r="AX41" s="45"/>
-      <c r="AY41" s="43"/>
-      <c r="AZ41" s="44"/>
-      <c r="BA41" s="44"/>
-      <c r="BB41" s="45"/>
-      <c r="BC41" s="46"/>
-      <c r="BD41" s="46"/>
-      <c r="BE41" s="46" t="n">
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="45"/>
+      <c r="AF41" s="45"/>
+      <c r="AG41" s="45"/>
+      <c r="AH41" s="45"/>
+      <c r="AI41" s="45"/>
+      <c r="AJ41" s="45"/>
+      <c r="AK41" s="45"/>
+      <c r="AL41" s="46"/>
+      <c r="AM41" s="44"/>
+      <c r="AN41" s="45"/>
+      <c r="AO41" s="45"/>
+      <c r="AP41" s="45"/>
+      <c r="AQ41" s="45"/>
+      <c r="AR41" s="46"/>
+      <c r="AS41" s="44"/>
+      <c r="AT41" s="45"/>
+      <c r="AU41" s="45"/>
+      <c r="AV41" s="45"/>
+      <c r="AW41" s="45"/>
+      <c r="AX41" s="46"/>
+      <c r="AY41" s="44"/>
+      <c r="AZ41" s="45"/>
+      <c r="BA41" s="45"/>
+      <c r="BB41" s="46"/>
+      <c r="BC41" s="47"/>
+      <c r="BD41" s="47"/>
+      <c r="BE41" s="47" t="n">
         <v>90</v>
       </c>
-      <c r="BF41" s="46" t="n">
+      <c r="BF41" s="47" t="n">
         <v>144</v>
       </c>
-      <c r="BG41" s="43"/>
-      <c r="BH41" s="44"/>
-      <c r="BI41" s="44"/>
-      <c r="BJ41" s="44"/>
-      <c r="BK41" s="44"/>
-      <c r="BL41" s="44"/>
-      <c r="BM41" s="44"/>
-      <c r="BN41" s="44"/>
-      <c r="BO41" s="44"/>
-      <c r="BP41" s="44"/>
-      <c r="BQ41" s="44"/>
-      <c r="BR41" s="44"/>
-      <c r="BS41" s="44"/>
-      <c r="BT41" s="44"/>
-      <c r="BU41" s="44"/>
-      <c r="BV41" s="44"/>
-      <c r="BW41" s="44"/>
-      <c r="BX41" s="44"/>
-      <c r="BY41" s="43"/>
-      <c r="BZ41" s="44"/>
-      <c r="CA41" s="44"/>
-      <c r="CB41" s="44"/>
-      <c r="CC41" s="44"/>
-      <c r="CD41" s="44"/>
-      <c r="CE41" s="44"/>
-      <c r="CF41" s="45"/>
-      <c r="CG41" s="43"/>
-      <c r="CH41" s="44"/>
-      <c r="CI41" s="44"/>
-      <c r="CJ41" s="44"/>
-      <c r="CK41" s="44"/>
-      <c r="CL41" s="44"/>
-      <c r="CM41" s="44"/>
-      <c r="CN41" s="44"/>
-      <c r="CO41" s="44"/>
-      <c r="CP41" s="44"/>
-      <c r="CQ41" s="44"/>
-      <c r="CR41" s="44"/>
-      <c r="CS41" s="44"/>
-      <c r="CT41" s="45"/>
-      <c r="CU41" s="43"/>
-      <c r="CV41" s="44"/>
-      <c r="CW41" s="44"/>
-      <c r="CX41" s="44"/>
-      <c r="CY41" s="44"/>
-      <c r="CZ41" s="45"/>
-      <c r="DA41" s="43"/>
-      <c r="DB41" s="44"/>
-      <c r="DC41" s="44"/>
-      <c r="DD41" s="45"/>
-      <c r="DE41" s="43"/>
-      <c r="DF41" s="44"/>
-      <c r="DG41" s="44"/>
-      <c r="DH41" s="45"/>
-      <c r="DI41" s="43"/>
-      <c r="DJ41" s="44"/>
-      <c r="DK41" s="44"/>
-      <c r="DL41" s="45"/>
-      <c r="DM41" s="43"/>
-      <c r="DN41" s="44"/>
-      <c r="DO41" s="44"/>
-      <c r="DP41" s="44"/>
-      <c r="DQ41" s="44"/>
-      <c r="DR41" s="44"/>
-      <c r="DS41" s="44"/>
-      <c r="DT41" s="44"/>
-      <c r="DU41" s="44"/>
-      <c r="DV41" s="44"/>
-      <c r="DW41" s="44"/>
-      <c r="DX41" s="44"/>
-      <c r="DY41" s="44"/>
-      <c r="DZ41" s="44"/>
-      <c r="EA41" s="44"/>
-      <c r="EB41" s="45"/>
-      <c r="EC41" s="46"/>
-      <c r="ED41" s="43"/>
-      <c r="EE41" s="44"/>
-      <c r="EF41" s="44"/>
-      <c r="EG41" s="44"/>
-      <c r="EH41" s="44"/>
-      <c r="EI41" s="44"/>
-      <c r="EJ41" s="45"/>
-      <c r="EK41" s="43"/>
-      <c r="EL41" s="44"/>
-      <c r="EM41" s="44"/>
-      <c r="EN41" s="45"/>
-      <c r="EO41" s="43"/>
-      <c r="EP41" s="44"/>
-      <c r="EQ41" s="44"/>
-      <c r="ER41" s="44"/>
-      <c r="ES41" s="44"/>
-      <c r="ET41" s="44"/>
-      <c r="EU41" s="44"/>
-      <c r="EV41" s="44"/>
-      <c r="EW41" s="44"/>
-      <c r="EX41" s="44"/>
-      <c r="EY41" s="44"/>
-      <c r="EZ41" s="44"/>
-      <c r="FA41" s="44"/>
-      <c r="FB41" s="44"/>
-      <c r="FC41" s="43"/>
-      <c r="FD41" s="44"/>
-      <c r="FE41" s="44"/>
-      <c r="FF41" s="44"/>
-      <c r="FG41" s="45"/>
-      <c r="FH41" s="43"/>
-      <c r="FI41" s="44"/>
-      <c r="FJ41" s="44"/>
-      <c r="FK41" s="44"/>
-      <c r="FL41" s="44"/>
-      <c r="FM41" s="44"/>
-      <c r="FN41" s="45"/>
-      <c r="FO41" s="43"/>
-      <c r="FP41" s="45"/>
-      <c r="FQ41" s="46" t="n">
+      <c r="BG41" s="44"/>
+      <c r="BH41" s="45"/>
+      <c r="BI41" s="45"/>
+      <c r="BJ41" s="45"/>
+      <c r="BK41" s="45"/>
+      <c r="BL41" s="45"/>
+      <c r="BM41" s="45"/>
+      <c r="BN41" s="45"/>
+      <c r="BO41" s="45"/>
+      <c r="BP41" s="45"/>
+      <c r="BQ41" s="45"/>
+      <c r="BR41" s="45"/>
+      <c r="BS41" s="45"/>
+      <c r="BT41" s="45"/>
+      <c r="BU41" s="45"/>
+      <c r="BV41" s="45"/>
+      <c r="BW41" s="45"/>
+      <c r="BX41" s="45"/>
+      <c r="BY41" s="44"/>
+      <c r="BZ41" s="45"/>
+      <c r="CA41" s="45"/>
+      <c r="CB41" s="45"/>
+      <c r="CC41" s="45"/>
+      <c r="CD41" s="45"/>
+      <c r="CE41" s="45"/>
+      <c r="CF41" s="46"/>
+      <c r="CG41" s="44"/>
+      <c r="CH41" s="45"/>
+      <c r="CI41" s="45"/>
+      <c r="CJ41" s="45"/>
+      <c r="CK41" s="45"/>
+      <c r="CL41" s="45"/>
+      <c r="CM41" s="45"/>
+      <c r="CN41" s="45"/>
+      <c r="CO41" s="45"/>
+      <c r="CP41" s="45"/>
+      <c r="CQ41" s="45"/>
+      <c r="CR41" s="45"/>
+      <c r="CS41" s="45"/>
+      <c r="CT41" s="46"/>
+      <c r="CU41" s="44"/>
+      <c r="CV41" s="45"/>
+      <c r="CW41" s="45"/>
+      <c r="CX41" s="45"/>
+      <c r="CY41" s="45"/>
+      <c r="CZ41" s="46"/>
+      <c r="DA41" s="44"/>
+      <c r="DB41" s="45"/>
+      <c r="DC41" s="45"/>
+      <c r="DD41" s="46"/>
+      <c r="DE41" s="44"/>
+      <c r="DF41" s="45"/>
+      <c r="DG41" s="45"/>
+      <c r="DH41" s="46"/>
+      <c r="DI41" s="44"/>
+      <c r="DJ41" s="45"/>
+      <c r="DK41" s="45"/>
+      <c r="DL41" s="46"/>
+      <c r="DM41" s="44"/>
+      <c r="DN41" s="45"/>
+      <c r="DO41" s="45"/>
+      <c r="DP41" s="45"/>
+      <c r="DQ41" s="45"/>
+      <c r="DR41" s="45"/>
+      <c r="DS41" s="45"/>
+      <c r="DT41" s="45"/>
+      <c r="DU41" s="45"/>
+      <c r="DV41" s="45"/>
+      <c r="DW41" s="45"/>
+      <c r="DX41" s="45"/>
+      <c r="DY41" s="45"/>
+      <c r="DZ41" s="45"/>
+      <c r="EA41" s="45"/>
+      <c r="EB41" s="46"/>
+      <c r="EC41" s="47"/>
+      <c r="ED41" s="44"/>
+      <c r="EE41" s="45"/>
+      <c r="EF41" s="45"/>
+      <c r="EG41" s="45"/>
+      <c r="EH41" s="45"/>
+      <c r="EI41" s="45"/>
+      <c r="EJ41" s="46"/>
+      <c r="EK41" s="44"/>
+      <c r="EL41" s="45"/>
+      <c r="EM41" s="45"/>
+      <c r="EN41" s="46"/>
+      <c r="EO41" s="44"/>
+      <c r="EP41" s="45"/>
+      <c r="EQ41" s="45"/>
+      <c r="ER41" s="45"/>
+      <c r="ES41" s="45"/>
+      <c r="ET41" s="45"/>
+      <c r="EU41" s="45"/>
+      <c r="EV41" s="45"/>
+      <c r="EW41" s="45"/>
+      <c r="EX41" s="45"/>
+      <c r="EY41" s="45"/>
+      <c r="EZ41" s="45"/>
+      <c r="FA41" s="45"/>
+      <c r="FB41" s="45"/>
+      <c r="FC41" s="44"/>
+      <c r="FD41" s="45"/>
+      <c r="FE41" s="45"/>
+      <c r="FF41" s="45"/>
+      <c r="FG41" s="46"/>
+      <c r="FH41" s="44"/>
+      <c r="FI41" s="45"/>
+      <c r="FJ41" s="45"/>
+      <c r="FK41" s="45"/>
+      <c r="FL41" s="45"/>
+      <c r="FM41" s="45"/>
+      <c r="FN41" s="46"/>
+      <c r="FO41" s="44"/>
+      <c r="FP41" s="46"/>
+      <c r="FQ41" s="47" t="n">
         <v>1.35</v>
       </c>
-      <c r="FR41" s="43"/>
-      <c r="FS41" s="44"/>
-      <c r="FT41" s="45"/>
-      <c r="FU41" s="43"/>
-      <c r="FV41" s="44"/>
-      <c r="FW41" s="44"/>
-      <c r="FX41" s="44"/>
-      <c r="FY41" s="43"/>
-      <c r="FZ41" s="44"/>
-      <c r="GA41" s="44"/>
-      <c r="GB41" s="44"/>
-      <c r="GC41" s="44"/>
-      <c r="GD41" s="44"/>
-      <c r="GE41" s="44"/>
-      <c r="GF41" s="44"/>
-      <c r="GG41" s="44"/>
-      <c r="GH41" s="44"/>
-      <c r="GI41" s="44"/>
-      <c r="GJ41" s="44"/>
-      <c r="GK41" s="44"/>
-      <c r="GL41" s="44"/>
-      <c r="GM41" s="44"/>
-      <c r="GN41" s="45"/>
-      <c r="GO41" s="43"/>
-      <c r="GP41" s="44"/>
-      <c r="GQ41" s="44"/>
-      <c r="GR41" s="44"/>
-      <c r="GS41" s="45"/>
-      <c r="GT41" s="46"/>
-      <c r="GU41" s="43"/>
-      <c r="GV41" s="44"/>
-      <c r="GW41" s="44"/>
-      <c r="GX41" s="44"/>
-      <c r="GY41" s="44"/>
-      <c r="GZ41" s="44"/>
-      <c r="HA41" s="44"/>
-      <c r="HB41" s="45"/>
-      <c r="HC41" s="46"/>
-      <c r="HD41" s="43"/>
-      <c r="HE41" s="44"/>
-      <c r="HF41" s="44"/>
-      <c r="HG41" s="44"/>
-      <c r="HH41" s="44"/>
-      <c r="HI41" s="44"/>
-      <c r="HJ41" s="44"/>
-      <c r="HK41" s="44"/>
-      <c r="HL41" s="44"/>
-      <c r="HM41" s="44"/>
-      <c r="HN41" s="44"/>
-      <c r="HO41" s="44"/>
-      <c r="HP41" s="44"/>
-      <c r="HQ41" s="44"/>
-      <c r="HR41" s="44"/>
-      <c r="HS41" s="44"/>
-      <c r="HT41" s="45"/>
-      <c r="HU41" s="46"/>
-      <c r="HV41" s="44"/>
-      <c r="HW41" s="44"/>
-      <c r="HX41" s="45"/>
-      <c r="HY41" s="43"/>
-      <c r="HZ41" s="44"/>
-      <c r="IA41" s="44"/>
-      <c r="IB41" s="44"/>
-      <c r="IC41" s="44"/>
-      <c r="ID41" s="45"/>
-      <c r="IE41" s="43"/>
-      <c r="IF41" s="44"/>
-      <c r="IG41" s="45"/>
-      <c r="IH41" s="46"/>
-      <c r="II41" s="43"/>
-      <c r="IJ41" s="44"/>
-      <c r="IK41" s="44"/>
-      <c r="IL41" s="44"/>
-      <c r="IM41" s="44"/>
-      <c r="IN41" s="44"/>
-      <c r="IO41" s="44"/>
-      <c r="IP41" s="44"/>
-      <c r="IQ41" s="44"/>
-      <c r="IR41" s="45"/>
-      <c r="IS41" s="43"/>
-      <c r="IT41" s="44"/>
-      <c r="IU41" s="44"/>
-      <c r="IV41" s="44"/>
-      <c r="IW41" s="44"/>
-      <c r="IX41" s="45"/>
-      <c r="IY41" s="43"/>
-      <c r="IZ41" s="44"/>
-      <c r="JA41" s="44"/>
-      <c r="JB41" s="44"/>
-      <c r="JC41" s="44"/>
-      <c r="JD41" s="45"/>
-      <c r="JE41" s="43"/>
-      <c r="JF41" s="44"/>
-      <c r="JG41" s="45"/>
-      <c r="JH41" s="46"/>
-      <c r="JI41" s="43"/>
-      <c r="JJ41" s="44"/>
-      <c r="JK41" s="44"/>
-      <c r="JL41" s="44"/>
-      <c r="JM41" s="44"/>
-      <c r="JN41" s="44"/>
-      <c r="JO41" s="44"/>
-      <c r="JP41" s="44"/>
-      <c r="JQ41" s="43"/>
-      <c r="JR41" s="44"/>
-      <c r="JS41" s="44"/>
-      <c r="JT41" s="44"/>
-      <c r="JU41" s="45"/>
-      <c r="JV41" s="46"/>
-      <c r="JW41" s="46"/>
-      <c r="JX41" s="43"/>
-      <c r="JY41" s="45"/>
-      <c r="JZ41" s="46"/>
+      <c r="FR41" s="44"/>
+      <c r="FS41" s="45"/>
+      <c r="FT41" s="46"/>
+      <c r="FU41" s="44"/>
+      <c r="FV41" s="45"/>
+      <c r="FW41" s="45"/>
+      <c r="FX41" s="45"/>
+      <c r="FY41" s="44"/>
+      <c r="FZ41" s="45"/>
+      <c r="GA41" s="45"/>
+      <c r="GB41" s="45"/>
+      <c r="GC41" s="45"/>
+      <c r="GD41" s="45"/>
+      <c r="GE41" s="45"/>
+      <c r="GF41" s="45"/>
+      <c r="GG41" s="45"/>
+      <c r="GH41" s="45"/>
+      <c r="GI41" s="45"/>
+      <c r="GJ41" s="45"/>
+      <c r="GK41" s="45"/>
+      <c r="GL41" s="45"/>
+      <c r="GM41" s="45"/>
+      <c r="GN41" s="46"/>
+      <c r="GO41" s="44"/>
+      <c r="GP41" s="45"/>
+      <c r="GQ41" s="45"/>
+      <c r="GR41" s="45"/>
+      <c r="GS41" s="46"/>
+      <c r="GT41" s="47"/>
+      <c r="GU41" s="44"/>
+      <c r="GV41" s="45"/>
+      <c r="GW41" s="45"/>
+      <c r="GX41" s="45"/>
+      <c r="GY41" s="45"/>
+      <c r="GZ41" s="45"/>
+      <c r="HA41" s="45"/>
+      <c r="HB41" s="46"/>
+      <c r="HC41" s="47"/>
+      <c r="HD41" s="44"/>
+      <c r="HE41" s="45"/>
+      <c r="HF41" s="45"/>
+      <c r="HG41" s="45"/>
+      <c r="HH41" s="45"/>
+      <c r="HI41" s="45"/>
+      <c r="HJ41" s="45"/>
+      <c r="HK41" s="45"/>
+      <c r="HL41" s="45"/>
+      <c r="HM41" s="45"/>
+      <c r="HN41" s="45"/>
+      <c r="HO41" s="45"/>
+      <c r="HP41" s="45"/>
+      <c r="HQ41" s="45"/>
+      <c r="HR41" s="45"/>
+      <c r="HS41" s="45"/>
+      <c r="HT41" s="46"/>
+      <c r="HU41" s="47"/>
+      <c r="HV41" s="45"/>
+      <c r="HW41" s="45"/>
+      <c r="HX41" s="46"/>
+      <c r="HY41" s="44"/>
+      <c r="HZ41" s="45"/>
+      <c r="IA41" s="45"/>
+      <c r="IB41" s="45"/>
+      <c r="IC41" s="45"/>
+      <c r="ID41" s="46"/>
+      <c r="IE41" s="44"/>
+      <c r="IF41" s="45"/>
+      <c r="IG41" s="46"/>
+      <c r="IH41" s="47"/>
+      <c r="II41" s="44"/>
+      <c r="IJ41" s="45"/>
+      <c r="IK41" s="45"/>
+      <c r="IL41" s="45"/>
+      <c r="IM41" s="45"/>
+      <c r="IN41" s="45"/>
+      <c r="IO41" s="45"/>
+      <c r="IP41" s="45"/>
+      <c r="IQ41" s="45"/>
+      <c r="IR41" s="46"/>
+      <c r="IS41" s="44"/>
+      <c r="IT41" s="45"/>
+      <c r="IU41" s="45"/>
+      <c r="IV41" s="45"/>
+      <c r="IW41" s="45"/>
+      <c r="IX41" s="46"/>
+      <c r="IY41" s="44"/>
+      <c r="IZ41" s="45"/>
+      <c r="JA41" s="45"/>
+      <c r="JB41" s="45"/>
+      <c r="JC41" s="45"/>
+      <c r="JD41" s="46"/>
+      <c r="JE41" s="44"/>
+      <c r="JF41" s="45"/>
+      <c r="JG41" s="46"/>
+      <c r="JH41" s="47"/>
+      <c r="JI41" s="44"/>
+      <c r="JJ41" s="45"/>
+      <c r="JK41" s="45"/>
+      <c r="JL41" s="45"/>
+      <c r="JM41" s="45"/>
+      <c r="JN41" s="45"/>
+      <c r="JO41" s="45"/>
+      <c r="JP41" s="45"/>
+      <c r="JQ41" s="44"/>
+      <c r="JR41" s="45"/>
+      <c r="JS41" s="45"/>
+      <c r="JT41" s="45"/>
+      <c r="JU41" s="46"/>
+      <c r="JV41" s="47"/>
+      <c r="JW41" s="47"/>
+      <c r="JX41" s="44"/>
+      <c r="JY41" s="46"/>
+      <c r="JZ41" s="47"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="2" t="s">
@@ -23097,7 +23107,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="141.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="48" t="s">
         <v>135</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -23174,11 +23184,11 @@
       <c r="DM43" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="ED43" s="48" t="s">
+      <c r="ED43" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="EE43" s="48"/>
-      <c r="EF43" s="48"/>
+      <c r="EE43" s="49"/>
+      <c r="EF43" s="49"/>
       <c r="EO43" s="3" t="s">
         <v>157</v>
       </c>
@@ -24070,173 +24080,173 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="24"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="F47" s="25" t="n">
+      <c r="F47" s="26" t="n">
         <v>0.001</v>
       </c>
-      <c r="G47" s="26" t="n">
+      <c r="G47" s="27" t="n">
         <v>0.001</v>
       </c>
-      <c r="H47" s="26" t="n">
+      <c r="H47" s="27" t="n">
         <v>0.001</v>
       </c>
-      <c r="I47" s="27" t="n">
+      <c r="I47" s="28" t="n">
         <v>0.001</v>
       </c>
-      <c r="J47" s="25" t="n">
+      <c r="J47" s="26" t="n">
         <v>0.0008</v>
       </c>
-      <c r="K47" s="26" t="n">
+      <c r="K47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="L47" s="26" t="n">
+      <c r="L47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="M47" s="26" t="n">
+      <c r="M47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="N47" s="26" t="n">
+      <c r="N47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="O47" s="26" t="n">
+      <c r="O47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="P47" s="26" t="n">
+      <c r="P47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="Q47" s="26" t="n">
+      <c r="Q47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="R47" s="26" t="n">
+      <c r="R47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="S47" s="26" t="n">
+      <c r="S47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="T47" s="26" t="n">
+      <c r="T47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="U47" s="26" t="n">
+      <c r="U47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="V47" s="26" t="n">
+      <c r="V47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="W47" s="26" t="n">
+      <c r="W47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="X47" s="26" t="n">
+      <c r="X47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="Y47" s="25" t="n">
+      <c r="Y47" s="26" t="n">
         <v>0.0008</v>
       </c>
-      <c r="Z47" s="26" t="n">
+      <c r="Z47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AA47" s="26" t="n">
+      <c r="AA47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AB47" s="26" t="n">
+      <c r="AB47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AC47" s="26" t="n">
+      <c r="AC47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AD47" s="26" t="n">
+      <c r="AD47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AE47" s="26" t="n">
+      <c r="AE47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AF47" s="26" t="n">
+      <c r="AF47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AG47" s="26" t="n">
+      <c r="AG47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AH47" s="26" t="n">
+      <c r="AH47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AI47" s="26" t="n">
+      <c r="AI47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AJ47" s="26" t="n">
+      <c r="AJ47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AK47" s="26" t="n">
+      <c r="AK47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AL47" s="27" t="n">
+      <c r="AL47" s="28" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AM47" s="28" t="n">
+      <c r="AM47" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AN47" s="28" t="n">
+      <c r="AN47" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AO47" s="28" t="n">
+      <c r="AO47" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AP47" s="28" t="n">
+      <c r="AP47" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AQ47" s="28" t="n">
+      <c r="AQ47" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AR47" s="27" t="n">
+      <c r="AR47" s="28" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AS47" s="25" t="n">
+      <c r="AS47" s="26" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AT47" s="28" t="n">
+      <c r="AT47" s="29" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AU47" s="28" t="n">
+      <c r="AU47" s="29" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AV47" s="28" t="n">
+      <c r="AV47" s="29" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AW47" s="28" t="n">
+      <c r="AW47" s="29" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AX47" s="27" t="n">
+      <c r="AX47" s="28" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AY47" s="25" t="n">
+      <c r="AY47" s="26" t="n">
         <v>1.3E-005</v>
       </c>
-      <c r="AZ47" s="26" t="n">
+      <c r="AZ47" s="27" t="n">
         <v>1.3E-005</v>
       </c>
-      <c r="BA47" s="26" t="n">
+      <c r="BA47" s="27" t="n">
         <v>1.3E-005</v>
       </c>
-      <c r="BB47" s="27" t="n">
+      <c r="BB47" s="28" t="n">
         <v>1.3E-005</v>
       </c>
-      <c r="BC47" s="29" t="n">
+      <c r="BC47" s="30" t="n">
         <v>0.0005</v>
       </c>
-      <c r="BD47" s="29" t="n">
+      <c r="BD47" s="30" t="n">
         <v>7E-005</v>
       </c>
-      <c r="BE47" s="29" t="n">
+      <c r="BE47" s="30" t="n">
         <v>1E-005</v>
       </c>
-      <c r="BF47" s="29" t="n">
+      <c r="BF47" s="30" t="n">
         <v>1E-005</v>
       </c>
       <c r="BG47" s="8"/>
@@ -24265,184 +24275,184 @@
       <c r="CD47" s="7"/>
       <c r="CE47" s="7"/>
       <c r="CF47" s="9"/>
-      <c r="CG47" s="25" t="n">
+      <c r="CG47" s="26" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CH47" s="26" t="n">
+      <c r="CH47" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CI47" s="26" t="n">
+      <c r="CI47" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CJ47" s="26" t="n">
+      <c r="CJ47" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CK47" s="26" t="n">
+      <c r="CK47" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CL47" s="26" t="n">
+      <c r="CL47" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CM47" s="26" t="n">
+      <c r="CM47" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CN47" s="26" t="n">
+      <c r="CN47" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CO47" s="26" t="n">
+      <c r="CO47" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CP47" s="26" t="n">
+      <c r="CP47" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CQ47" s="26" t="n">
+      <c r="CQ47" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CR47" s="26" t="n">
+      <c r="CR47" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CS47" s="26" t="n">
+      <c r="CS47" s="27" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CT47" s="27" t="n">
+      <c r="CT47" s="28" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CU47" s="25" t="n">
+      <c r="CU47" s="26" t="n">
         <v>0.003</v>
       </c>
-      <c r="CV47" s="26" t="n">
+      <c r="CV47" s="27" t="n">
         <v>0.003</v>
       </c>
-      <c r="CW47" s="26" t="n">
+      <c r="CW47" s="27" t="n">
         <v>0.003</v>
       </c>
-      <c r="CX47" s="26" t="n">
+      <c r="CX47" s="27" t="n">
         <v>0.003</v>
       </c>
-      <c r="CY47" s="26" t="n">
+      <c r="CY47" s="27" t="n">
         <v>0.003</v>
       </c>
-      <c r="CZ47" s="26" t="n">
+      <c r="CZ47" s="27" t="n">
         <v>0.003</v>
       </c>
-      <c r="DA47" s="25" t="n">
+      <c r="DA47" s="26" t="n">
         <v>4E-007</v>
       </c>
-      <c r="DB47" s="26" t="n">
+      <c r="DB47" s="27" t="n">
         <v>4E-007</v>
       </c>
-      <c r="DC47" s="26" t="n">
+      <c r="DC47" s="27" t="n">
         <v>4E-007</v>
       </c>
-      <c r="DD47" s="27" t="n">
+      <c r="DD47" s="28" t="n">
         <v>4E-007</v>
       </c>
-      <c r="DE47" s="26" t="n">
+      <c r="DE47" s="27" t="n">
         <v>0.00065</v>
       </c>
-      <c r="DF47" s="26" t="n">
+      <c r="DF47" s="27" t="n">
         <v>0.00065</v>
       </c>
-      <c r="DG47" s="26" t="n">
+      <c r="DG47" s="27" t="n">
         <v>0.00065</v>
       </c>
-      <c r="DH47" s="27" t="n">
+      <c r="DH47" s="28" t="n">
         <v>0.00065</v>
       </c>
-      <c r="DI47" s="25" t="n">
+      <c r="DI47" s="26" t="n">
         <v>0.0004</v>
       </c>
-      <c r="DJ47" s="26" t="n">
+      <c r="DJ47" s="27" t="n">
         <v>0.0004</v>
       </c>
-      <c r="DK47" s="26" t="n">
+      <c r="DK47" s="27" t="n">
         <v>0.0004</v>
       </c>
-      <c r="DL47" s="27" t="n">
+      <c r="DL47" s="28" t="n">
         <v>0.0004</v>
       </c>
-      <c r="DM47" s="25" t="n">
+      <c r="DM47" s="26" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DN47" s="26" t="n">
+      <c r="DN47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DO47" s="26" t="n">
+      <c r="DO47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DP47" s="26" t="n">
+      <c r="DP47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DQ47" s="26" t="n">
+      <c r="DQ47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DR47" s="26" t="n">
+      <c r="DR47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DS47" s="26" t="n">
+      <c r="DS47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DT47" s="26" t="n">
+      <c r="DT47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DU47" s="26" t="n">
+      <c r="DU47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DV47" s="26" t="n">
+      <c r="DV47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DW47" s="26" t="n">
+      <c r="DW47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DX47" s="26" t="n">
+      <c r="DX47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DY47" s="26" t="n">
+      <c r="DY47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DZ47" s="26" t="n">
+      <c r="DZ47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="EA47" s="26" t="n">
+      <c r="EA47" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="EB47" s="27" t="n">
+      <c r="EB47" s="28" t="n">
         <v>0.0026</v>
       </c>
-      <c r="EC47" s="29" t="n">
+      <c r="EC47" s="30" t="n">
         <v>0.00013</v>
       </c>
-      <c r="ED47" s="25" t="n">
+      <c r="ED47" s="26" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EE47" s="26" t="n">
+      <c r="EE47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EF47" s="26" t="n">
+      <c r="EF47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EG47" s="26" t="n">
+      <c r="EG47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EH47" s="26" t="n">
+      <c r="EH47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EI47" s="26" t="n">
+      <c r="EI47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EJ47" s="27" t="n">
+      <c r="EJ47" s="28" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EK47" s="25" t="n">
+      <c r="EK47" s="26" t="n">
         <v>0.000133</v>
       </c>
-      <c r="EL47" s="26" t="n">
+      <c r="EL47" s="27" t="n">
         <v>0.000133</v>
       </c>
-      <c r="EM47" s="26" t="n">
+      <c r="EM47" s="27" t="n">
         <v>0.000133</v>
       </c>
-      <c r="EN47" s="27" t="n">
+      <c r="EN47" s="28" t="n">
         <v>0.000133</v>
       </c>
       <c r="EO47" s="8"/>
@@ -24464,113 +24474,113 @@
       <c r="FE47" s="7"/>
       <c r="FF47" s="7"/>
       <c r="FG47" s="9"/>
-      <c r="FH47" s="25" t="n">
+      <c r="FH47" s="26" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FI47" s="26" t="n">
+      <c r="FI47" s="27" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FJ47" s="26" t="n">
+      <c r="FJ47" s="27" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FK47" s="26" t="n">
+      <c r="FK47" s="27" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FL47" s="26" t="n">
+      <c r="FL47" s="27" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FM47" s="26" t="n">
+      <c r="FM47" s="27" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FN47" s="27" t="n">
+      <c r="FN47" s="28" t="n">
         <v>5E-005</v>
       </c>
-      <c r="FO47" s="25" t="n">
+      <c r="FO47" s="26" t="n">
         <v>0.0001</v>
       </c>
-      <c r="FP47" s="27" t="n">
+      <c r="FP47" s="28" t="n">
         <v>0.0001</v>
       </c>
-      <c r="FQ47" s="21"/>
+      <c r="FQ47" s="22"/>
       <c r="FR47" s="8"/>
       <c r="FS47" s="7"/>
       <c r="FT47" s="9"/>
-      <c r="FU47" s="25" t="n">
+      <c r="FU47" s="26" t="n">
         <v>0.0008</v>
       </c>
-      <c r="FV47" s="26" t="n">
+      <c r="FV47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="FW47" s="26" t="n">
+      <c r="FW47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="FX47" s="26" t="n">
+      <c r="FX47" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="FY47" s="25" t="n">
+      <c r="FY47" s="26" t="n">
         <v>0.0005</v>
       </c>
-      <c r="FZ47" s="26" t="n">
+      <c r="FZ47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GA47" s="26" t="n">
+      <c r="GA47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GB47" s="26" t="n">
+      <c r="GB47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GC47" s="26" t="n">
+      <c r="GC47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GD47" s="26" t="n">
+      <c r="GD47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GE47" s="26" t="n">
+      <c r="GE47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GF47" s="26" t="n">
+      <c r="GF47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GG47" s="26" t="n">
+      <c r="GG47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GH47" s="26" t="n">
+      <c r="GH47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GI47" s="26" t="n">
+      <c r="GI47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GJ47" s="26" t="n">
+      <c r="GJ47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GK47" s="26" t="n">
+      <c r="GK47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GL47" s="26" t="n">
+      <c r="GL47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GM47" s="26" t="n">
+      <c r="GM47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GN47" s="27" t="n">
+      <c r="GN47" s="28" t="n">
         <v>0.0005</v>
       </c>
-      <c r="GO47" s="25" t="n">
+      <c r="GO47" s="26" t="n">
         <v>0.00027</v>
       </c>
-      <c r="GP47" s="26" t="n">
+      <c r="GP47" s="27" t="n">
         <v>0.00027</v>
       </c>
-      <c r="GQ47" s="26" t="n">
+      <c r="GQ47" s="27" t="n">
         <v>0.00027</v>
       </c>
-      <c r="GR47" s="26" t="n">
+      <c r="GR47" s="27" t="n">
         <v>0.00027</v>
       </c>
-      <c r="GS47" s="27" t="n">
+      <c r="GS47" s="28" t="n">
         <v>0.00027</v>
       </c>
-      <c r="GT47" s="21"/>
+      <c r="GT47" s="22"/>
       <c r="GU47" s="8"/>
       <c r="GV47" s="7"/>
       <c r="GW47" s="7"/>
@@ -24579,68 +24589,68 @@
       <c r="GZ47" s="7"/>
       <c r="HA47" s="7"/>
       <c r="HB47" s="9"/>
-      <c r="HC47" s="29" t="n">
+      <c r="HC47" s="30" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HD47" s="25" t="n">
+      <c r="HD47" s="26" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HE47" s="26" t="n">
+      <c r="HE47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HF47" s="26" t="n">
+      <c r="HF47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HG47" s="26" t="n">
+      <c r="HG47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HH47" s="26" t="n">
+      <c r="HH47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HI47" s="26" t="n">
+      <c r="HI47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HJ47" s="26" t="n">
+      <c r="HJ47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HK47" s="26" t="n">
+      <c r="HK47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HL47" s="26" t="n">
+      <c r="HL47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HM47" s="26" t="n">
+      <c r="HM47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HN47" s="26" t="n">
+      <c r="HN47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HO47" s="26" t="n">
+      <c r="HO47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HP47" s="26" t="n">
+      <c r="HP47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HQ47" s="26" t="n">
+      <c r="HQ47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HR47" s="26" t="n">
+      <c r="HR47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HS47" s="26" t="n">
+      <c r="HS47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HT47" s="27" t="n">
+      <c r="HT47" s="28" t="n">
         <v>0.0002</v>
       </c>
-      <c r="HU47" s="21"/>
-      <c r="HV47" s="26" t="n">
+      <c r="HU47" s="22"/>
+      <c r="HV47" s="27" t="n">
         <v>6.65E-006</v>
       </c>
-      <c r="HW47" s="26" t="n">
+      <c r="HW47" s="27" t="n">
         <v>6.65E-006</v>
       </c>
-      <c r="HX47" s="27" t="n">
+      <c r="HX47" s="28" t="n">
         <v>6.65E-006</v>
       </c>
       <c r="HY47" s="8"/>
@@ -24649,151 +24659,151 @@
       <c r="IB47" s="7"/>
       <c r="IC47" s="7"/>
       <c r="ID47" s="9"/>
-      <c r="IE47" s="25" t="n">
+      <c r="IE47" s="26" t="n">
         <v>0.0012</v>
       </c>
-      <c r="IF47" s="26" t="n">
+      <c r="IF47" s="27" t="n">
         <v>0.0012</v>
       </c>
-      <c r="IG47" s="27" t="n">
+      <c r="IG47" s="28" t="n">
         <v>0.0012</v>
       </c>
-      <c r="IH47" s="21"/>
-      <c r="II47" s="25" t="n">
+      <c r="IH47" s="22"/>
+      <c r="II47" s="26" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IJ47" s="26" t="n">
+      <c r="IJ47" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IK47" s="26" t="n">
+      <c r="IK47" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IL47" s="26" t="n">
+      <c r="IL47" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IM47" s="26" t="n">
+      <c r="IM47" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IN47" s="26" t="n">
+      <c r="IN47" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IO47" s="26" t="n">
+      <c r="IO47" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IP47" s="26" t="n">
+      <c r="IP47" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IQ47" s="26" t="n">
+      <c r="IQ47" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IR47" s="27" t="n">
+      <c r="IR47" s="28" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IS47" s="25" t="n">
+      <c r="IS47" s="26" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IT47" s="26" t="n">
+      <c r="IT47" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IU47" s="26" t="n">
+      <c r="IU47" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IV47" s="26" t="n">
+      <c r="IV47" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IW47" s="26" t="n">
+      <c r="IW47" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IX47" s="27" t="n">
+      <c r="IX47" s="28" t="n">
         <v>0.0001</v>
       </c>
-      <c r="IY47" s="25" t="n">
+      <c r="IY47" s="26" t="n">
         <v>0.0002</v>
       </c>
-      <c r="IZ47" s="26" t="n">
+      <c r="IZ47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="JA47" s="26" t="n">
+      <c r="JA47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="JB47" s="26" t="n">
+      <c r="JB47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="JC47" s="26" t="n">
+      <c r="JC47" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="JD47" s="27" t="n">
+      <c r="JD47" s="28" t="n">
         <v>0.0002</v>
       </c>
       <c r="JE47" s="8"/>
       <c r="JF47" s="7"/>
       <c r="JG47" s="9"/>
-      <c r="JH47" s="29" t="n">
+      <c r="JH47" s="30" t="n">
         <v>0.00027</v>
       </c>
-      <c r="JI47" s="25" t="n">
+      <c r="JI47" s="26" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JJ47" s="26" t="n">
+      <c r="JJ47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JK47" s="26" t="n">
+      <c r="JK47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JL47" s="26" t="n">
+      <c r="JL47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JM47" s="26" t="n">
+      <c r="JM47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JN47" s="26" t="n">
+      <c r="JN47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JO47" s="26" t="n">
+      <c r="JO47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JP47" s="26" t="n">
+      <c r="JP47" s="27" t="n">
         <v>0.0005</v>
       </c>
-      <c r="JQ47" s="25" t="n">
+      <c r="JQ47" s="26" t="n">
         <v>0.001</v>
       </c>
-      <c r="JR47" s="26" t="n">
+      <c r="JR47" s="27" t="n">
         <v>0.001</v>
       </c>
-      <c r="JS47" s="26" t="n">
+      <c r="JS47" s="27" t="n">
         <v>0.001</v>
       </c>
-      <c r="JT47" s="26" t="n">
+      <c r="JT47" s="27" t="n">
         <v>0.001</v>
       </c>
-      <c r="JU47" s="27" t="n">
+      <c r="JU47" s="28" t="n">
         <v>0.001</v>
       </c>
-      <c r="JV47" s="29" t="n">
+      <c r="JV47" s="30" t="n">
         <v>0.0001</v>
       </c>
-      <c r="JW47" s="29" t="n">
+      <c r="JW47" s="30" t="n">
         <v>0.0004</v>
       </c>
-      <c r="JX47" s="25" t="n">
+      <c r="JX47" s="26" t="n">
         <v>0.0009</v>
       </c>
-      <c r="JY47" s="27" t="n">
+      <c r="JY47" s="28" t="n">
         <v>0.0009</v>
       </c>
-      <c r="JZ47" s="29" t="n">
+      <c r="JZ47" s="30" t="n">
         <v>0.00015</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="24"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="2" t="n">
         <v>-10</v>
       </c>
@@ -24944,16 +24954,16 @@
       <c r="BB48" s="9" t="n">
         <v>0.65</v>
       </c>
-      <c r="BC48" s="29" t="n">
+      <c r="BC48" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="BD48" s="21" t="n">
+      <c r="BD48" s="22" t="n">
         <v>0.5</v>
       </c>
-      <c r="BE48" s="21" t="n">
+      <c r="BE48" s="22" t="n">
         <v>1.02</v>
       </c>
-      <c r="BF48" s="21" t="n">
+      <c r="BF48" s="22" t="n">
         <v>0.55</v>
       </c>
       <c r="BG48" s="8" t="n">
@@ -25178,7 +25188,7 @@
       <c r="EB48" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="EC48" s="21" t="n">
+      <c r="EC48" s="22" t="n">
         <v>0.57</v>
       </c>
       <c r="ED48" s="8" t="n">
@@ -25298,7 +25308,7 @@
       <c r="FP48" s="9" t="n">
         <v>0.55</v>
       </c>
-      <c r="FQ48" s="21"/>
+      <c r="FQ48" s="22"/>
       <c r="FR48" s="8" t="n">
         <v>0.4</v>
       </c>
@@ -25383,7 +25393,7 @@
       <c r="GS48" s="9" t="n">
         <v>1.33</v>
       </c>
-      <c r="GT48" s="21"/>
+      <c r="GT48" s="22"/>
       <c r="GU48" s="8" t="n">
         <v>5</v>
       </c>
@@ -25408,7 +25418,7 @@
       <c r="HB48" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="HC48" s="21" t="n">
+      <c r="HC48" s="22" t="n">
         <v>0.4</v>
       </c>
       <c r="HD48" s="8" t="n">
@@ -25462,7 +25472,7 @@
       <c r="HT48" s="9" t="n">
         <v>0.3</v>
       </c>
-      <c r="HU48" s="21" t="n">
+      <c r="HU48" s="22" t="n">
         <v>0.1</v>
       </c>
       <c r="HV48" s="7"/>
@@ -25495,7 +25505,7 @@
       <c r="IG48" s="9" t="n">
         <v>0.133</v>
       </c>
-      <c r="IH48" s="21" t="n">
+      <c r="IH48" s="22" t="n">
         <v>0.25</v>
       </c>
       <c r="II48" s="8" t="n">
@@ -25573,7 +25583,7 @@
       <c r="JG48" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="JH48" s="21" t="n">
+      <c r="JH48" s="22" t="n">
         <v>0.8</v>
       </c>
       <c r="JI48" s="8" t="n">
@@ -25615,10 +25625,10 @@
       <c r="JU48" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="JV48" s="29" t="n">
+      <c r="JV48" s="30" t="n">
         <v>0.22</v>
       </c>
-      <c r="JW48" s="21" t="n">
+      <c r="JW48" s="22" t="n">
         <v>0.227</v>
       </c>
       <c r="JX48" s="8" t="n">
@@ -25627,18 +25637,18 @@
       <c r="JY48" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="JZ48" s="21" t="n">
+      <c r="JZ48" s="22" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="41" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D49" s="23"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="2" t="n">
         <v>-10</v>
       </c>
@@ -25789,16 +25799,16 @@
       <c r="BB49" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="BC49" s="21" t="n">
+      <c r="BC49" s="22" t="n">
         <v>24.5</v>
       </c>
-      <c r="BD49" s="21" t="n">
+      <c r="BD49" s="22" t="n">
         <v>21.6</v>
       </c>
-      <c r="BE49" s="21" t="n">
+      <c r="BE49" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="BF49" s="21" t="n">
+      <c r="BF49" s="22" t="n">
         <v>26</v>
       </c>
       <c r="BG49" s="8" t="n">
@@ -26023,7 +26033,7 @@
       <c r="EB49" s="9" t="n">
         <v>2.3</v>
       </c>
-      <c r="EC49" s="21" t="n">
+      <c r="EC49" s="22" t="n">
         <v>19</v>
       </c>
       <c r="ED49" s="8" t="n">
@@ -26143,7 +26153,7 @@
       <c r="FP49" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="FQ49" s="21" t="n">
+      <c r="FQ49" s="22" t="n">
         <v>35</v>
       </c>
       <c r="FR49" s="8" t="n">
@@ -26230,7 +26240,7 @@
       <c r="GS49" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="GT49" s="21" t="n">
+      <c r="GT49" s="22" t="n">
         <v>24.3</v>
       </c>
       <c r="GU49" s="8"/>
@@ -26253,7 +26263,7 @@
       <c r="HB49" s="9" t="n">
         <v>24.2</v>
       </c>
-      <c r="HC49" s="21" t="n">
+      <c r="HC49" s="22" t="n">
         <v>22.55</v>
       </c>
       <c r="HD49" s="8" t="n">
@@ -26307,7 +26317,7 @@
       <c r="HT49" s="9" t="n">
         <v>32.3</v>
       </c>
-      <c r="HU49" s="21" t="n">
+      <c r="HU49" s="22" t="n">
         <v>27.9</v>
       </c>
       <c r="HV49" s="7" t="n">
@@ -26328,7 +26338,7 @@
       <c r="IE49" s="8"/>
       <c r="IF49" s="7"/>
       <c r="IG49" s="9"/>
-      <c r="IH49" s="21" t="n">
+      <c r="IH49" s="22" t="n">
         <v>35</v>
       </c>
       <c r="II49" s="8" t="n">
@@ -26406,7 +26416,7 @@
       <c r="JG49" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="JH49" s="21" t="n">
+      <c r="JH49" s="22" t="n">
         <v>21.6</v>
       </c>
       <c r="JI49" s="8" t="n">
@@ -26448,10 +26458,10 @@
       <c r="JU49" s="9" t="n">
         <v>6.8</v>
       </c>
-      <c r="JV49" s="21" t="n">
+      <c r="JV49" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="JW49" s="21" t="n">
+      <c r="JW49" s="22" t="n">
         <v>20</v>
       </c>
       <c r="JX49" s="8" t="n">
@@ -26460,7 +26470,7 @@
       <c r="JY49" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="JZ49" s="21" t="n">
+      <c r="JZ49" s="22" t="n">
         <v>22.3</v>
       </c>
     </row>
@@ -26567,7 +26577,7 @@
       <c r="AG51" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AH51" s="49" t="n">
+      <c r="AH51" s="50" t="n">
         <v>2</v>
       </c>
       <c r="AI51" s="13" t="n">
@@ -26902,173 +26912,173 @@
       </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="23"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="F52" s="25" t="n">
+      <c r="F52" s="26" t="n">
         <v>0.001</v>
       </c>
-      <c r="G52" s="26" t="n">
+      <c r="G52" s="27" t="n">
         <v>0.001</v>
       </c>
-      <c r="H52" s="26" t="n">
+      <c r="H52" s="27" t="n">
         <v>0.001</v>
       </c>
-      <c r="I52" s="27" t="n">
+      <c r="I52" s="28" t="n">
         <v>0.001</v>
       </c>
-      <c r="J52" s="25" t="n">
+      <c r="J52" s="26" t="n">
         <v>0.0008</v>
       </c>
-      <c r="K52" s="26" t="n">
+      <c r="K52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="L52" s="26" t="n">
+      <c r="L52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="M52" s="26" t="n">
+      <c r="M52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="N52" s="26" t="n">
+      <c r="N52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="O52" s="26" t="n">
+      <c r="O52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="P52" s="26" t="n">
+      <c r="P52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="Q52" s="26" t="n">
+      <c r="Q52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="R52" s="26" t="n">
+      <c r="R52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="S52" s="26" t="n">
+      <c r="S52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="T52" s="26" t="n">
+      <c r="T52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="U52" s="26" t="n">
+      <c r="U52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="V52" s="26" t="n">
+      <c r="V52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="W52" s="26" t="n">
+      <c r="W52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="X52" s="26" t="n">
+      <c r="X52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="Y52" s="25" t="n">
+      <c r="Y52" s="26" t="n">
         <v>0.0008</v>
       </c>
-      <c r="Z52" s="26" t="n">
+      <c r="Z52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AA52" s="26" t="n">
+      <c r="AA52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AB52" s="26" t="n">
+      <c r="AB52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AC52" s="26" t="n">
+      <c r="AC52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AD52" s="26" t="n">
+      <c r="AD52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AE52" s="26" t="n">
+      <c r="AE52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AF52" s="26" t="n">
+      <c r="AF52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AG52" s="26" t="n">
+      <c r="AG52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AH52" s="26" t="n">
+      <c r="AH52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AI52" s="26" t="n">
+      <c r="AI52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AJ52" s="26" t="n">
+      <c r="AJ52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AK52" s="26" t="n">
+      <c r="AK52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AL52" s="27" t="n">
+      <c r="AL52" s="28" t="n">
         <v>0.0008</v>
       </c>
-      <c r="AM52" s="28" t="n">
+      <c r="AM52" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AN52" s="28" t="n">
+      <c r="AN52" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AO52" s="28" t="n">
+      <c r="AO52" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AP52" s="28" t="n">
+      <c r="AP52" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AQ52" s="28" t="n">
+      <c r="AQ52" s="29" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AR52" s="27" t="n">
+      <c r="AR52" s="28" t="n">
         <v>2E-006</v>
       </c>
-      <c r="AS52" s="50" t="n">
+      <c r="AS52" s="51" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AT52" s="51" t="n">
+      <c r="AT52" s="52" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AU52" s="51" t="n">
+      <c r="AU52" s="52" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AV52" s="51" t="n">
+      <c r="AV52" s="52" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AW52" s="51" t="n">
+      <c r="AW52" s="52" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AX52" s="52" t="n">
+      <c r="AX52" s="53" t="n">
         <v>0.00026</v>
       </c>
-      <c r="AY52" s="50" t="n">
+      <c r="AY52" s="51" t="n">
         <v>1.3E-005</v>
       </c>
-      <c r="AZ52" s="53" t="n">
+      <c r="AZ52" s="54" t="n">
         <v>1.3E-005</v>
       </c>
-      <c r="BA52" s="53" t="n">
+      <c r="BA52" s="54" t="n">
         <v>1.3E-005</v>
       </c>
-      <c r="BB52" s="52" t="n">
+      <c r="BB52" s="53" t="n">
         <v>1.3E-005</v>
       </c>
-      <c r="BC52" s="54" t="n">
+      <c r="BC52" s="55" t="n">
         <v>0.0005</v>
       </c>
-      <c r="BD52" s="54" t="n">
+      <c r="BD52" s="55" t="n">
         <v>7E-005</v>
       </c>
-      <c r="BE52" s="54" t="n">
+      <c r="BE52" s="55" t="n">
         <v>1E-005</v>
       </c>
-      <c r="BF52" s="54" t="n">
+      <c r="BF52" s="55" t="n">
         <v>1E-005</v>
       </c>
       <c r="BG52" s="8"/>
@@ -27089,203 +27099,203 @@
       <c r="BV52" s="7"/>
       <c r="BW52" s="7"/>
       <c r="BX52" s="7"/>
-      <c r="BY52" s="55"/>
-      <c r="BZ52" s="56"/>
-      <c r="CA52" s="56"/>
-      <c r="CB52" s="56"/>
-      <c r="CC52" s="56"/>
-      <c r="CD52" s="56"/>
-      <c r="CE52" s="56"/>
-      <c r="CF52" s="57"/>
-      <c r="CG52" s="50" t="n">
+      <c r="BY52" s="56"/>
+      <c r="BZ52" s="57"/>
+      <c r="CA52" s="57"/>
+      <c r="CB52" s="57"/>
+      <c r="CC52" s="57"/>
+      <c r="CD52" s="57"/>
+      <c r="CE52" s="57"/>
+      <c r="CF52" s="58"/>
+      <c r="CG52" s="51" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CH52" s="53" t="n">
+      <c r="CH52" s="54" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CI52" s="53" t="n">
+      <c r="CI52" s="54" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CJ52" s="53" t="n">
+      <c r="CJ52" s="54" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CK52" s="53" t="n">
+      <c r="CK52" s="54" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CL52" s="53" t="n">
+      <c r="CL52" s="54" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CM52" s="53" t="n">
+      <c r="CM52" s="54" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CN52" s="53" t="n">
+      <c r="CN52" s="54" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CO52" s="53" t="n">
+      <c r="CO52" s="54" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CP52" s="53" t="n">
+      <c r="CP52" s="54" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CQ52" s="53" t="n">
+      <c r="CQ52" s="54" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CR52" s="53" t="n">
+      <c r="CR52" s="54" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CS52" s="53" t="n">
+      <c r="CS52" s="54" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CT52" s="52" t="n">
+      <c r="CT52" s="53" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="CU52" s="50" t="n">
+      <c r="CU52" s="51" t="n">
         <v>0.003</v>
       </c>
-      <c r="CV52" s="53" t="n">
+      <c r="CV52" s="54" t="n">
         <v>0.003</v>
       </c>
-      <c r="CW52" s="53" t="n">
+      <c r="CW52" s="54" t="n">
         <v>0.003</v>
       </c>
-      <c r="CX52" s="53" t="n">
+      <c r="CX52" s="54" t="n">
         <v>0.003</v>
       </c>
-      <c r="CY52" s="53" t="n">
+      <c r="CY52" s="54" t="n">
         <v>0.003</v>
       </c>
-      <c r="CZ52" s="53" t="n">
+      <c r="CZ52" s="54" t="n">
         <v>0.003</v>
       </c>
-      <c r="DA52" s="50" t="n">
+      <c r="DA52" s="51" t="n">
         <v>4E-007</v>
       </c>
-      <c r="DB52" s="53" t="n">
+      <c r="DB52" s="54" t="n">
         <v>4E-007</v>
       </c>
-      <c r="DC52" s="53" t="n">
+      <c r="DC52" s="54" t="n">
         <v>4E-007</v>
       </c>
-      <c r="DD52" s="52" t="n">
+      <c r="DD52" s="53" t="n">
         <v>4E-007</v>
       </c>
-      <c r="DE52" s="26" t="n">
+      <c r="DE52" s="27" t="n">
         <v>0.00065</v>
       </c>
-      <c r="DF52" s="26" t="n">
+      <c r="DF52" s="27" t="n">
         <v>0.00065</v>
       </c>
-      <c r="DG52" s="26" t="n">
+      <c r="DG52" s="27" t="n">
         <v>0.00065</v>
       </c>
-      <c r="DH52" s="27" t="n">
+      <c r="DH52" s="28" t="n">
         <v>0.00065</v>
       </c>
-      <c r="DI52" s="50" t="n">
+      <c r="DI52" s="51" t="n">
         <v>0.0004</v>
       </c>
-      <c r="DJ52" s="53" t="n">
+      <c r="DJ52" s="54" t="n">
         <v>0.0004</v>
       </c>
-      <c r="DK52" s="53" t="n">
+      <c r="DK52" s="54" t="n">
         <v>0.0004</v>
       </c>
-      <c r="DL52" s="52" t="n">
+      <c r="DL52" s="53" t="n">
         <v>0.0004</v>
       </c>
-      <c r="DM52" s="50" t="n">
+      <c r="DM52" s="51" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DN52" s="53" t="n">
+      <c r="DN52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DO52" s="53" t="n">
+      <c r="DO52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DP52" s="53" t="n">
+      <c r="DP52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DQ52" s="53" t="n">
+      <c r="DQ52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DR52" s="53" t="n">
+      <c r="DR52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DS52" s="53" t="n">
+      <c r="DS52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DT52" s="53" t="n">
+      <c r="DT52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DU52" s="53" t="n">
+      <c r="DU52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DV52" s="53" t="n">
+      <c r="DV52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DW52" s="53" t="n">
+      <c r="DW52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DX52" s="53" t="n">
+      <c r="DX52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DY52" s="53" t="n">
+      <c r="DY52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="DZ52" s="53" t="n">
+      <c r="DZ52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="EA52" s="53" t="n">
+      <c r="EA52" s="54" t="n">
         <v>0.0026</v>
       </c>
-      <c r="EB52" s="52" t="n">
+      <c r="EB52" s="53" t="n">
         <v>0.0026</v>
       </c>
-      <c r="EC52" s="54" t="n">
+      <c r="EC52" s="55" t="n">
         <v>0.00013</v>
       </c>
-      <c r="ED52" s="25" t="n">
+      <c r="ED52" s="26" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EE52" s="26" t="n">
+      <c r="EE52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EF52" s="26" t="n">
+      <c r="EF52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EG52" s="26" t="n">
+      <c r="EG52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EH52" s="26" t="n">
+      <c r="EH52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EI52" s="26" t="n">
+      <c r="EI52" s="27" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EJ52" s="27" t="n">
+      <c r="EJ52" s="28" t="n">
         <v>0.0008</v>
       </c>
-      <c r="EK52" s="25" t="n">
+      <c r="EK52" s="26" t="n">
         <v>0.000133</v>
       </c>
-      <c r="EL52" s="26" t="n">
+      <c r="EL52" s="27" t="n">
         <v>0.000133</v>
       </c>
-      <c r="EM52" s="26" t="n">
+      <c r="EM52" s="27" t="n">
         <v>0.000133</v>
       </c>
-      <c r="EN52" s="27" t="n">
+      <c r="EN52" s="28" t="n">
         <v>0.000133</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D53" s="23"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="2" t="n">
         <v>-10</v>
       </c>
@@ -27406,7 +27416,7 @@
       <c r="AR53" s="9" t="n">
         <v>0.8</v>
       </c>
-      <c r="AS53" s="56" t="n">
+      <c r="AS53" s="57" t="n">
         <v>0.267</v>
       </c>
       <c r="AT53" s="1" t="n">
@@ -27421,31 +27431,31 @@
       <c r="AW53" s="1" t="n">
         <v>0.28</v>
       </c>
-      <c r="AX53" s="57" t="n">
+      <c r="AX53" s="58" t="n">
         <v>0.307</v>
       </c>
-      <c r="AY53" s="55" t="n">
+      <c r="AY53" s="56" t="n">
         <v>0.13</v>
       </c>
-      <c r="AZ53" s="56" t="n">
+      <c r="AZ53" s="57" t="n">
         <v>0.26</v>
       </c>
-      <c r="BA53" s="56" t="n">
+      <c r="BA53" s="57" t="n">
         <v>0.39</v>
       </c>
-      <c r="BB53" s="57" t="n">
+      <c r="BB53" s="58" t="n">
         <v>0.65</v>
       </c>
-      <c r="BC53" s="54" t="n">
+      <c r="BC53" s="55" t="n">
         <v>0.4</v>
       </c>
-      <c r="BD53" s="58" t="n">
+      <c r="BD53" s="59" t="n">
         <v>0.5</v>
       </c>
-      <c r="BE53" s="58" t="n">
+      <c r="BE53" s="59" t="n">
         <v>1.02</v>
       </c>
-      <c r="BF53" s="58" t="n">
+      <c r="BF53" s="59" t="n">
         <v>0.55</v>
       </c>
       <c r="BG53" s="8" t="n">
@@ -27502,100 +27512,100 @@
       <c r="BX53" s="7" t="n">
         <v>0.55</v>
       </c>
-      <c r="BY53" s="55" t="n">
+      <c r="BY53" s="56" t="n">
         <v>0.8</v>
       </c>
-      <c r="BZ53" s="56" t="n">
+      <c r="BZ53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CA53" s="56" t="n">
+      <c r="CA53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CB53" s="56" t="n">
+      <c r="CB53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CC53" s="56" t="n">
+      <c r="CC53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CD53" s="56" t="n">
+      <c r="CD53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CE53" s="56" t="n">
+      <c r="CE53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CF53" s="57" t="n">
+      <c r="CF53" s="58" t="n">
         <v>0.8</v>
       </c>
-      <c r="CG53" s="55" t="n">
+      <c r="CG53" s="56" t="n">
         <v>0.8</v>
       </c>
-      <c r="CH53" s="56" t="n">
+      <c r="CH53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CI53" s="56" t="n">
+      <c r="CI53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CJ53" s="56" t="n">
+      <c r="CJ53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CK53" s="56" t="n">
+      <c r="CK53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CL53" s="56" t="n">
+      <c r="CL53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CM53" s="56" t="n">
+      <c r="CM53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CN53" s="56" t="n">
+      <c r="CN53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CO53" s="56" t="n">
+      <c r="CO53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CP53" s="56" t="n">
+      <c r="CP53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CQ53" s="56" t="n">
+      <c r="CQ53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CR53" s="56" t="n">
+      <c r="CR53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CS53" s="56" t="n">
+      <c r="CS53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CT53" s="57" t="n">
+      <c r="CT53" s="58" t="n">
         <v>0.8</v>
       </c>
-      <c r="CU53" s="55" t="n">
+      <c r="CU53" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="CV53" s="56" t="n">
+      <c r="CV53" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="CW53" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX53" s="56" t="n">
+      <c r="CW53" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX53" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="CY53" s="56" t="n">
+      <c r="CY53" s="57" t="n">
         <v>0.6</v>
       </c>
-      <c r="CZ53" s="57" t="n">
+      <c r="CZ53" s="58" t="n">
         <v>0.2</v>
       </c>
-      <c r="DA53" s="55" t="n">
+      <c r="DA53" s="56" t="n">
         <v>2.67</v>
       </c>
-      <c r="DB53" s="56" t="n">
+      <c r="DB53" s="57" t="n">
         <v>2.67</v>
       </c>
-      <c r="DC53" s="56" t="n">
+      <c r="DC53" s="57" t="n">
         <v>2.67</v>
       </c>
-      <c r="DD53" s="57" t="n">
+      <c r="DD53" s="58" t="n">
         <v>2.67</v>
       </c>
       <c r="DE53" s="8" t="n">
@@ -27610,67 +27620,67 @@
       <c r="DH53" s="9" t="n">
         <v>0.75</v>
       </c>
-      <c r="DI53" s="55" t="n">
+      <c r="DI53" s="56" t="n">
         <v>0.67</v>
       </c>
-      <c r="DJ53" s="56" t="n">
+      <c r="DJ53" s="57" t="n">
         <v>0.67</v>
       </c>
-      <c r="DK53" s="56" t="n">
+      <c r="DK53" s="57" t="n">
         <v>0.67</v>
       </c>
-      <c r="DL53" s="57" t="n">
+      <c r="DL53" s="58" t="n">
         <v>0.67</v>
       </c>
-      <c r="DM53" s="55" t="n">
+      <c r="DM53" s="56" t="n">
         <v>0.7</v>
       </c>
-      <c r="DN53" s="56" t="n">
+      <c r="DN53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="DO53" s="56" t="n">
+      <c r="DO53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="DP53" s="56" t="n">
+      <c r="DP53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="DQ53" s="56" t="n">
+      <c r="DQ53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="DR53" s="56" t="n">
+      <c r="DR53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="DS53" s="56" t="n">
+      <c r="DS53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="DT53" s="56" t="n">
+      <c r="DT53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="DU53" s="56" t="n">
+      <c r="DU53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="DV53" s="56" t="n">
+      <c r="DV53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="DW53" s="56" t="n">
+      <c r="DW53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="DX53" s="56" t="n">
+      <c r="DX53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="DY53" s="56" t="n">
+      <c r="DY53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="DZ53" s="56" t="n">
+      <c r="DZ53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="EA53" s="56" t="n">
+      <c r="EA53" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="EB53" s="57" t="n">
+      <c r="EB53" s="58" t="n">
         <v>0.7</v>
       </c>
-      <c r="EC53" s="58" t="n">
+      <c r="EC53" s="59" t="n">
         <v>0.57</v>
       </c>
       <c r="ED53" s="8" t="n">
@@ -27707,14 +27717,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="54" s="59" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="40" t="s">
+    <row r="54" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="41" t="s">
         <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="23"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="2" t="n">
         <v>-10</v>
       </c>
@@ -27835,7 +27845,7 @@
       <c r="AR54" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="AS54" s="55" t="n">
+      <c r="AS54" s="56" t="n">
         <v>5</v>
       </c>
       <c r="AT54" s="1" t="n">
@@ -27850,31 +27860,31 @@
       <c r="AW54" s="1" t="n">
         <v>27.5</v>
       </c>
-      <c r="AX54" s="57" t="n">
+      <c r="AX54" s="58" t="n">
         <v>12.5</v>
       </c>
-      <c r="AY54" s="55" t="n">
+      <c r="AY54" s="56" t="n">
         <v>26</v>
       </c>
-      <c r="AZ54" s="56" t="n">
+      <c r="AZ54" s="57" t="n">
         <v>23</v>
       </c>
-      <c r="BA54" s="56" t="n">
+      <c r="BA54" s="57" t="n">
         <v>19</v>
       </c>
-      <c r="BB54" s="57" t="n">
+      <c r="BB54" s="58" t="n">
         <v>14</v>
       </c>
-      <c r="BC54" s="58" t="n">
+      <c r="BC54" s="59" t="n">
         <v>24.5</v>
       </c>
-      <c r="BD54" s="58" t="n">
+      <c r="BD54" s="59" t="n">
         <v>21.6</v>
       </c>
-      <c r="BE54" s="58" t="n">
+      <c r="BE54" s="59" t="n">
         <v>32</v>
       </c>
-      <c r="BF54" s="58" t="n">
+      <c r="BF54" s="59" t="n">
         <v>26</v>
       </c>
       <c r="BG54" s="8" t="n">
@@ -27931,100 +27941,100 @@
       <c r="BX54" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="BY54" s="55" t="n">
+      <c r="BY54" s="56" t="n">
         <v>19.4</v>
       </c>
-      <c r="BZ54" s="56" t="n">
+      <c r="BZ54" s="57" t="n">
         <v>15.3</v>
       </c>
-      <c r="CA54" s="56" t="n">
+      <c r="CA54" s="57" t="n">
         <v>17</v>
       </c>
-      <c r="CB54" s="56" t="n">
+      <c r="CB54" s="57" t="n">
         <v>21</v>
       </c>
-      <c r="CC54" s="56" t="n">
+      <c r="CC54" s="57" t="n">
         <v>21.4</v>
       </c>
-      <c r="CD54" s="56" t="n">
+      <c r="CD54" s="57" t="n">
         <v>18</v>
       </c>
-      <c r="CE54" s="56" t="n">
+      <c r="CE54" s="57" t="n">
         <v>19.9</v>
       </c>
-      <c r="CF54" s="57" t="n">
+      <c r="CF54" s="58" t="n">
         <v>22.4</v>
       </c>
-      <c r="CG54" s="55" t="n">
+      <c r="CG54" s="56" t="n">
         <v>5.4</v>
       </c>
-      <c r="CH54" s="56" t="n">
+      <c r="CH54" s="57" t="n">
         <v>6.4</v>
       </c>
-      <c r="CI54" s="56" t="n">
+      <c r="CI54" s="57" t="n">
         <v>19.6</v>
       </c>
-      <c r="CJ54" s="56" t="n">
+      <c r="CJ54" s="57" t="n">
         <v>19.6</v>
       </c>
-      <c r="CK54" s="56" t="n">
+      <c r="CK54" s="57" t="n">
         <v>25.5</v>
       </c>
-      <c r="CL54" s="56" t="n">
+      <c r="CL54" s="57" t="n">
         <v>22.5</v>
       </c>
-      <c r="CM54" s="56" t="n">
+      <c r="CM54" s="57" t="n">
         <v>32.4</v>
       </c>
-      <c r="CN54" s="56" t="n">
+      <c r="CN54" s="57" t="n">
         <v>31.4</v>
       </c>
-      <c r="CO54" s="56" t="n">
+      <c r="CO54" s="57" t="n">
         <v>34.3</v>
       </c>
-      <c r="CP54" s="56" t="n">
+      <c r="CP54" s="57" t="n">
         <v>28.4</v>
       </c>
-      <c r="CQ54" s="56" t="n">
+      <c r="CQ54" s="57" t="n">
         <v>23.5</v>
       </c>
-      <c r="CR54" s="56" t="n">
+      <c r="CR54" s="57" t="n">
         <v>23.5</v>
       </c>
-      <c r="CS54" s="56" t="n">
+      <c r="CS54" s="57" t="n">
         <v>27.5</v>
       </c>
-      <c r="CT54" s="57" t="n">
+      <c r="CT54" s="58" t="n">
         <v>23.5</v>
       </c>
-      <c r="CU54" s="55" t="n">
+      <c r="CU54" s="56" t="n">
         <v>26.5</v>
       </c>
-      <c r="CV54" s="56" t="n">
+      <c r="CV54" s="57" t="n">
         <v>32.4</v>
       </c>
-      <c r="CW54" s="56" t="n">
+      <c r="CW54" s="57" t="n">
         <v>47.1</v>
       </c>
-      <c r="CX54" s="56" t="n">
+      <c r="CX54" s="57" t="n">
         <v>46.1</v>
       </c>
-      <c r="CY54" s="56" t="n">
+      <c r="CY54" s="57" t="n">
         <v>49</v>
       </c>
-      <c r="CZ54" s="57" t="n">
+      <c r="CZ54" s="58" t="n">
         <v>46.1</v>
       </c>
-      <c r="DA54" s="55" t="n">
+      <c r="DA54" s="56" t="n">
         <v>30</v>
       </c>
-      <c r="DB54" s="56" t="n">
+      <c r="DB54" s="57" t="n">
         <v>24</v>
       </c>
-      <c r="DC54" s="56" t="n">
+      <c r="DC54" s="57" t="n">
         <v>21</v>
       </c>
-      <c r="DD54" s="57" t="n">
+      <c r="DD54" s="58" t="n">
         <v>20</v>
       </c>
       <c r="DE54" s="8" t="n">
@@ -28039,67 +28049,67 @@
       <c r="DH54" s="9" t="n">
         <v>44.8</v>
       </c>
-      <c r="DI54" s="55" t="n">
+      <c r="DI54" s="56" t="n">
         <v>20</v>
       </c>
-      <c r="DJ54" s="56" t="n">
+      <c r="DJ54" s="57" t="n">
         <v>21</v>
       </c>
-      <c r="DK54" s="56" t="n">
+      <c r="DK54" s="57" t="n">
         <v>26</v>
       </c>
-      <c r="DL54" s="57" t="n">
+      <c r="DL54" s="58" t="n">
         <v>32</v>
       </c>
-      <c r="DM54" s="55" t="n">
+      <c r="DM54" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="DN54" s="56" t="n">
+      <c r="DN54" s="57" t="n">
         <v>2.06</v>
       </c>
-      <c r="DO54" s="56" t="n">
+      <c r="DO54" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="DP54" s="56" t="n">
+      <c r="DP54" s="57" t="n">
         <v>2.03</v>
       </c>
-      <c r="DQ54" s="56" t="n">
+      <c r="DQ54" s="57" t="n">
         <v>3.73</v>
       </c>
-      <c r="DR54" s="56" t="n">
+      <c r="DR54" s="57" t="n">
         <v>2.8</v>
       </c>
-      <c r="DS54" s="56" t="n">
+      <c r="DS54" s="57" t="n">
         <v>2.5</v>
       </c>
-      <c r="DT54" s="56" t="n">
+      <c r="DT54" s="57" t="n">
         <v>5.8</v>
       </c>
-      <c r="DU54" s="56" t="n">
+      <c r="DU54" s="57" t="n">
         <v>2.9</v>
       </c>
-      <c r="DV54" s="56" t="n">
+      <c r="DV54" s="57" t="n">
         <v>1.96</v>
       </c>
-      <c r="DW54" s="56" t="n">
+      <c r="DW54" s="57" t="n">
         <v>3.9</v>
       </c>
-      <c r="DX54" s="56" t="n">
+      <c r="DX54" s="57" t="n">
         <v>7.1</v>
       </c>
-      <c r="DY54" s="56" t="n">
+      <c r="DY54" s="57" t="n">
         <v>2.4</v>
       </c>
-      <c r="DZ54" s="56" t="n">
+      <c r="DZ54" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="EA54" s="56" t="n">
+      <c r="EA54" s="57" t="n">
         <v>1.9</v>
       </c>
-      <c r="EB54" s="57" t="n">
+      <c r="EB54" s="58" t="n">
         <v>2.3</v>
       </c>
-      <c r="EC54" s="58" t="n">
+      <c r="EC54" s="59" t="n">
         <v>19</v>
       </c>
       <c r="ED54" s="8" t="n">
@@ -28221,1216 +28231,1216 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="DG42:DH42 H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="60" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="61" width="31.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="61" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="61" width="18.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="62" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="61" width="29.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="61" width="8.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="61" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="62" width="31.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="62" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="62" width="18.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="63" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="62" width="29.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="62" width="8.72"/>
   </cols>
   <sheetData>
-    <row r="1" s="65" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
+    <row r="1" s="66" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="65" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="67" t="n">
+      <c r="E2" s="68" t="n">
         <v>1997</v>
       </c>
-      <c r="F2" s="67" t="n">
+      <c r="F2" s="68" t="n">
         <v>61</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="67" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="n">
+      <c r="A3" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="67" t="n">
+      <c r="E3" s="68" t="n">
         <v>2002</v>
       </c>
-      <c r="F3" s="67" t="n">
+      <c r="F3" s="68" t="n">
         <v>174</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="67" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="n">
+      <c r="A4" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="69" t="n">
+      <c r="E4" s="70" t="n">
         <v>2000</v>
       </c>
-      <c r="F4" s="69" t="n">
+      <c r="F4" s="70" t="n">
         <v>301</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="69" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="n">
+      <c r="A5" s="64" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="69" t="n">
+      <c r="E5" s="70" t="n">
         <v>2004</v>
       </c>
-      <c r="F5" s="69" t="n">
+      <c r="F5" s="70" t="n">
         <v>147</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="69" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="n">
+      <c r="A6" s="64" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="67" t="n">
+      <c r="E6" s="68" t="n">
         <v>2008</v>
       </c>
-      <c r="F6" s="67" t="n">
+      <c r="F6" s="68" t="n">
         <v>44</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="67" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="n">
+      <c r="A7" s="64" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="67" t="n">
+      <c r="E7" s="68" t="n">
         <v>2004</v>
       </c>
-      <c r="F7" s="67" t="n">
+      <c r="F7" s="68" t="n">
         <v>137</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="67" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="n">
+      <c r="A8" s="64" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="67" t="n">
+      <c r="E8" s="68" t="n">
         <v>1987</v>
       </c>
-      <c r="F8" s="67" t="n">
+      <c r="F8" s="68" t="n">
         <v>800</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="67" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="n">
+      <c r="A9" s="64" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="67" t="n">
+      <c r="E9" s="68" t="n">
         <v>1998</v>
       </c>
-      <c r="F9" s="67" t="n">
+      <c r="F9" s="68" t="n">
         <v>100</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="67" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="n">
+      <c r="A10" s="64" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="67" t="n">
+      <c r="E10" s="68" t="n">
         <v>2008</v>
       </c>
-      <c r="F10" s="67" t="n">
+      <c r="F10" s="68" t="n">
         <v>19</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="67" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="n">
+      <c r="A11" s="64" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="67" t="n">
+      <c r="E11" s="68" t="n">
         <v>1992</v>
       </c>
-      <c r="F11" s="67" t="n">
+      <c r="F11" s="68" t="n">
         <v>23</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="67" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63" t="n">
+      <c r="A12" s="64" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="67" t="n">
+      <c r="E12" s="68" t="n">
         <v>1997</v>
       </c>
-      <c r="F12" s="67" t="n">
+      <c r="F12" s="68" t="n">
         <v>50</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="67" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63" t="n">
+      <c r="A13" s="64" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="67" t="n">
+      <c r="E13" s="68" t="n">
         <v>1995</v>
       </c>
-      <c r="F13" s="67" t="n">
+      <c r="F13" s="68" t="n">
         <v>26</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="67" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63" t="n">
+      <c r="A14" s="64" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="E14" s="67" t="n">
+      <c r="E14" s="68" t="n">
         <v>2003</v>
       </c>
-      <c r="F14" s="67" t="n">
+      <c r="F14" s="68" t="n">
         <v>108</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="67" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="63" t="n">
+      <c r="A15" s="64" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="67" t="n">
+      <c r="E15" s="68" t="n">
         <v>2013</v>
       </c>
-      <c r="F15" s="67" t="n">
+      <c r="F15" s="68" t="n">
         <v>13</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="67" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="63" t="n">
+      <c r="A16" s="64" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="E16" s="67" t="n">
+      <c r="E16" s="68" t="n">
         <v>2010</v>
       </c>
-      <c r="F16" s="67" t="n">
+      <c r="F16" s="68" t="n">
         <v>10</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="67" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="63"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="67" t="n">
+      <c r="E17" s="68" t="n">
         <v>2007</v>
       </c>
-      <c r="F17" s="67" t="n">
+      <c r="F17" s="68" t="n">
         <v>32</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="71" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="63" t="n">
+      <c r="A18" s="64" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="E18" s="67" t="n">
+      <c r="E18" s="68" t="n">
         <v>2013</v>
       </c>
-      <c r="F18" s="67" t="n">
+      <c r="F18" s="68" t="n">
         <v>50</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="67" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="63" t="n">
+      <c r="A19" s="64" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="E19" s="67" t="n">
+      <c r="E19" s="68" t="n">
         <v>2005</v>
       </c>
-      <c r="F19" s="67" t="n">
+      <c r="F19" s="68" t="n">
         <v>188</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="67" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="63" t="n">
+      <c r="A20" s="64" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="E20" s="67" t="n">
+      <c r="E20" s="68" t="n">
         <v>2005</v>
       </c>
-      <c r="F20" s="67" t="n">
+      <c r="F20" s="68" t="n">
         <v>95</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="67" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="63" t="n">
+      <c r="A21" s="64" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="E21" s="67" t="n">
+      <c r="E21" s="68" t="n">
         <v>2016</v>
       </c>
-      <c r="F21" s="67" t="n">
+      <c r="F21" s="68" t="n">
         <v>9</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="67" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="63" t="n">
+      <c r="A22" s="64" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="E22" s="67" t="n">
+      <c r="E22" s="68" t="n">
         <v>1989</v>
       </c>
-      <c r="F22" s="67" t="n">
+      <c r="F22" s="68" t="n">
         <v>63</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="67" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="63" t="n">
+      <c r="A23" s="64" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="E23" s="67" t="n">
+      <c r="E23" s="68" t="n">
         <v>1989</v>
       </c>
-      <c r="F23" s="67" t="n">
+      <c r="F23" s="68" t="n">
         <v>67</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="67" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="63" t="n">
+      <c r="A24" s="64" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="E24" s="67" t="n">
+      <c r="E24" s="68" t="n">
         <v>1985</v>
       </c>
-      <c r="F24" s="67" t="n">
+      <c r="F24" s="68" t="n">
         <v>238</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="67" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="63" t="n">
+      <c r="A25" s="64" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="E25" s="67" t="n">
+      <c r="E25" s="68" t="n">
         <v>2004</v>
       </c>
-      <c r="F25" s="67" t="n">
+      <c r="F25" s="68" t="n">
         <v>20</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="67" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="63" t="n">
+      <c r="A26" s="64" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="E26" s="67" t="n">
+      <c r="E26" s="68" t="n">
         <v>2013</v>
       </c>
-      <c r="F26" s="67" t="n">
+      <c r="F26" s="68" t="n">
         <v>56</v>
       </c>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="67" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="63" t="n">
+      <c r="A27" s="64" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="E27" s="67" t="n">
+      <c r="E27" s="68" t="n">
         <v>2008</v>
       </c>
-      <c r="F27" s="67" t="n">
+      <c r="F27" s="68" t="n">
         <v>118</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="67" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="63"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="E28" s="67" t="n">
+      <c r="E28" s="68" t="n">
         <v>2013</v>
       </c>
-      <c r="F28" s="67" t="n">
+      <c r="F28" s="68" t="n">
         <v>86</v>
       </c>
-      <c r="G28" s="66" t="s">
+      <c r="G28" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="71" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="63" t="n">
+      <c r="A29" s="64" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="E29" s="67" t="n">
+      <c r="E29" s="68" t="n">
         <v>2006</v>
       </c>
-      <c r="F29" s="67" t="n">
+      <c r="F29" s="68" t="n">
         <v>32</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="67" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="63" t="n">
+      <c r="A30" s="64" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="67" t="s">
         <v>293</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="E30" s="67" t="n">
+      <c r="E30" s="68" t="n">
         <v>2004</v>
       </c>
-      <c r="F30" s="67" t="n">
+      <c r="F30" s="68" t="n">
         <v>19</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="67" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="63" t="n">
+      <c r="A31" s="64" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="E31" s="67" t="n">
+      <c r="E31" s="68" t="n">
         <v>2009</v>
       </c>
-      <c r="F31" s="67" t="n">
+      <c r="F31" s="68" t="n">
         <v>23</v>
       </c>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="67" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="63" t="n">
+      <c r="A32" s="64" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="67" t="s">
         <v>301</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="E32" s="67" t="n">
+      <c r="E32" s="68" t="n">
         <v>2000</v>
       </c>
-      <c r="F32" s="67" t="n">
+      <c r="F32" s="68" t="n">
         <v>49</v>
       </c>
-      <c r="G32" s="66" t="s">
+      <c r="G32" s="67" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="63" t="n">
+      <c r="A33" s="64" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="67" t="s">
         <v>306</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="E33" s="67" t="n">
+      <c r="E33" s="68" t="n">
         <v>1989</v>
       </c>
-      <c r="F33" s="67" t="n">
+      <c r="F33" s="68" t="n">
         <v>55</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="67" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="63" t="n">
+      <c r="A34" s="64" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="67" t="s">
         <v>309</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="E34" s="67" t="n">
+      <c r="E34" s="68" t="n">
         <v>2004</v>
       </c>
-      <c r="F34" s="67" t="n">
+      <c r="F34" s="68" t="n">
         <v>85</v>
       </c>
-      <c r="G34" s="66" t="s">
+      <c r="G34" s="67" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="63" t="n">
+      <c r="A35" s="64" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="67" t="s">
         <v>314</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="E35" s="67" t="n">
+      <c r="E35" s="68" t="n">
         <v>2005</v>
       </c>
-      <c r="F35" s="67" t="n">
+      <c r="F35" s="68" t="n">
         <v>28</v>
       </c>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="67" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="63" t="n">
+      <c r="A36" s="64" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="67" t="s">
         <v>318</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="E36" s="67" t="n">
+      <c r="E36" s="68" t="n">
         <v>2006</v>
       </c>
-      <c r="F36" s="67" t="n">
+      <c r="F36" s="68" t="n">
         <v>63</v>
       </c>
-      <c r="G36" s="66" t="s">
+      <c r="G36" s="67" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="63" t="n">
+      <c r="A37" s="64" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="E37" s="67" t="n">
+      <c r="E37" s="68" t="n">
         <v>2014</v>
       </c>
-      <c r="F37" s="67" t="n">
+      <c r="F37" s="68" t="n">
         <v>32</v>
       </c>
-      <c r="G37" s="66" t="s">
+      <c r="G37" s="67" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="63" t="n">
+      <c r="A38" s="64" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="67" t="s">
         <v>327</v>
       </c>
-      <c r="E38" s="67" t="n">
+      <c r="E38" s="68" t="n">
         <v>2005</v>
       </c>
-      <c r="F38" s="67" t="n">
+      <c r="F38" s="68" t="n">
         <v>69</v>
       </c>
-      <c r="G38" s="66" t="s">
+      <c r="G38" s="67" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="63" t="n">
+      <c r="A39" s="64" t="n">
         <v>36</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="67" t="s">
         <v>330</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="67" t="s">
         <v>331</v>
       </c>
-      <c r="E39" s="67" t="n">
+      <c r="E39" s="68" t="n">
         <v>2006</v>
       </c>
-      <c r="F39" s="67" t="n">
+      <c r="F39" s="68" t="n">
         <v>30</v>
       </c>
-      <c r="G39" s="66" t="s">
+      <c r="G39" s="67" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="63" t="n">
+      <c r="A40" s="64" t="n">
         <v>37</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="67" t="s">
         <v>333</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="67" t="s">
         <v>334</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="67" t="s">
         <v>335</v>
       </c>
-      <c r="E40" s="67" t="n">
+      <c r="E40" s="68" t="n">
         <v>2007</v>
       </c>
-      <c r="F40" s="67" t="n">
+      <c r="F40" s="68" t="n">
         <v>31</v>
       </c>
-      <c r="G40" s="66" t="s">
+      <c r="G40" s="67" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="63" t="n">
+      <c r="A41" s="64" t="n">
         <v>38</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="67" t="s">
         <v>337</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="67" t="s">
         <v>338</v>
       </c>
-      <c r="D41" s="66" t="s">
+      <c r="D41" s="67" t="s">
         <v>339</v>
       </c>
-      <c r="E41" s="67" t="n">
+      <c r="E41" s="68" t="n">
         <v>2005</v>
       </c>
-      <c r="F41" s="67" t="n">
+      <c r="F41" s="68" t="n">
         <v>120</v>
       </c>
-      <c r="G41" s="66" t="s">
+      <c r="G41" s="67" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="63" t="n">
+      <c r="A42" s="64" t="n">
         <v>39</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="67" t="s">
         <v>341</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="D42" s="66" t="s">
+      <c r="D42" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="E42" s="67" t="n">
+      <c r="E42" s="68" t="n">
         <v>1996</v>
       </c>
-      <c r="F42" s="67" t="n">
+      <c r="F42" s="68" t="n">
         <v>38</v>
       </c>
-      <c r="G42" s="66" t="s">
+      <c r="G42" s="67" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="63" t="n">
+      <c r="A43" s="64" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="67" t="s">
         <v>345</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="67" t="s">
         <v>346</v>
       </c>
-      <c r="D43" s="66" t="s">
+      <c r="D43" s="67" t="s">
         <v>347</v>
       </c>
-      <c r="E43" s="67" t="n">
+      <c r="E43" s="68" t="n">
         <v>2021</v>
       </c>
-      <c r="F43" s="67" t="n">
+      <c r="F43" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="G43" s="66" t="s">
+      <c r="G43" s="67" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="63" t="n">
+      <c r="A44" s="64" t="n">
         <v>41</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="67" t="s">
         <v>350</v>
       </c>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="67" t="s">
         <v>351</v>
       </c>
-      <c r="E44" s="67" t="n">
+      <c r="E44" s="68" t="n">
         <v>2000</v>
       </c>
-      <c r="F44" s="67" t="n">
+      <c r="F44" s="68" t="n">
         <v>73</v>
       </c>
-      <c r="G44" s="66" t="s">
+      <c r="G44" s="67" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="63"/>
-      <c r="B45" s="66" t="s">
+      <c r="A45" s="64"/>
+      <c r="B45" s="67" t="s">
         <v>353</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="67" t="s">
         <v>354</v>
       </c>
-      <c r="D45" s="66" t="s">
+      <c r="D45" s="67" t="s">
         <v>355</v>
       </c>
-      <c r="E45" s="67" t="n">
+      <c r="E45" s="68" t="n">
         <v>2004</v>
       </c>
-      <c r="F45" s="67" t="n">
+      <c r="F45" s="68" t="n">
         <v>72</v>
       </c>
-      <c r="G45" s="66" t="s">
+      <c r="G45" s="67" t="s">
         <v>356</v>
       </c>
-      <c r="H45" s="70" t="s">
+      <c r="H45" s="71" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="63" t="n">
+      <c r="A46" s="64" t="n">
         <v>42</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="67" t="s">
         <v>359</v>
       </c>
-      <c r="D46" s="66" t="s">
+      <c r="D46" s="67" t="s">
         <v>360</v>
       </c>
-      <c r="E46" s="67" t="n">
+      <c r="E46" s="68" t="n">
         <v>1993</v>
       </c>
-      <c r="F46" s="67" t="n">
+      <c r="F46" s="68" t="n">
         <v>56</v>
       </c>
-      <c r="G46" s="66" t="s">
+      <c r="G46" s="67" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="63" t="n">
+      <c r="A47" s="64" t="n">
         <v>43</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="67" t="s">
         <v>363</v>
       </c>
-      <c r="D47" s="66" t="s">
+      <c r="D47" s="67" t="s">
         <v>364</v>
       </c>
-      <c r="E47" s="67" t="n">
+      <c r="E47" s="68" t="n">
         <v>1999</v>
       </c>
-      <c r="F47" s="67" t="n">
+      <c r="F47" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="G47" s="66" t="s">
+      <c r="G47" s="67" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="63" t="n">
+      <c r="A48" s="64" t="n">
         <v>44</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="67" t="s">
         <v>366</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="67" t="s">
         <v>367</v>
       </c>
-      <c r="D48" s="66" t="s">
+      <c r="D48" s="67" t="s">
         <v>368</v>
       </c>
-      <c r="E48" s="67" t="n">
+      <c r="E48" s="68" t="n">
         <v>2019</v>
       </c>
-      <c r="F48" s="67" t="n">
+      <c r="F48" s="68" t="n">
         <v>5</v>
       </c>
-      <c r="G48" s="66" t="s">
+      <c r="G48" s="67" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="63" t="n">
+      <c r="A49" s="64" t="n">
         <v>45</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="67" t="s">
         <v>370</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="67" t="s">
         <v>371</v>
       </c>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="67" t="s">
         <v>372</v>
       </c>
-      <c r="E49" s="67" t="n">
+      <c r="E49" s="68" t="n">
         <v>2008</v>
       </c>
-      <c r="F49" s="67" t="n">
+      <c r="F49" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="G49" s="66" t="s">
+      <c r="G49" s="67" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="63" t="n">
+      <c r="A50" s="64" t="n">
         <v>46</v>
       </c>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="67" t="s">
         <v>374</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="67" t="s">
         <v>375</v>
       </c>
-      <c r="D50" s="66" t="s">
+      <c r="D50" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="E50" s="67" t="n">
+      <c r="E50" s="68" t="n">
         <v>2012</v>
       </c>
-      <c r="F50" s="67" t="n">
+      <c r="F50" s="68" t="n">
         <v>24</v>
       </c>
-      <c r="G50" s="66" t="s">
+      <c r="G50" s="67" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="63" t="n">
+      <c r="A51" s="64" t="n">
         <v>47</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="67" t="s">
         <v>378</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="67" t="s">
         <v>379</v>
       </c>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="E51" s="67" t="n">
+      <c r="E51" s="68" t="n">
         <v>2015</v>
       </c>
-      <c r="F51" s="67" t="n">
+      <c r="F51" s="68" t="n">
         <v>27</v>
       </c>
-      <c r="G51" s="66" t="s">
+      <c r="G51" s="67" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="63" t="n">
+      <c r="A52" s="64" t="n">
         <v>48</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="67" t="s">
         <v>382</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="D52" s="66" t="s">
+      <c r="D52" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="E52" s="67" t="n">
+      <c r="E52" s="68" t="n">
         <v>1994</v>
       </c>
-      <c r="F52" s="67" t="n">
+      <c r="F52" s="68" t="n">
         <v>41</v>
       </c>
-      <c r="G52" s="66" t="s">
+      <c r="G52" s="67" t="s">
         <v>385</v>
       </c>
     </row>

--- a/DataTable_Guda_3.xlsx
+++ b/DataTable_Guda_3.xlsx
@@ -1865,10 +1865,10 @@
   </sheetPr>
   <dimension ref="B1:NZ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K10" activeCellId="0" sqref="K10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B7" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topRight" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13651,7 +13651,7 @@
         <v>79</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
@@ -16092,7 +16092,7 @@
         <v>97</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="7"/>
@@ -20596,7 +20596,7 @@
       </c>
       <c r="D34" s="43"/>
       <c r="E34" s="0" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="7"/>
@@ -20878,7 +20878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="42" t="s">
         <v>119</v>
       </c>
@@ -20887,7 +20887,7 @@
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="0" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="7"/>
@@ -21176,7 +21176,7 @@
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="0" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="7"/>
@@ -22063,7 +22063,7 @@
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="0" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="7"/>

--- a/DataTable_Guda_3.xlsx
+++ b/DataTable_Guda_3.xlsx
@@ -26,6 +26,23 @@
     <author> </author>
   </authors>
   <commentList>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">20 – good
+5 – isn’t used to predict hardness
+1 – sparsity is  more than 50%
+-10 – invalid (not for prediction)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BD33" authorId="0">
       <text>
         <r>
@@ -492,7 +509,7 @@
     <t xml:space="preserve">Indenter load, N</t>
   </si>
   <si>
-    <t xml:space="preserve">Indent</t>
+    <t xml:space="preserve">IndentLoad</t>
   </si>
   <si>
     <t xml:space="preserve">Young modulus: E, ГПа</t>
@@ -2319,10 +2336,10 @@
   </sheetPr>
   <dimension ref="B1:NZ55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B15" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="topRight" activeCell="J40" activeCellId="0" sqref="J40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3827,7 +3844,7 @@
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="21" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0</v>
@@ -9436,7 +9453,7 @@
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="0" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="7"/>
@@ -17135,7 +17152,7 @@
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="0" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F25" s="8" t="n">
         <v>1</v>
@@ -18374,7 +18391,7 @@
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="0" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
@@ -18659,7 +18676,7 @@
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="7"/>
@@ -18966,7 +18983,7 @@
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="7"/>
@@ -20965,7 +20982,7 @@
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="0" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F33" s="46" t="n">
         <v>0.01</v>
@@ -22059,7 +22076,7 @@
       </c>
       <c r="D35" s="60"/>
       <c r="E35" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="7"/>
@@ -22350,7 +22367,7 @@
       </c>
       <c r="D36" s="60"/>
       <c r="E36" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="7"/>
@@ -22639,7 +22656,7 @@
       </c>
       <c r="D37" s="60"/>
       <c r="E37" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="7"/>
@@ -22930,7 +22947,7 @@
       </c>
       <c r="D38" s="60"/>
       <c r="E38" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="7"/>
@@ -23221,7 +23238,7 @@
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="7"/>
@@ -23526,7 +23543,7 @@
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="7"/>
@@ -23811,7 +23828,7 @@
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="7"/>
@@ -24154,7 +24171,7 @@
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F42" s="61"/>
       <c r="G42" s="62"/>

--- a/DataTable_Guda_3.xlsx
+++ b/DataTable_Guda_3.xlsx
@@ -2339,7 +2339,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topRight" activeCell="M30" activeCellId="0" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
